--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Monash_University\Year5\Honours_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B54DEC0-0BCB-4224-A9C3-CB6B795B4C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86381143-6A05-428A-9726-807D2454F383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
     <sheet name="New" sheetId="3" r:id="rId2"/>
     <sheet name="general data" sheetId="5" r:id="rId3"/>
+    <sheet name="new_data" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="26">
   <si>
     <t>TSN = Total number of generated samples</t>
   </si>
@@ -114,15 +116,18 @@
   <si>
     <t>DT</t>
   </si>
+  <si>
+    <t>DSS = average execution time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.000000"/>
-    <numFmt numFmtId="174" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -141,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,12 +309,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,64 +391,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,14 +400,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,14 +744,14 @@
   <cols>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="9.140625" style="21"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
     <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="9.140625" style="21"/>
+    <col min="11" max="11" width="9.140625" style="14"/>
     <col min="12" max="13" width="9.140625" style="4"/>
     <col min="14" max="14" width="9.140625" style="3"/>
-    <col min="15" max="15" width="9.140625" style="21"/>
+    <col min="15" max="15" width="9.140625" style="14"/>
     <col min="16" max="17" width="9.140625" style="4"/>
-    <col min="19" max="19" width="9.140625" style="21"/>
+    <col min="19" max="19" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
@@ -773,78 +785,78 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="5" t="s">
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="5" t="s">
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="5" t="s">
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="7"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="74"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="S15" s="22" t="s">
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -852,103 +864,101 @@
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="6">
         <v>44098.52</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="2">
         <v>27296.32</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="3">
         <f>103.276120014/27296.32</f>
         <v>3.7835180718133435E-3</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="15">
         <f>E16/D16</f>
         <v>0.61898494552651662</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="6">
         <v>52887.32</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="2">
         <v>32730.52</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="3">
         <f>113.093840017/I16</f>
         <v>3.4553022688609898E-3</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="15">
         <f>I16/H16</f>
         <v>0.61887272790529002</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="10">
         <v>2887.6</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="4">
         <v>368.68</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="3">
         <f>468.438400011/M16</f>
         <v>1.2705826191032874</v>
       </c>
-      <c r="O16" s="22">
+      <c r="O16" s="15">
         <f>M16/L16</f>
         <v>0.12767696356836128</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="22"/>
+      <c r="P16" s="10"/>
+      <c r="S16" s="15"/>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="7">
         <v>48122.28</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="8">
         <v>28958.84</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="9">
         <f>60.1888722394/E17</f>
         <v>2.0784282878526903E-3</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="16">
         <f>E17/D17</f>
         <v>0.60177614194506168</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="7">
         <v>62887.360000000001</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="8">
         <v>29795.52</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="9">
         <f>19.6977600098/I17</f>
         <v>6.610980445986511E-4</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="16">
         <f>I17/H17</f>
         <v>0.4737918716893188</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="11">
         <v>4843.04</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="12">
         <v>1530.8</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="9">
         <f>31.9777913834/M17</f>
         <v>2.0889594580219495E-2</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="16">
         <f>M17/L17</f>
         <v>0.31608246060325745</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="23"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="16"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
@@ -956,78 +966,78 @@
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="5" t="s">
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="5" t="s">
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="5" t="s">
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="7"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="74"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="S23" s="22" t="s">
+      <c r="D23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1035,94 +1045,92 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="6">
         <v>30896.2</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="2">
         <v>18305.240000000002</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="3">
         <f>59.0000298966/E24</f>
         <v>3.223122444535007E-3</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="15">
         <f>E24/D24</f>
         <v>0.59247545005534663</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="6">
         <v>38412.36</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="2">
         <f>23806</f>
         <v>23806</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="3">
         <f>61.5569125665/I24</f>
         <v>2.5857730222002859E-3</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="15">
         <f>I24/H24</f>
         <v>0.61974843513910627</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="10">
         <v>2570.44</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="4">
         <v>231.72</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="3">
         <f>343.006240015/M24</f>
         <v>1.4802616952140515</v>
       </c>
-      <c r="O24" s="22">
+      <c r="O24" s="15">
         <f>M24/L24</f>
         <v>9.0147990227354063E-2</v>
       </c>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="22"/>
+      <c r="P24" s="10"/>
+      <c r="S24" s="15"/>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="7">
         <v>257392.64000000001</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="8">
         <v>160088.68</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="9">
         <f>427.534279995/E25</f>
         <v>2.6706090648945325E-3</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="16">
         <f>E25/D25</f>
         <v>0.62196292792210373</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="7">
         <v>255903.8</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="8">
         <v>119737</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="9">
         <f>439.964559984/I25</f>
         <v>3.6744244467791913E-3</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="16">
         <f>I25/H25</f>
         <v>0.46789848372708809</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="23"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="16"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
@@ -1130,78 +1138,78 @@
       </c>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="5" t="s">
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="5" t="s">
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="5" t="s">
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="7"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="74"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O31" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="P31" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q31" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="R31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="S31" s="22" t="s">
+      <c r="D31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" t="s">
+        <v>7</v>
+      </c>
+      <c r="S31" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1209,59 +1217,59 @@
       <c r="C32" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="6">
         <v>2247.6</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="2">
         <v>1530.28</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="3">
         <f>3.54327999115/E32</f>
         <v>2.3154455335951591E-3</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="15">
         <f>E32/D32</f>
         <v>0.68085068517529812</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="6">
         <v>2159.2800000000002</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="2">
         <v>1476.6</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="3">
         <f>3.49272001266/I32</f>
         <v>2.3653799354327511E-3</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="15">
         <f>I32/H32</f>
         <v>0.68383905746359885</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="10">
         <v>4618.4799999999996</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="4">
         <v>2265</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="3">
         <f>46.2241999722/M32</f>
         <v>2.0408035307814567E-2</v>
       </c>
-      <c r="O32" s="22">
+      <c r="O32" s="15">
         <f>M32/L32</f>
         <v>0.49042109092168856</v>
       </c>
-      <c r="P32" s="16">
+      <c r="P32" s="10">
         <v>4246.04</v>
       </c>
-      <c r="Q32" s="17">
+      <c r="Q32" s="4">
         <v>2159.4</v>
       </c>
-      <c r="R32" s="9">
+      <c r="R32">
         <f>49.4491600227/Q32</f>
         <v>2.2899490609752708E-2</v>
       </c>
-      <c r="S32" s="22">
+      <c r="S32" s="15">
         <f>Q32/P32</f>
         <v>0.50856798334448106</v>
       </c>
@@ -1270,43 +1278,43 @@
       <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="7">
         <v>68436.800000000003</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="8">
         <v>44995.64</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="9">
         <f>65.7527272442/E33</f>
         <v>1.4613133015598846E-3</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="16">
         <f>E33/D33</f>
         <v>0.65747726369438664</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="7">
         <f>544940.68</f>
         <v>544940.68000000005</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="8">
         <v>318601.2</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="9">
         <f>58.4416252978/I33</f>
         <v>1.8343190577373844E-4</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="16">
         <f>I33/H33</f>
         <v>0.58465299379007629</v>
       </c>
-      <c r="L33" s="18"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="23"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1339,978 +1347,978 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="39"/>
-    <col min="9" max="9" width="9.140625" style="39"/>
-    <col min="13" max="13" width="9.140625" style="39"/>
+    <col min="5" max="5" width="9.140625" style="25"/>
+    <col min="9" max="9" width="9.140625" style="25"/>
+    <col min="13" max="13" width="9.140625" style="25"/>
     <col min="15" max="15" width="9.140625" style="4"/>
-    <col min="17" max="17" width="9.140625" style="39"/>
+    <col min="17" max="17" width="9.140625" style="25"/>
     <col min="18" max="18" width="11.85546875" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="36"/>
-    <col min="22" max="22" width="9.140625" style="21"/>
-    <col min="25" max="25" width="9.140625" style="36"/>
-    <col min="26" max="26" width="9.140625" style="21"/>
+    <col min="21" max="21" width="9.140625" style="23"/>
+    <col min="22" max="22" width="9.140625" style="14"/>
+    <col min="25" max="25" width="9.140625" style="23"/>
+    <col min="26" max="26" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="F2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="N2" s="21"/>
+      <c r="N2" s="14"/>
       <c r="P2" s="4"/>
-      <c r="R2" s="21"/>
+      <c r="R2" s="14"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="F3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="N3" s="21"/>
+      <c r="N3" s="14"/>
       <c r="P3" s="4"/>
-      <c r="R3" s="21"/>
+      <c r="R3" s="14"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5" t="s">
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="5" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="5" t="s">
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="5" t="s">
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="7"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="74"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="U5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="22" t="s">
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6">
         <v>44098.52</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="2">
         <v>27296.32</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="25">
         <f>103.276120014/27296.32</f>
         <v>3.7835180718133435E-3</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="15">
         <f>D6/C6</f>
         <v>0.61898494552651662</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="6">
         <v>52887.32</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="2">
         <v>32730.52</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="25">
         <f>113.093840017/H6</f>
         <v>3.4553022688609898E-3</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="15">
         <f>H6/G6</f>
         <v>0.61887272790529002</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="10">
         <v>22656.6</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="4">
         <v>5166.8</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="25">
         <f>1014.21075996/L6</f>
         <v>0.19629379112022916</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="15">
         <f>0.2360279625</f>
         <v>0.23602796249999999</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="10">
         <v>21564.68</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="4">
         <v>3772.8</v>
       </c>
-      <c r="Q6" s="40">
+      <c r="Q6" s="25">
         <v>0.39690174464099998</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="15">
         <f>0.187939421018</f>
         <v>0.18793942101800001</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="10">
         <v>55515.28</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="4">
         <v>36633.08</v>
       </c>
-      <c r="U6" s="37">
+      <c r="U6" s="23">
         <v>1.02033622588673E-2</v>
       </c>
-      <c r="V6" s="22">
+      <c r="V6" s="15">
         <f>0.659882469743322</f>
         <v>0.65988246974332199</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="10">
         <v>81260.56</v>
       </c>
-      <c r="X6" s="17">
+      <c r="X6" s="4">
         <v>44835.08</v>
       </c>
-      <c r="Y6" s="37">
+      <c r="Y6" s="23">
         <v>8.6818374392281794E-3</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="15">
         <f>0.551745908168678</f>
         <v>0.55174590816867797</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>48122.28</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="8">
         <v>28958.84</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="26">
         <f>60.1888722394/D7</f>
         <v>2.0784282878526903E-3</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="16">
         <f>D7/C7</f>
         <v>0.60177614194506168</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="7">
         <v>62887.360000000001</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="8">
         <v>29795.52</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="26">
         <f>19.6977600098/H7</f>
         <v>6.610980445986511E-4</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="16">
         <f>H7/G7</f>
         <v>0.4737918716893188</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="11">
         <v>4843.04</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="12">
         <v>1530.8</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="26">
         <f>31.9777913834/L7</f>
         <v>2.0889594580219495E-2</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="16">
         <f>0.319777913834</f>
         <v>0.319777913834</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="11">
         <v>5260.76</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="12">
         <v>1370.96</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="Q7" s="26">
         <v>0.252147387695</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="16">
         <f>0.264446342309</f>
         <v>0.26444634230899999</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="11">
         <v>44320.160000000003</v>
       </c>
-      <c r="T7" s="19">
+      <c r="T7" s="12">
         <v>11343.32</v>
       </c>
-      <c r="U7" s="38">
+      <c r="U7" s="24">
         <v>7.2003325896721704E-2</v>
       </c>
-      <c r="V7" s="23">
+      <c r="V7" s="16">
         <f>0.232944897762595</f>
         <v>0.232944897762595</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="11">
         <v>70674.52</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="12">
         <v>14335.04</v>
       </c>
-      <c r="Y7" s="38">
+      <c r="Y7" s="24">
         <v>1.5778135649961202E-2</v>
       </c>
-      <c r="Z7" s="23">
+      <c r="Z7" s="16">
         <f>0.202862373601151</f>
         <v>0.202862373601151</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="F8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="N8" s="21"/>
+      <c r="N8" s="14"/>
       <c r="P8" s="4"/>
-      <c r="R8" s="21"/>
+      <c r="R8" s="14"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="F9" s="14"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="N9" s="21"/>
+      <c r="N9" s="14"/>
       <c r="P9" s="4"/>
-      <c r="R9" s="21"/>
+      <c r="R9" s="14"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="F10" s="14"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="N10" s="21"/>
+      <c r="N10" s="14"/>
       <c r="P10" s="4"/>
-      <c r="R10" s="21"/>
+      <c r="R10" s="14"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="F11" s="14"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="N11" s="21"/>
+      <c r="N11" s="14"/>
       <c r="P11" s="4"/>
-      <c r="R11" s="21"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5" t="s">
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="5" t="s">
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="5" t="s">
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="5" t="s">
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="5" t="s">
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="7"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="74"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="R13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="S13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="U13" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="V13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="X13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y13" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z13" s="22" t="s">
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="6">
         <v>30896.2</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="2">
         <v>18305.240000000002</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="25">
         <f>59.0000298966/D14</f>
         <v>3.223122444535007E-3</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="15">
         <f>D14/C14</f>
         <v>0.59247545005534663</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="6">
         <v>38412.36</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="2">
         <f>23806</f>
         <v>23806</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="25">
         <f>61.5569125665/H14</f>
         <v>2.5857730222002859E-3</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="15">
         <f>H14/G14</f>
         <v>0.61974843513910627</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="10">
         <v>2570.44</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="4">
         <v>231.72</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="25">
         <f>343.006240015/L14</f>
         <v>1.4802616952140515</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="15">
         <f>L14/K14</f>
         <v>9.0147990227354063E-2</v>
       </c>
       <c r="O14" s="4">
         <v>7084.44</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="4">
         <v>1755.96</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="25">
         <v>0.13470635712000001</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="15">
         <f>0.246622422561</f>
         <v>0.246622422561</v>
       </c>
-      <c r="S14" s="16">
+      <c r="S14" s="10">
         <v>55600.68</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="4">
         <v>38805.919999999998</v>
       </c>
-      <c r="U14" s="37">
+      <c r="U14" s="23">
         <v>9.6589824609999795E-3</v>
       </c>
-      <c r="V14" s="22">
+      <c r="V14" s="15">
         <f>0.697936026591963</f>
         <v>0.69793602659196297</v>
       </c>
-      <c r="W14" s="25">
+      <c r="W14" s="17">
         <v>64500.88</v>
       </c>
-      <c r="X14" s="26">
+      <c r="X14" s="18">
         <v>44698.92</v>
       </c>
-      <c r="Y14" s="43">
+      <c r="Y14" s="31">
         <v>7.7931286510935904E-4</v>
       </c>
-      <c r="Z14" s="27">
+      <c r="Z14" s="19">
         <f>0.692974481837855</f>
         <v>0.69297448183785504</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="7">
         <v>257392.64000000001</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="8">
         <v>160088.68</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="26">
         <f>427.534279995/D15</f>
         <v>2.6706090648945325E-3</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="16">
         <f>D15/C15</f>
         <v>0.62196292792210373</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="7">
         <v>255903.8</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="8">
         <v>119737</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="26">
         <f>439.964559984/H15</f>
         <v>3.6744244467791913E-3</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="16">
         <f>H15/G15</f>
         <v>0.46789848372708809</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="11">
         <v>12894.72</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="12">
         <v>6653.84</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="26">
         <v>0.41677748738499998</v>
       </c>
-      <c r="N15" s="35">
+      <c r="N15" s="16">
         <f>0.516229388841</f>
         <v>0.516229388841</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="20">
         <v>15535.84</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="21">
         <v>7148.88</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="30">
         <f>0.966287252578</f>
         <v>0.96628725257799997</v>
       </c>
-      <c r="R15" s="30">
+      <c r="R15" s="22">
         <f>0.466064149112</f>
         <v>0.466064149112</v>
       </c>
-      <c r="S15" s="18">
+      <c r="S15" s="11">
         <v>51922.2</v>
       </c>
-      <c r="T15" s="19">
+      <c r="T15" s="12">
         <v>40313.32</v>
       </c>
-      <c r="U15" s="38">
+      <c r="U15" s="24">
         <v>9.54076675573781E-3</v>
       </c>
-      <c r="V15" s="23">
+      <c r="V15" s="16">
         <f>0.7764193639493</f>
         <v>0.7764193639493</v>
       </c>
-      <c r="W15" s="28">
+      <c r="W15" s="20">
         <v>58023.76</v>
       </c>
-      <c r="X15" s="29">
+      <c r="X15" s="21">
         <v>43282.44</v>
       </c>
-      <c r="Y15" s="44">
+      <c r="Y15" s="32">
         <v>7.9658539794486699E-3</v>
       </c>
-      <c r="Z15" s="30">
+      <c r="Z15" s="22">
         <f>0.745946522916794</f>
         <v>0.74594652291679397</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="F16" s="14"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="N16" s="21"/>
+      <c r="N16" s="14"/>
       <c r="P16" s="4"/>
-      <c r="R16" s="21"/>
+      <c r="R16" s="14"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="F17" s="14"/>
+      <c r="J17" s="14"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="N17" s="21"/>
+      <c r="N17" s="14"/>
       <c r="P17" s="4"/>
-      <c r="R17" s="21"/>
+      <c r="R17" s="14"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="F18" s="14"/>
+      <c r="J18" s="14"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="N18" s="21"/>
+      <c r="N18" s="14"/>
       <c r="P18" s="4"/>
-      <c r="R18" s="21"/>
+      <c r="R18" s="14"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="F19" s="14"/>
+      <c r="J19" s="14"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="N19" s="21"/>
+      <c r="N19" s="14"/>
       <c r="P19" s="4"/>
-      <c r="R19" s="21"/>
+      <c r="R19" s="14"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5" t="s">
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="5" t="s">
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="5" t="s">
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="5" t="s">
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="5" t="s">
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="7"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="74"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="R21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="U21" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="V21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y21" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z21" s="22" t="s">
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="6">
         <v>2247.6</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="2">
         <v>1530.28</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="25">
         <f>3.54327999115/D22</f>
         <v>2.3154455335951591E-3</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="15">
         <f>D22/C22</f>
         <v>0.68085068517529812</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="6">
         <v>2159.2800000000002</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="2">
         <v>1476.6</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="25">
         <f>3.49272001266/H22</f>
         <v>2.3653799354327511E-3</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="15">
         <f>H22/G22</f>
         <v>0.68383905746359885</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="10">
         <v>1788.56</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="4">
         <v>383.36</v>
       </c>
-      <c r="M22" s="40">
+      <c r="M22" s="25">
         <f>6.74392003059/L22</f>
         <v>1.7591611098158388E-2</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="15">
         <f>0.117365546056</f>
         <v>0.117365546056</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O22" s="10">
         <v>2361.4</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P22" s="4">
         <v>394.84</v>
       </c>
-      <c r="Q22" s="40">
+      <c r="Q22" s="25">
         <f>8.55363998413/P22</f>
         <v>2.166355988281329E-2</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="15">
         <f>0.133845483353</f>
         <v>0.13384548335300001</v>
       </c>
-      <c r="S22" s="16">
+      <c r="S22" s="10">
         <v>55936.959999999999</v>
       </c>
-      <c r="T22" s="17">
+      <c r="T22" s="4">
         <v>40193.279999999999</v>
       </c>
-      <c r="U22" s="37">
+      <c r="U22" s="23">
         <v>9.6911962174447898E-4</v>
       </c>
-      <c r="V22" s="22">
+      <c r="V22" s="15">
         <f>0.718535975005012</f>
         <v>0.71853597500501198</v>
       </c>
-      <c r="W22" s="25">
+      <c r="W22" s="17">
         <v>76576.479999999996</v>
       </c>
-      <c r="X22" s="26">
+      <c r="X22" s="18">
         <v>47871.16</v>
       </c>
-      <c r="Y22" s="43">
+      <c r="Y22" s="31">
         <v>7.3714196677161401E-4</v>
       </c>
-      <c r="Z22" s="27">
+      <c r="Z22" s="19">
         <f>0.625144577295746</f>
         <v>0.62514457729574602</v>
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="7">
         <v>68436.800000000003</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="8">
         <v>44995.64</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="26">
         <f>65.7527272442/D23</f>
         <v>1.4613133015598846E-3</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="16">
         <f>D23/C23</f>
         <v>0.65747726369438664</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="7">
         <f>544940.68</f>
         <v>544940.68000000005</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="8">
         <v>318601.2</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="26">
         <f>58.4416252978/H23</f>
         <v>1.8343190577373844E-4</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="16">
         <f>H23/G23</f>
         <v>0.58465299379007629</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="20">
         <v>55759.76</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="21">
         <v>5086.16</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="30">
         <f>0.037332598489539</f>
         <v>3.7332598489539001E-2</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="22">
         <f>0.0941569205377</f>
         <v>9.4156920537700001E-2</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="20">
         <v>47453.52</v>
       </c>
-      <c r="P23" s="29">
+      <c r="P23" s="21">
         <v>4134.3999999999996</v>
       </c>
-      <c r="Q23" s="42">
+      <c r="Q23" s="30">
         <v>3.6523870370000003E-2</v>
       </c>
-      <c r="R23" s="30">
+      <c r="R23" s="22">
         <f>0.0902443968813</f>
         <v>9.0244396881299996E-2</v>
       </c>
-      <c r="S23" s="18">
+      <c r="S23" s="11">
         <v>51869.16</v>
       </c>
-      <c r="T23" s="19">
+      <c r="T23" s="12">
         <v>39307.879999999997</v>
       </c>
-      <c r="U23" s="38">
+      <c r="U23" s="24">
         <f>0.000974304385141053</f>
         <v>9.74304385141053E-4</v>
       </c>
-      <c r="V23" s="23">
+      <c r="V23" s="16">
         <f>0.757818562053007</f>
         <v>0.75781856205300702</v>
       </c>
-      <c r="W23" s="18">
+      <c r="W23" s="11">
         <v>71577.440000000002</v>
       </c>
-      <c r="X23" s="19">
+      <c r="X23" s="12">
         <v>47248.160000000003</v>
       </c>
-      <c r="Y23" s="38">
+      <c r="Y23" s="24">
         <v>9.1041977552592699E-4</v>
       </c>
-      <c r="Z23" s="23">
+      <c r="Z23" s="16">
         <f>0.660101503056236</f>
         <v>0.66010150305623605</v>
       </c>
@@ -2327,11 +2335,6 @@
     <mergeCell ref="K20:N20"/>
     <mergeCell ref="O20:R20"/>
     <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:N4"/>
@@ -2340,6 +2343,11 @@
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="O12:R12"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2349,35 +2357,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4324891-8F36-4518-8749-2ECD10F14963}">
   <dimension ref="A2:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="10.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="21"/>
-    <col min="12" max="12" width="9.140625" style="36"/>
-    <col min="13" max="13" width="9.140625" style="21"/>
+    <col min="8" max="8" width="10.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="14"/>
+    <col min="12" max="12" width="9.140625" style="23"/>
+    <col min="13" max="13" width="9.140625" style="14"/>
     <col min="14" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="9.140625" style="36"/>
-    <col min="17" max="17" width="9.140625" style="21"/>
-    <col min="20" max="20" width="9.140625" style="36"/>
-    <col min="21" max="21" width="9.140625" style="21"/>
+    <col min="16" max="16" width="9.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="14"/>
+    <col min="20" max="20" width="9.140625" style="23"/>
+    <col min="21" max="21" width="9.140625" style="14"/>
     <col min="22" max="23" width="9.140625" style="2"/>
-    <col min="24" max="24" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="21"/>
+    <col min="24" max="24" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="14"/>
       <c r="J2" t="s">
         <v>22</v>
       </c>
@@ -2387,295 +2395,293 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D3" s="39"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="14"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="5" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="5" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="5" t="s">
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="66" t="s">
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="66" t="s">
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="68"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="77"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="X5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="22" t="s">
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="36">
         <v>43861.68</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="37">
         <v>27560.12</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="38">
         <v>4.1082749177399997E-3</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="39">
         <f>0.627764779504</f>
         <v>0.627764779504</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="36">
         <v>44746.239999999998</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="37">
         <v>28439.88</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="40">
         <v>4.0888118807699998E-3</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="39">
         <f>0.635583855722</f>
         <v>0.63558385572200005</v>
       </c>
-      <c r="J6" s="25">
-        <v>22656.6</v>
-      </c>
-      <c r="K6" s="26">
-        <v>5166.8</v>
-      </c>
-      <c r="L6" s="43">
-        <f>1014.21075996/K6</f>
-        <v>0.19629379112022916</v>
-      </c>
-      <c r="M6" s="27">
-        <f>0.2360279625</f>
-        <v>0.23602796249999999</v>
-      </c>
-      <c r="N6" s="52">
+      <c r="J6" s="46">
+        <v>22778.52</v>
+      </c>
+      <c r="K6" s="47">
+        <v>5056.88</v>
+      </c>
+      <c r="L6" s="40">
+        <v>0.217891284849</v>
+      </c>
+      <c r="M6" s="39">
+        <f>0.229772150746</f>
+        <v>0.22977215074599999</v>
+      </c>
+      <c r="N6" s="36">
         <v>14276.16</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="37">
         <v>6475.72</v>
       </c>
-      <c r="P6" s="56">
+      <c r="P6" s="40">
         <v>0.66141675514800002</v>
       </c>
-      <c r="Q6" s="55">
+      <c r="Q6" s="39">
         <f>0.495939083514</f>
         <v>0.49593908351400001</v>
       </c>
-      <c r="R6" s="62">
+      <c r="R6" s="46">
         <v>75597.440000000002</v>
       </c>
-      <c r="S6" s="63">
+      <c r="S6" s="47">
         <v>42141.32</v>
       </c>
-      <c r="T6" s="56">
+      <c r="T6" s="40">
         <v>1.04460485707496E-2</v>
       </c>
-      <c r="U6" s="55">
+      <c r="U6" s="39">
         <v>0.55744297070748905</v>
       </c>
-      <c r="V6" s="52">
+      <c r="V6" s="36">
         <v>72404.960000000006</v>
       </c>
-      <c r="W6" s="53">
+      <c r="W6" s="37">
         <v>43416.4</v>
       </c>
-      <c r="X6" s="56">
+      <c r="X6" s="40">
         <v>1.01703200463237E-2</v>
       </c>
-      <c r="Y6" s="55">
+      <c r="Y6" s="39">
         <v>0.59963527384809401</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="53">
         <v>47010.84</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="54">
         <v>28294.880000000001</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="55">
         <v>6.4714923485100005E-4</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="56">
         <f>0.60183842307</f>
         <v>0.60183842307000002</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="53">
         <v>80551.12</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="54">
         <v>50689.52</v>
       </c>
-      <c r="H7" s="73">
+      <c r="H7" s="57">
         <v>4.3877273659700001E-4</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="56">
         <f>0.629191759205</f>
         <v>0.62919175920500003</v>
       </c>
-      <c r="J7" s="64">
+      <c r="J7" s="48">
         <v>4843.04</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="49">
         <v>1530.8</v>
       </c>
-      <c r="L7" s="61">
-        <f>31.9777913834/K7</f>
-        <v>2.0889594580219495E-2</v>
-      </c>
-      <c r="M7" s="60">
+      <c r="L7" s="45">
+        <v>8.4274882345303906E-2</v>
+      </c>
+      <c r="M7" s="44">
         <f>0.319777913834</f>
         <v>0.319777913834</v>
       </c>
-      <c r="N7" s="57">
+      <c r="N7" s="41">
         <v>3870.28</v>
       </c>
-      <c r="O7" s="58">
+      <c r="O7" s="42">
         <v>1329.32</v>
       </c>
-      <c r="P7" s="61">
+      <c r="P7" s="45">
         <v>0.34610360097600001</v>
       </c>
-      <c r="Q7" s="60">
+      <c r="Q7" s="44">
         <f>0.345052281224</f>
         <v>0.345052281224</v>
       </c>
-      <c r="R7" s="74">
+      <c r="R7" s="58">
         <v>71535</v>
       </c>
-      <c r="S7" s="75">
+      <c r="S7" s="59">
         <v>14803.52</v>
       </c>
-      <c r="T7" s="73">
+      <c r="T7" s="57">
         <v>1.3708259982290701E-2</v>
       </c>
-      <c r="U7" s="72">
+      <c r="U7" s="56">
         <f>0.206990094100602</f>
         <v>0.20699009410060201</v>
       </c>
-      <c r="V7" s="69">
+      <c r="V7" s="53">
         <v>70674.52</v>
       </c>
-      <c r="W7" s="70">
+      <c r="W7" s="54">
         <v>14335.04</v>
       </c>
-      <c r="X7" s="73">
+      <c r="X7" s="57">
         <v>1.5778135649961202E-2</v>
       </c>
-      <c r="Y7" s="72">
+      <c r="Y7" s="56">
         <f>0.202862373601151</f>
         <v>0.202862373601151</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D8" s="39"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="2">
         <f>F6-B6</f>
         <v>884.55999999999767</v>
@@ -2684,11 +2690,11 @@
         <f t="shared" ref="G8:I8" si="0">G6-C6</f>
         <v>879.76000000000204</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="23">
         <f>H6-D6</f>
         <v>-1.9463036969999924E-5</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="14">
         <f t="shared" si="0"/>
         <v>7.8190762180000428E-3</v>
       </c>
@@ -2696,19 +2702,19 @@
       <c r="K8" s="4"/>
       <c r="N8" s="2">
         <f t="shared" ref="N8:Q8" si="1">N6-J6</f>
-        <v>-8380.4399999999987</v>
+        <v>-8502.36</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" si="1"/>
-        <v>1308.92</v>
-      </c>
-      <c r="P8" s="36">
+        <v>1418.8400000000001</v>
+      </c>
+      <c r="P8" s="23">
         <f t="shared" si="1"/>
-        <v>0.46512296402777087</v>
-      </c>
-      <c r="Q8" s="21">
+        <v>0.44352547029900002</v>
+      </c>
+      <c r="Q8" s="14">
         <f t="shared" si="1"/>
-        <v>0.25991112101400005</v>
+        <v>0.26616693276800002</v>
       </c>
       <c r="V8" s="2">
         <f>V6-R6</f>
@@ -2718,18 +2724,18 @@
         <f>W6-S6</f>
         <v>1275.0800000000017</v>
       </c>
-      <c r="X8" s="36">
+      <c r="X8" s="23">
         <f>X6-T6</f>
         <v>-2.7572852442589967E-4</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="Y8" s="14">
         <f>Y6-U6</f>
         <v>4.2192303140604959E-2</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D9" s="39"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="2">
         <f t="shared" ref="F9:I9" si="2">F7-B7</f>
         <v>33540.28</v>
@@ -2738,29 +2744,29 @@
         <f t="shared" si="2"/>
         <v>22394.639999999996</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="23">
         <f>H7-D7</f>
         <v>-2.0837649825400004E-4</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="14">
         <f t="shared" si="2"/>
         <v>2.7353336135000017E-2</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="N9" s="2">
-        <f t="shared" ref="N9:Q9" si="3">N7-J7</f>
+        <f t="shared" ref="N9:P9" si="3">N7-J7</f>
         <v>-972.75999999999976</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" si="3"/>
         <v>-201.48000000000002</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="23">
         <f t="shared" si="3"/>
-        <v>0.32521400639578052</v>
-      </c>
-      <c r="Q9" s="21">
+        <v>0.26182871863069612</v>
+      </c>
+      <c r="Q9" s="14">
         <f>Q7-M7</f>
         <v>2.5274367389999997E-2</v>
       </c>
@@ -2772,11 +2778,11 @@
         <f t="shared" ref="W9" si="5">W7-S7</f>
         <v>-468.47999999999956</v>
       </c>
-      <c r="X9" s="36">
+      <c r="X9" s="23">
         <f t="shared" ref="X9" si="6">X7-T7</f>
         <v>2.069875667670501E-3</v>
       </c>
-      <c r="Y9" s="21">
+      <c r="Y9" s="14">
         <f t="shared" ref="Y9" si="7">Y7-U7</f>
         <v>-4.1277204994510097E-3</v>
       </c>
@@ -2785,8 +2791,8 @@
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="14"/>
       <c r="J10" t="s">
         <v>23</v>
       </c>
@@ -2796,296 +2802,294 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D11" s="39"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="14"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5" t="s">
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="5" t="s">
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="66" t="s">
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="66" t="s">
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="68"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="77"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="P13" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="R13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="S13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="T13" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="U13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="W13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="X13" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y13" s="22" t="s">
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="36">
         <v>33394.44</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="37">
         <v>19862.96</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="38">
         <v>5.3976120326600001E-3</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="39">
         <f>0.595498451327</f>
         <v>0.59549845132699997</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="36">
         <v>33472.519999999997</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="37">
         <v>20461.84</v>
       </c>
-      <c r="H14" s="56">
+      <c r="H14" s="40">
         <v>5.5616570085799998E-3</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="39">
         <v>0.60385012711599995</v>
       </c>
-      <c r="J14" s="62">
-        <v>2570.44</v>
-      </c>
-      <c r="K14" s="63">
-        <v>231.72</v>
-      </c>
-      <c r="L14" s="56">
-        <f>343.006240015/K14</f>
-        <v>1.4802616952140515</v>
-      </c>
-      <c r="M14" s="55">
-        <f>K14/J14</f>
-        <v>9.0147990227354063E-2</v>
-      </c>
-      <c r="N14" s="76">
-        <v>7084.44</v>
-      </c>
-      <c r="O14" s="53">
-        <v>1755.96</v>
-      </c>
-      <c r="P14" s="56">
-        <v>0.13470635712000001</v>
-      </c>
-      <c r="Q14" s="55">
-        <f>0.246622422561</f>
-        <v>0.246622422561</v>
-      </c>
-      <c r="R14" s="62">
+      <c r="J14" s="46">
+        <v>6904.4</v>
+      </c>
+      <c r="K14" s="47">
+        <v>1955.48</v>
+      </c>
+      <c r="L14" s="40">
+        <v>0.142773449454</v>
+      </c>
+      <c r="M14" s="39">
+        <f>0.280064011089</f>
+        <v>0.28006401108899998</v>
+      </c>
+      <c r="N14" s="37">
+        <v>7652.36</v>
+      </c>
+      <c r="O14" s="37">
+        <v>2054.84</v>
+      </c>
+      <c r="P14" s="40">
+        <v>0.15315927474300001</v>
+      </c>
+      <c r="Q14" s="39">
+        <f>0.266656194123</f>
+        <v>0.26665619412300001</v>
+      </c>
+      <c r="R14" s="46">
         <v>72101.279999999999</v>
       </c>
-      <c r="S14" s="63">
+      <c r="S14" s="47">
         <v>50908.959999999999</v>
       </c>
-      <c r="T14" s="56">
+      <c r="T14" s="40">
         <v>8.5186578901613602E-3</v>
       </c>
-      <c r="U14" s="55">
+      <c r="U14" s="39">
         <f>0.706072237533358</f>
         <v>0.70607223753335802</v>
       </c>
-      <c r="V14" s="52">
+      <c r="V14" s="36">
         <v>46776.959999999999</v>
       </c>
-      <c r="W14" s="53">
+      <c r="W14" s="37">
         <v>38239.96</v>
       </c>
-      <c r="X14" s="56">
+      <c r="X14" s="40">
         <v>1.1335646942011101E-2</v>
       </c>
-      <c r="Y14" s="55">
+      <c r="Y14" s="39">
         <f>0.817497229632774</f>
         <v>0.81749722963277405</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="41">
         <v>256828.28</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="42">
         <v>159559.20000000001</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="43">
         <v>2.8235654760299998E-3</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="44">
         <f>0.621226720257</f>
         <v>0.62122672025699999</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="41">
         <v>255556.4</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="42">
         <v>161164.96</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="45">
         <v>2.7762807068600001E-3</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="44">
         <f>0.630712779453</f>
         <v>0.63071277945299997</v>
       </c>
-      <c r="J15" s="28">
-        <v>12894.72</v>
-      </c>
-      <c r="K15" s="29">
-        <v>6653.84</v>
-      </c>
-      <c r="L15" s="44">
-        <v>0.41677748738499998</v>
-      </c>
-      <c r="M15" s="30">
-        <f>0.516229388841</f>
-        <v>0.516229388841</v>
-      </c>
-      <c r="N15" s="50">
-        <v>15535.84</v>
-      </c>
-      <c r="O15" s="51">
-        <v>7148.88</v>
-      </c>
-      <c r="P15" s="44">
-        <f>0.966287252578</f>
-        <v>0.96628725257799997</v>
-      </c>
-      <c r="Q15" s="30">
-        <f>0.466064149112</f>
-        <v>0.466064149112</v>
-      </c>
-      <c r="R15" s="64">
+      <c r="J15" s="58">
+        <v>13233.72</v>
+      </c>
+      <c r="K15" s="59">
+        <v>6834.08</v>
+      </c>
+      <c r="L15" s="57">
+        <v>0.26817115436900002</v>
+      </c>
+      <c r="M15" s="56">
+        <f>0.517111316142</f>
+        <v>0.51711131614200001</v>
+      </c>
+      <c r="N15" s="53">
+        <v>11865.4</v>
+      </c>
+      <c r="O15" s="54">
+        <v>5267.32</v>
+      </c>
+      <c r="P15" s="57">
+        <v>0.58214726421499996</v>
+      </c>
+      <c r="Q15" s="56">
+        <f>0.444139679339</f>
+        <v>0.444139679339</v>
+      </c>
+      <c r="R15" s="48">
         <v>75500.52</v>
       </c>
-      <c r="S15" s="65">
+      <c r="S15" s="49">
         <v>43218.400000000001</v>
       </c>
-      <c r="T15" s="61">
+      <c r="T15" s="45">
         <v>1.00794947949207E-2</v>
       </c>
-      <c r="U15" s="60">
+      <c r="U15" s="44">
         <f>0.572422652346015</f>
         <v>0.57242265234601497</v>
       </c>
-      <c r="V15" s="57">
+      <c r="V15" s="41">
         <v>72237.16</v>
       </c>
-      <c r="W15" s="58">
+      <c r="W15" s="42">
         <v>43623.72</v>
       </c>
-      <c r="X15" s="61">
+      <c r="X15" s="45">
         <v>9.9580910894967803E-3</v>
       </c>
-      <c r="Y15" s="60">
+      <c r="Y15" s="44">
         <f>0.603897120911155</f>
         <v>0.60389712091115499</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D16" s="39"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="2">
         <f t="shared" ref="F16:I16" si="8">F14-B14</f>
         <v>78.07999999999447</v>
@@ -3094,11 +3098,11 @@
         <f t="shared" si="8"/>
         <v>598.88000000000102</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="23">
         <f t="shared" si="8"/>
         <v>1.6404497591999967E-4</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="14">
         <f t="shared" si="8"/>
         <v>8.3516757889999793E-3</v>
       </c>
@@ -3106,19 +3110,19 @@
       <c r="K16" s="4"/>
       <c r="N16" s="2">
         <f t="shared" ref="N16:Q16" si="9">N14-J14</f>
-        <v>4514</v>
+        <v>747.96</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="9"/>
-        <v>1524.24</v>
-      </c>
-      <c r="P16" s="36">
+        <v>99.360000000000127</v>
+      </c>
+      <c r="P16" s="23">
         <f t="shared" si="9"/>
-        <v>-1.3455553380940515</v>
-      </c>
-      <c r="Q16" s="21">
+        <v>1.0385825289000006E-2</v>
+      </c>
+      <c r="Q16" s="14">
         <f t="shared" si="9"/>
-        <v>0.15647443233364594</v>
+        <v>-1.3407816965999964E-2</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" ref="V16:Y16" si="10">V14-R14</f>
@@ -3128,18 +3132,18 @@
         <f t="shared" si="10"/>
         <v>-12669</v>
       </c>
-      <c r="X16" s="36">
+      <c r="X16" s="23">
         <f t="shared" si="10"/>
         <v>2.8169890518497404E-3</v>
       </c>
-      <c r="Y16" s="21">
+      <c r="Y16" s="14">
         <f t="shared" si="10"/>
         <v>0.11142499209941603</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D17" s="39"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="2">
         <f t="shared" ref="F17:I17" si="11">F15-B15</f>
         <v>-1271.8800000000047</v>
@@ -3148,11 +3152,11 @@
         <f t="shared" si="11"/>
         <v>1605.7599999999802</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="23">
         <f t="shared" si="11"/>
         <v>-4.7284769169999696E-5</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="14">
         <f t="shared" si="11"/>
         <v>9.4860591959999851E-3</v>
       </c>
@@ -3160,19 +3164,19 @@
       <c r="K17" s="4"/>
       <c r="N17" s="2">
         <f t="shared" ref="N17:Q17" si="12">N15-J15</f>
-        <v>2641.1200000000008</v>
+        <v>-1368.3199999999997</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="12"/>
-        <v>495.03999999999996</v>
-      </c>
-      <c r="P17" s="36">
+        <v>-1566.7600000000002</v>
+      </c>
+      <c r="P17" s="23">
         <f t="shared" si="12"/>
-        <v>0.54950976519299999</v>
-      </c>
-      <c r="Q17" s="21">
+        <v>0.31397610984599994</v>
+      </c>
+      <c r="Q17" s="14">
         <f t="shared" si="12"/>
-        <v>-5.0165239729E-2</v>
+        <v>-7.2971636803000006E-2</v>
       </c>
       <c r="V17" s="2">
         <f t="shared" ref="V17:Y17" si="13">V15-R15</f>
@@ -3182,11 +3186,11 @@
         <f t="shared" si="13"/>
         <v>405.31999999999971</v>
       </c>
-      <c r="X17" s="36">
+      <c r="X17" s="23">
         <f t="shared" si="13"/>
         <v>-1.2140370542391976E-4</v>
       </c>
-      <c r="Y17" s="21">
+      <c r="Y17" s="14">
         <f t="shared" si="13"/>
         <v>3.1474468565140024E-2</v>
       </c>
@@ -3195,8 +3199,8 @@
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="14"/>
       <c r="J18" t="s">
         <v>24</v>
       </c>
@@ -3206,291 +3210,291 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D19" s="39"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="14"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5" t="s">
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="5" t="s">
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="5" t="s">
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="66" t="s">
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="66" t="s">
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="68"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="77"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="T21" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="U21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="X21" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y21" s="22" t="s">
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="36">
         <v>1939.52</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="37">
         <v>1254.28</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="38">
         <v>1.37152060365E-3</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="39">
         <f>0.412818978501</f>
         <v>0.41281897850100002</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="36">
         <v>2660.24</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="37">
         <v>1850.8</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="40">
         <v>1.1558137467699999E-3</v>
       </c>
-      <c r="I22" s="55">
+      <c r="I22" s="39">
         <f>0.457858631304</f>
         <v>0.45785863130400001</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="27">
         <v>1788.56</v>
       </c>
-      <c r="K22" s="63">
+      <c r="K22" s="28">
         <v>383.36</v>
       </c>
-      <c r="L22" s="56">
+      <c r="L22" s="50">
         <f>6.74392003059/K22</f>
         <v>1.7591611098158388E-2</v>
       </c>
-      <c r="M22" s="55">
+      <c r="M22" s="29">
         <f>0.117365546056</f>
         <v>0.117365546056</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="51">
         <v>2361.4</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="52">
         <v>394.84</v>
       </c>
-      <c r="P22" s="37">
+      <c r="P22" s="50">
         <f>8.55363998413/O22</f>
         <v>2.166355988281329E-2</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="29">
         <f>0.133845483353</f>
         <v>0.13384548335300001</v>
       </c>
-      <c r="R22" s="62">
+      <c r="R22" s="46">
         <v>75640.639999999999</v>
       </c>
-      <c r="S22" s="63">
+      <c r="S22" s="47">
         <v>50279.44</v>
       </c>
-      <c r="T22" s="56">
+      <c r="T22" s="40">
         <v>9.0999720581259305E-4</v>
       </c>
-      <c r="U22" s="55">
+      <c r="U22" s="39">
         <f>0.664719285726297</f>
         <v>0.66471928572629702</v>
       </c>
-      <c r="V22" s="52">
+      <c r="V22" s="36">
         <v>72349.759999999995</v>
       </c>
-      <c r="W22" s="53">
+      <c r="W22" s="37">
         <v>48301.440000000002</v>
       </c>
-      <c r="X22" s="56">
+      <c r="X22" s="40">
         <v>9.3614011579710597E-4</v>
       </c>
-      <c r="Y22" s="55">
+      <c r="Y22" s="39">
         <f>0.667614675138628</f>
         <v>0.66761467513862804</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="41">
         <v>65731.759999999995</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="42">
         <v>42733</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="43">
         <v>3.41266998576E-4</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="44">
         <f>0.649367174249</f>
         <v>0.64936717424900003</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="41">
         <v>65878.28</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="42">
         <v>42978.879999999997</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="43">
         <v>3.3760500982900002E-4</v>
       </c>
-      <c r="I23" s="60">
+      <c r="I23" s="44">
         <f>0.651995258419</f>
         <v>0.65199525841899997</v>
       </c>
-      <c r="J23" s="64">
+      <c r="J23" s="48">
         <v>55759.76</v>
       </c>
-      <c r="K23" s="65">
+      <c r="K23" s="49">
         <v>5086.16</v>
       </c>
-      <c r="L23" s="61">
+      <c r="L23" s="45">
         <f>0.037332598489539</f>
         <v>3.7332598489539001E-2</v>
       </c>
-      <c r="M23" s="60">
+      <c r="M23" s="44">
         <f>0.0941569205377</f>
         <v>9.4156920537700001E-2</v>
       </c>
-      <c r="N23" s="57">
+      <c r="N23" s="41">
         <v>49437.48</v>
       </c>
-      <c r="O23" s="58">
+      <c r="O23" s="42">
         <v>8438.16</v>
       </c>
-      <c r="P23" s="61">
+      <c r="P23" s="45">
         <v>5.2383032633299999E-2</v>
       </c>
-      <c r="Q23" s="60">
+      <c r="Q23" s="44">
         <f>0.175672981217</f>
         <v>0.17567298121700001</v>
       </c>
-      <c r="R23" s="74">
+      <c r="R23" s="58">
         <v>72151.28</v>
       </c>
-      <c r="S23" s="75">
+      <c r="S23" s="59">
         <v>49929.2</v>
       </c>
-      <c r="T23" s="73">
+      <c r="T23" s="57">
         <v>6.5100253153404499E-4</v>
       </c>
-      <c r="U23" s="72">
+      <c r="U23" s="56">
         <f>0.692010424836777</f>
         <v>0.69201042483677699</v>
       </c>
-      <c r="V23" s="69">
+      <c r="V23" s="53">
         <v>58399.72</v>
       </c>
-      <c r="W23" s="70">
+      <c r="W23" s="54">
         <v>37408.92</v>
       </c>
-      <c r="X23" s="73">
+      <c r="X23" s="57">
         <v>8.2044665115858003E-4</v>
       </c>
-      <c r="Y23" s="72">
+      <c r="Y23" s="56">
         <f>0.64057186374492</f>
         <v>0.64057186374492003</v>
       </c>
@@ -3504,11 +3508,11 @@
         <f t="shared" si="14"/>
         <v>596.52</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="23">
         <f t="shared" si="14"/>
         <v>-2.1570685688000009E-4</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="14">
         <f t="shared" si="14"/>
         <v>4.5039652802999985E-2</v>
       </c>
@@ -3520,11 +3524,11 @@
         <f t="shared" si="15"/>
         <v>11.479999999999961</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24" s="23">
         <f t="shared" si="15"/>
         <v>4.0719487846549024E-3</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24" s="14">
         <f t="shared" si="15"/>
         <v>1.6479937297000008E-2</v>
       </c>
@@ -3536,11 +3540,11 @@
         <f>W22-S22</f>
         <v>-1978</v>
       </c>
-      <c r="X24" s="36">
+      <c r="X24" s="23">
         <f>X22-T22</f>
         <v>2.6142909984512921E-5</v>
       </c>
-      <c r="Y24" s="21">
+      <c r="Y24" s="14">
         <f>Y22-U22</f>
         <v>2.8953894123310286E-3</v>
       </c>
@@ -3554,11 +3558,11 @@
         <f t="shared" si="16"/>
         <v>245.87999999999738</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="23">
         <f t="shared" si="16"/>
         <v>-3.6619887469999828E-6</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="14">
         <f t="shared" si="16"/>
         <v>2.6280841699999336E-3</v>
       </c>
@@ -3570,11 +3574,11 @@
         <f t="shared" si="17"/>
         <v>3352</v>
       </c>
-      <c r="P25" s="36">
+      <c r="P25" s="23">
         <f t="shared" si="17"/>
         <v>1.5050434143760998E-2</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Q25" s="14">
         <f t="shared" si="17"/>
         <v>8.1516060679300006E-2</v>
       </c>
@@ -3586,22 +3590,17 @@
         <f t="shared" ref="W25:Y25" si="18">W23-S23</f>
         <v>-12520.279999999999</v>
       </c>
-      <c r="X25" s="36">
+      <c r="X25" s="23">
         <f t="shared" si="18"/>
         <v>1.6944411962453504E-4</v>
       </c>
-      <c r="Y25" s="21">
+      <c r="Y25" s="14">
         <f t="shared" si="18"/>
         <v>-5.143856109185696E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="R20:U20"/>
     <mergeCell ref="V20:Y20"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
@@ -3609,12 +3608,1281 @@
     <mergeCell ref="N12:Q12"/>
     <mergeCell ref="R12:U12"/>
     <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V4:Y4"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="R4:U4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42F29A4-40B4-4F76-862E-2F3EC1AC93BE}">
+  <dimension ref="A1:Y25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="60"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="10.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="14"/>
+    <col min="12" max="12" width="9.140625" style="60"/>
+    <col min="13" max="13" width="9.140625" style="14"/>
+    <col min="14" max="15" width="9.140625" style="2"/>
+    <col min="16" max="16" width="9.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="14"/>
+    <col min="20" max="20" width="9.140625" style="60"/>
+    <col min="21" max="21" width="9.140625" style="14"/>
+    <col min="22" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="10.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E3" s="14"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="77"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>43861.68</v>
+      </c>
+      <c r="C6" s="2">
+        <v>27560.12</v>
+      </c>
+      <c r="D6" s="60">
+        <v>112.247079992</v>
+      </c>
+      <c r="E6" s="15">
+        <f>0.627764779504</f>
+        <v>0.627764779504</v>
+      </c>
+      <c r="F6" s="61">
+        <v>44746.239999999998</v>
+      </c>
+      <c r="G6" s="62">
+        <v>28439.88</v>
+      </c>
+      <c r="H6" s="63">
+        <v>114.712399969</v>
+      </c>
+      <c r="I6" s="64">
+        <f>0.635583855722</f>
+        <v>0.63558385572200005</v>
+      </c>
+      <c r="J6" s="10">
+        <v>22778.52</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5056.88</v>
+      </c>
+      <c r="L6" s="60">
+        <v>6.74392003059</v>
+      </c>
+      <c r="M6" s="15">
+        <f>0.229772150746</f>
+        <v>0.22977215074599999</v>
+      </c>
+      <c r="N6" s="61">
+        <v>14276.16</v>
+      </c>
+      <c r="O6" s="62">
+        <v>6475.72</v>
+      </c>
+      <c r="P6" s="63">
+        <v>8.5536399841299993</v>
+      </c>
+      <c r="Q6" s="64">
+        <f>0.495939083514</f>
+        <v>0.49593908351400001</v>
+      </c>
+      <c r="R6" s="10">
+        <v>75597.440000000002</v>
+      </c>
+      <c r="S6" s="4">
+        <v>42141.32</v>
+      </c>
+      <c r="T6" s="60">
+        <v>440.16081964492798</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0.55744297070748905</v>
+      </c>
+      <c r="V6" s="61">
+        <v>72404.960000000006</v>
+      </c>
+      <c r="W6" s="62">
+        <v>43416.4</v>
+      </c>
+      <c r="X6" s="63">
+        <v>441.51804473876899</v>
+      </c>
+      <c r="Y6" s="64">
+        <v>0.59963527384809401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>47010.84</v>
+      </c>
+      <c r="C7" s="8">
+        <v>28294.880000000001</v>
+      </c>
+      <c r="D7" s="69">
+        <v>17.955279979699998</v>
+      </c>
+      <c r="E7" s="16">
+        <f>0.60183842307</f>
+        <v>0.60183842307000002</v>
+      </c>
+      <c r="F7" s="65">
+        <v>80551.12</v>
+      </c>
+      <c r="G7" s="66">
+        <v>50689.52</v>
+      </c>
+      <c r="H7" s="67">
+        <v>22.1610000324</v>
+      </c>
+      <c r="I7" s="68">
+        <f>0.629191759205</f>
+        <v>0.62919175920500003</v>
+      </c>
+      <c r="J7" s="11">
+        <v>4843.04</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1530.8</v>
+      </c>
+      <c r="L7" s="69">
+        <v>127.51400003400001</v>
+      </c>
+      <c r="M7" s="16">
+        <f>0.319777913834</f>
+        <v>0.319777913834</v>
+      </c>
+      <c r="N7" s="65">
+        <v>3870.28</v>
+      </c>
+      <c r="O7" s="66">
+        <v>1329.32</v>
+      </c>
+      <c r="P7" s="67">
+        <v>456.181519966</v>
+      </c>
+      <c r="Q7" s="68">
+        <f>0.345052281224</f>
+        <v>0.345052281224</v>
+      </c>
+      <c r="R7" s="11">
+        <v>71535</v>
+      </c>
+      <c r="S7" s="12">
+        <v>14803.52</v>
+      </c>
+      <c r="T7" s="69">
+        <v>196.889799852371</v>
+      </c>
+      <c r="U7" s="16">
+        <f>0.206990094100602</f>
+        <v>0.20699009410060201</v>
+      </c>
+      <c r="V7" s="65">
+        <v>70674.52</v>
+      </c>
+      <c r="W7" s="66">
+        <v>14335.04</v>
+      </c>
+      <c r="X7" s="67">
+        <v>204.236077661514</v>
+      </c>
+      <c r="Y7" s="68">
+        <f>0.202862373601151</f>
+        <v>0.202862373601151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E8" s="14"/>
+      <c r="F8" s="2">
+        <f>F6-B6</f>
+        <v>884.55999999999767</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:I8" si="0">G6-C6</f>
+        <v>879.76000000000204</v>
+      </c>
+      <c r="H8" s="60">
+        <f>H6-D6</f>
+        <v>2.4653199770000072</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
+        <v>7.8190762180000428E-3</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="N8" s="2">
+        <f t="shared" ref="N8:Q9" si="1">N6-J6</f>
+        <v>-8502.36</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>1418.8400000000001</v>
+      </c>
+      <c r="P8" s="60">
+        <f t="shared" si="1"/>
+        <v>1.8097199535399993</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26616693276800002</v>
+      </c>
+      <c r="V8" s="2">
+        <f>V6-R6</f>
+        <v>-3192.4799999999959</v>
+      </c>
+      <c r="W8" s="2">
+        <f>W6-S6</f>
+        <v>1275.0800000000017</v>
+      </c>
+      <c r="X8" s="60">
+        <f>X6-T6</f>
+        <v>1.3572250938410093</v>
+      </c>
+      <c r="Y8" s="14">
+        <f>Y6-U6</f>
+        <v>4.2192303140604959E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E9" s="14"/>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:I9" si="2">F7-B7</f>
+        <v>33540.28</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>22394.639999999996</v>
+      </c>
+      <c r="H9" s="60">
+        <f>H7-D7</f>
+        <v>4.205720052700002</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="2"/>
+        <v>2.7353336135000017E-2</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="N9" s="2">
+        <f t="shared" si="1"/>
+        <v>-972.75999999999976</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="1"/>
+        <v>-201.48000000000002</v>
+      </c>
+      <c r="P9" s="71">
+        <f t="shared" si="1"/>
+        <v>328.667519932</v>
+      </c>
+      <c r="Q9" s="14">
+        <f>Q7-M7</f>
+        <v>2.5274367389999997E-2</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" ref="V9:Y9" si="3">V7-R7</f>
+        <v>-860.47999999999593</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="3"/>
+        <v>-468.47999999999956</v>
+      </c>
+      <c r="X9" s="71">
+        <f t="shared" si="3"/>
+        <v>7.3462778091430039</v>
+      </c>
+      <c r="Y9" s="70">
+        <f t="shared" si="3"/>
+        <v>-4.1277204994510097E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E11" s="14"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="77"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>33394.44</v>
+      </c>
+      <c r="C14" s="2">
+        <v>19862.96</v>
+      </c>
+      <c r="D14" s="60">
+        <v>435.56652023315399</v>
+      </c>
+      <c r="E14" s="15">
+        <f>0.595498451327</f>
+        <v>0.59549845132699997</v>
+      </c>
+      <c r="F14" s="61">
+        <v>33472.519999999997</v>
+      </c>
+      <c r="G14" s="62">
+        <v>20461.84</v>
+      </c>
+      <c r="H14" s="63">
+        <v>434.40089967727602</v>
+      </c>
+      <c r="I14" s="64">
+        <v>0.60385012711599995</v>
+      </c>
+      <c r="J14" s="10">
+        <v>6904.4</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1955.48</v>
+      </c>
+      <c r="L14" s="60">
+        <v>266.66423999800003</v>
+      </c>
+      <c r="M14" s="15">
+        <f>0.280064011089</f>
+        <v>0.28006401108899998</v>
+      </c>
+      <c r="N14" s="62">
+        <v>7652.36</v>
+      </c>
+      <c r="O14" s="62">
+        <v>2054.84</v>
+      </c>
+      <c r="P14" s="63">
+        <v>300.55159996999998</v>
+      </c>
+      <c r="Q14" s="64">
+        <f>0.266656194123</f>
+        <v>0.26665619412300001</v>
+      </c>
+      <c r="R14" s="10">
+        <v>72101.279999999999</v>
+      </c>
+      <c r="S14" s="4">
+        <v>50908.959999999999</v>
+      </c>
+      <c r="T14" s="60">
+        <v>435.56652023315399</v>
+      </c>
+      <c r="U14" s="15">
+        <f>0.706072237533358</f>
+        <v>0.70607223753335802</v>
+      </c>
+      <c r="V14" s="61">
+        <v>46776.959999999999</v>
+      </c>
+      <c r="W14" s="62">
+        <v>38239.96</v>
+      </c>
+      <c r="X14" s="63">
+        <v>434.40089967727602</v>
+      </c>
+      <c r="Y14" s="64">
+        <f>0.817497229632774</f>
+        <v>0.81749722963277405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7">
+        <v>256828.28</v>
+      </c>
+      <c r="C15" s="8">
+        <v>159559.20000000001</v>
+      </c>
+      <c r="D15" s="69">
+        <v>450.58300001100002</v>
+      </c>
+      <c r="E15" s="16">
+        <f>0.621226720257</f>
+        <v>0.62122672025699999</v>
+      </c>
+      <c r="F15" s="65">
+        <v>255556.4</v>
+      </c>
+      <c r="G15" s="66">
+        <v>161164.96</v>
+      </c>
+      <c r="H15" s="67">
+        <v>447.34788001999999</v>
+      </c>
+      <c r="I15" s="68">
+        <f>0.630712779453</f>
+        <v>0.63071277945299997</v>
+      </c>
+      <c r="J15" s="11">
+        <v>13233.72</v>
+      </c>
+      <c r="K15" s="12">
+        <v>6834.08</v>
+      </c>
+      <c r="L15" s="69">
+        <v>1788.57847999</v>
+      </c>
+      <c r="M15" s="16">
+        <f>0.517111316142</f>
+        <v>0.51711131614200001</v>
+      </c>
+      <c r="N15" s="65">
+        <v>13120.2</v>
+      </c>
+      <c r="O15" s="66">
+        <v>6724.76</v>
+      </c>
+      <c r="P15" s="67">
+        <v>1686.6924800199999</v>
+      </c>
+      <c r="Q15" s="68">
+        <f>0.513583558135</f>
+        <v>0.51358355813500001</v>
+      </c>
+      <c r="R15" s="11">
+        <v>75500.52</v>
+      </c>
+      <c r="S15" s="12">
+        <v>43218.400000000001</v>
+      </c>
+      <c r="T15" s="69">
+        <v>433.70486718177699</v>
+      </c>
+      <c r="U15" s="16">
+        <f>0.572422652346015</f>
+        <v>0.57242265234601497</v>
+      </c>
+      <c r="V15" s="65">
+        <v>72237.16</v>
+      </c>
+      <c r="W15" s="66">
+        <v>43623.72</v>
+      </c>
+      <c r="X15" s="67">
+        <v>433.45899882316502</v>
+      </c>
+      <c r="Y15" s="68">
+        <f>0.603897120911155</f>
+        <v>0.60389712091115499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E16" s="14"/>
+      <c r="F16" s="2">
+        <f t="shared" ref="F16:I17" si="4">F14-B14</f>
+        <v>78.07999999999447</v>
+      </c>
+      <c r="G16" s="62">
+        <f t="shared" si="4"/>
+        <v>598.88000000000102</v>
+      </c>
+      <c r="H16" s="60">
+        <f t="shared" si="4"/>
+        <v>-1.1656205558779789</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="4"/>
+        <v>8.3516757889999793E-3</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="N16" s="2">
+        <f t="shared" ref="N16:Q17" si="5">N14-J14</f>
+        <v>747.96</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="5"/>
+        <v>99.360000000000127</v>
+      </c>
+      <c r="P16" s="60">
+        <f t="shared" si="5"/>
+        <v>33.887359971999956</v>
+      </c>
+      <c r="Q16" s="70">
+        <f t="shared" si="5"/>
+        <v>-1.3407816965999964E-2</v>
+      </c>
+      <c r="V16" s="2">
+        <f t="shared" ref="V16:Y17" si="6">V14-R14</f>
+        <v>-25324.32</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="6"/>
+        <v>-12669</v>
+      </c>
+      <c r="X16" s="60">
+        <f t="shared" si="6"/>
+        <v>-1.1656205558779789</v>
+      </c>
+      <c r="Y16" s="14">
+        <f t="shared" si="6"/>
+        <v>0.11142499209941603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E17" s="14"/>
+      <c r="F17" s="2">
+        <f t="shared" si="4"/>
+        <v>-1271.8800000000047</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="4"/>
+        <v>1605.7599999999802</v>
+      </c>
+      <c r="H17" s="60">
+        <f t="shared" si="4"/>
+        <v>-3.2351199910000332</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="4"/>
+        <v>9.4860591959999851E-3</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="N17" s="2">
+        <f t="shared" si="5"/>
+        <v>-113.51999999999862</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="5"/>
+        <v>-109.31999999999971</v>
+      </c>
+      <c r="P17" s="71">
+        <f t="shared" si="5"/>
+        <v>-101.88599997000006</v>
+      </c>
+      <c r="Q17" s="70">
+        <f t="shared" si="5"/>
+        <v>-3.5277580070000036E-3</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" si="6"/>
+        <v>-3263.3600000000006</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="6"/>
+        <v>405.31999999999971</v>
+      </c>
+      <c r="X17" s="60">
+        <f t="shared" si="6"/>
+        <v>-0.24586835861197187</v>
+      </c>
+      <c r="Y17" s="14">
+        <f t="shared" si="6"/>
+        <v>3.1474468565140024E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="R18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E19" s="14"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="77"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1939.52</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1254.28</v>
+      </c>
+      <c r="D22" s="60">
+        <v>4.0217199611699996</v>
+      </c>
+      <c r="E22" s="15">
+        <f>0.412818978501</f>
+        <v>0.41281897850100002</v>
+      </c>
+      <c r="F22" s="61">
+        <v>2660.24</v>
+      </c>
+      <c r="G22" s="62">
+        <v>1850.8</v>
+      </c>
+      <c r="H22" s="63">
+        <v>3.5277999687200001</v>
+      </c>
+      <c r="I22" s="64">
+        <f>0.457858631304</f>
+        <v>0.45785863130400001</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1788.56</v>
+      </c>
+      <c r="K22" s="4">
+        <v>383.36</v>
+      </c>
+      <c r="L22" s="60">
+        <v>6.74392003059</v>
+      </c>
+      <c r="M22" s="15">
+        <f>0.117365546056</f>
+        <v>0.117365546056</v>
+      </c>
+      <c r="N22" s="61">
+        <v>2361.4</v>
+      </c>
+      <c r="O22" s="62">
+        <v>394.84</v>
+      </c>
+      <c r="P22" s="63">
+        <v>8.5536399841299993</v>
+      </c>
+      <c r="Q22" s="64">
+        <f>0.133845483353</f>
+        <v>0.13384548335300001</v>
+      </c>
+      <c r="R22" s="10">
+        <v>75640.639999999999</v>
+      </c>
+      <c r="S22" s="4">
+        <v>50279.44</v>
+      </c>
+      <c r="T22" s="60">
+        <v>45.724359817504798</v>
+      </c>
+      <c r="U22" s="15">
+        <f>0.664719285726297</f>
+        <v>0.66471928572629702</v>
+      </c>
+      <c r="V22" s="61">
+        <v>72349.759999999995</v>
+      </c>
+      <c r="W22" s="62">
+        <v>48301.440000000002</v>
+      </c>
+      <c r="X22" s="63">
+        <v>45.114759931564301</v>
+      </c>
+      <c r="Y22" s="64">
+        <f>0.667614675138628</f>
+        <v>0.66761467513862804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="7">
+        <v>65731.759999999995</v>
+      </c>
+      <c r="C23" s="8">
+        <v>42733</v>
+      </c>
+      <c r="D23" s="69">
+        <v>14.4680799961</v>
+      </c>
+      <c r="E23" s="16">
+        <f>0.649367174249</f>
+        <v>0.64936717424900003</v>
+      </c>
+      <c r="F23" s="65">
+        <v>65878.28</v>
+      </c>
+      <c r="G23" s="66">
+        <v>42978.879999999997</v>
+      </c>
+      <c r="H23" s="67">
+        <v>14.3954400158</v>
+      </c>
+      <c r="I23" s="68">
+        <f>0.651995258419</f>
+        <v>0.65199525841899997</v>
+      </c>
+      <c r="J23" s="11">
+        <v>55759.76</v>
+      </c>
+      <c r="K23" s="12">
+        <v>5086.16</v>
+      </c>
+      <c r="L23" s="69">
+        <v>181.28955995600001</v>
+      </c>
+      <c r="M23" s="16">
+        <f>0.0941569205377</f>
+        <v>9.4156920537700001E-2</v>
+      </c>
+      <c r="N23" s="65">
+        <v>49437.48</v>
+      </c>
+      <c r="O23" s="66">
+        <v>8438.16</v>
+      </c>
+      <c r="P23" s="67">
+        <v>410.138880024</v>
+      </c>
+      <c r="Q23" s="68">
+        <f>0.175672981217</f>
+        <v>0.17567298121700001</v>
+      </c>
+      <c r="R23" s="11">
+        <v>72151.28</v>
+      </c>
+      <c r="S23" s="12">
+        <v>49929.2</v>
+      </c>
+      <c r="T23" s="69">
+        <v>32.503294029235803</v>
+      </c>
+      <c r="U23" s="16">
+        <f>0.692010424836777</f>
+        <v>0.69201042483677699</v>
+      </c>
+      <c r="V23" s="65">
+        <v>58399.72</v>
+      </c>
+      <c r="W23" s="66">
+        <v>37408.92</v>
+      </c>
+      <c r="X23" s="67">
+        <v>30.305739288329999</v>
+      </c>
+      <c r="Y23" s="68">
+        <f>0.64057186374492</f>
+        <v>0.64057186374492003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F24" s="2">
+        <f t="shared" ref="F24:I25" si="7">F22-B22</f>
+        <v>720.7199999999998</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="7"/>
+        <v>596.52</v>
+      </c>
+      <c r="H24" s="60">
+        <f t="shared" si="7"/>
+        <v>-0.49391999244999951</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="7"/>
+        <v>4.5039652802999985E-2</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" ref="N24:Q25" si="8">N22-J22</f>
+        <v>572.84000000000015</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="8"/>
+        <v>11.479999999999961</v>
+      </c>
+      <c r="P24" s="60">
+        <f t="shared" si="8"/>
+        <v>1.8097199535399993</v>
+      </c>
+      <c r="Q24" s="14">
+        <f t="shared" si="8"/>
+        <v>1.6479937297000008E-2</v>
+      </c>
+      <c r="V24" s="2">
+        <f>V22-R22</f>
+        <v>-3290.8800000000047</v>
+      </c>
+      <c r="W24" s="2">
+        <f>W22-S22</f>
+        <v>-1978</v>
+      </c>
+      <c r="X24" s="60">
+        <f>X22-T22</f>
+        <v>-0.60959988594049719</v>
+      </c>
+      <c r="Y24" s="14">
+        <f>Y22-U22</f>
+        <v>2.8953894123310286E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F25" s="2">
+        <f t="shared" si="7"/>
+        <v>146.52000000000407</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="7"/>
+        <v>245.87999999999738</v>
+      </c>
+      <c r="H25" s="60">
+        <f t="shared" si="7"/>
+        <v>-7.2639980299999962E-2</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="7"/>
+        <v>2.6280841699999336E-3</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="8"/>
+        <v>-6322.2799999999988</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="8"/>
+        <v>3352</v>
+      </c>
+      <c r="P25" s="71">
+        <f t="shared" si="8"/>
+        <v>228.849320068</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" si="8"/>
+        <v>8.1516060679300006E-2</v>
+      </c>
+      <c r="V25" s="2">
+        <f>V23-R23</f>
+        <v>-13751.559999999998</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" ref="W25:Y25" si="9">W23-S23</f>
+        <v>-12520.279999999999</v>
+      </c>
+      <c r="X25" s="60">
+        <f t="shared" si="9"/>
+        <v>-2.1975547409058045</v>
+      </c>
+      <c r="Y25" s="70">
+        <f t="shared" si="9"/>
+        <v>-5.143856109185696E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="R20:U20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Monash_University\Year5\Honours_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86381143-6A05-428A-9726-807D2454F383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065BB330-2BE1-4CAB-AC81-6F85BDA9335B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
     <sheet name="New" sheetId="3" r:id="rId2"/>
     <sheet name="general data" sheetId="5" r:id="rId3"/>
     <sheet name="new_data" sheetId="6" r:id="rId4"/>
+    <sheet name="correlation_coefficients" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="65">
   <si>
     <t>TSN = Total number of generated samples</t>
   </si>
@@ -118,6 +118,123 @@
   </si>
   <si>
     <t>DSS = average execution time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       NaN</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Expga RF</t>
+  </si>
+  <si>
+    <t>KOSEI RF</t>
+  </si>
+  <si>
+    <t>Aequitas RF</t>
+  </si>
+  <si>
+    <t>Expga MLPC</t>
+  </si>
+  <si>
+    <t>KOSEI MLPC</t>
+  </si>
+  <si>
+    <t>Aequitas MLPC</t>
+  </si>
+  <si>
+    <t>Expga DT</t>
+  </si>
+  <si>
+    <t>KOSEI DT</t>
+  </si>
+  <si>
+    <t>Aequitas DT</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>marital</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>housing</t>
+  </si>
+  <si>
+    <t>loan</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>day,</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>pdays</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <t>poutcome</t>
+  </si>
+  <si>
+    <t>Census</t>
+  </si>
+  <si>
+    <t>workclass</t>
+  </si>
+  <si>
+    <t>fnlwgt</t>
+  </si>
+  <si>
+    <t>marital_status</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>capital_gain,</t>
+  </si>
+  <si>
+    <t>capital_loss</t>
+  </si>
+  <si>
+    <t>hours_per_week</t>
+  </si>
+  <si>
+    <t>native_country</t>
   </si>
 </sst>
 </file>
@@ -129,7 +246,7 @@
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +261,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="6">
@@ -309,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -382,6 +504,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -740,7 +865,7 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="3"/>
@@ -754,63 +879,63 @@
     <col min="19" max="19" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19">
       <c r="E9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19">
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D14" s="72" t="s">
+    <row r="14" spans="2:19">
+      <c r="D14" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="72" t="s">
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="72" t="s">
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="72" t="s">
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="74"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="75"/>
+    </row>
+    <row r="15" spans="2:19">
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
@@ -860,7 +985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19">
       <c r="C16" t="s">
         <v>10</v>
       </c>
@@ -909,7 +1034,7 @@
       <c r="P16" s="10"/>
       <c r="S16" s="15"/>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:19">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -960,38 +1085,38 @@
       <c r="R17" s="13"/>
       <c r="S17" s="16"/>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:19">
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D22" s="72" t="s">
+    <row r="22" spans="3:19">
+      <c r="D22" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="72" t="s">
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="72" t="s">
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="72" t="s">
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="74"/>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="75"/>
+    </row>
+    <row r="23" spans="3:19">
       <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
@@ -1041,7 +1166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:19">
       <c r="C24" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1216,7 @@
       <c r="P24" s="10"/>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:19">
       <c r="C25" t="s">
         <v>11</v>
       </c>
@@ -1132,38 +1257,38 @@
       <c r="R25" s="13"/>
       <c r="S25" s="16"/>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:19">
       <c r="E28" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D30" s="72" t="s">
+    <row r="30" spans="3:19">
+      <c r="D30" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="72" t="s">
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="72" t="s">
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="72" t="s">
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="74"/>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="75"/>
+    </row>
+    <row r="31" spans="3:19">
       <c r="D31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1213,7 +1338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:19">
       <c r="C32" t="s">
         <v>10</v>
       </c>
@@ -1274,7 +1399,7 @@
         <v>0.50856798334448106</v>
       </c>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:19">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -1344,7 +1469,7 @@
       <selection activeCell="B2" sqref="B2:Z23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="25"/>
@@ -1359,7 +1484,7 @@
     <col min="26" max="26" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26">
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1371,7 +1496,7 @@
       <c r="P2" s="4"/>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26">
       <c r="F3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="4"/>
@@ -1380,45 +1505,45 @@
       <c r="P3" s="4"/>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C4" s="72" t="s">
+    <row r="4" spans="2:26">
+      <c r="C4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="72" t="s">
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="72" t="s">
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="72" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="72" t="s">
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="72" t="s">
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="74"/>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="75"/>
+    </row>
+    <row r="5" spans="2:26">
       <c r="B5" s="33" t="s">
         <v>20</v>
       </c>
@@ -1495,7 +1620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26">
       <c r="B6" s="34" t="s">
         <v>10</v>
       </c>
@@ -1581,7 +1706,7 @@
         <v>0.55174590816867797</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26">
       <c r="B7" s="35" t="s">
         <v>11</v>
       </c>
@@ -1667,7 +1792,7 @@
         <v>0.202862373601151</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26">
       <c r="F8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="4"/>
@@ -1676,7 +1801,7 @@
       <c r="P8" s="4"/>
       <c r="R8" s="14"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26">
       <c r="F9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="4"/>
@@ -1685,7 +1810,7 @@
       <c r="P9" s="4"/>
       <c r="R9" s="14"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26">
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1697,7 +1822,7 @@
       <c r="P10" s="4"/>
       <c r="R10" s="14"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26">
       <c r="F11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="4"/>
@@ -1706,45 +1831,45 @@
       <c r="P11" s="4"/>
       <c r="R11" s="14"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="72" t="s">
+    <row r="12" spans="2:26">
+      <c r="C12" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="72" t="s">
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="72" t="s">
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="72" t="s">
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="72" t="s">
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="72" t="s">
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="74"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="75"/>
+    </row>
+    <row r="13" spans="2:26">
       <c r="B13" s="33" t="s">
         <v>20</v>
       </c>
@@ -1821,7 +1946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26">
       <c r="B14" s="34" t="s">
         <v>10</v>
       </c>
@@ -1908,7 +2033,7 @@
         <v>0.69297448183785504</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26">
       <c r="B15" s="35" t="s">
         <v>11</v>
       </c>
@@ -1994,7 +2119,7 @@
         <v>0.74594652291679397</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26">
       <c r="F16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="4"/>
@@ -2003,7 +2128,7 @@
       <c r="P16" s="4"/>
       <c r="R16" s="14"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26">
       <c r="F17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="4"/>
@@ -2012,7 +2137,7 @@
       <c r="P17" s="4"/>
       <c r="R17" s="14"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26">
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2024,7 +2149,7 @@
       <c r="P18" s="4"/>
       <c r="R18" s="14"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26">
       <c r="F19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="4"/>
@@ -2033,45 +2158,45 @@
       <c r="P19" s="4"/>
       <c r="R19" s="14"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="72" t="s">
+    <row r="20" spans="2:26">
+      <c r="C20" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="72" t="s">
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="72" t="s">
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="72" t="s">
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="72" t="s">
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="72" t="s">
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="74"/>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="75"/>
+    </row>
+    <row r="21" spans="2:26">
       <c r="B21" s="33" t="s">
         <v>20</v>
       </c>
@@ -2148,7 +2273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26">
       <c r="B22" s="34" t="s">
         <v>10</v>
       </c>
@@ -2235,7 +2360,7 @@
         <v>0.62514457729574602</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26">
       <c r="B23" s="35" t="s">
         <v>11</v>
       </c>
@@ -2323,13 +2448,18 @@
         <v>0.66010150305623605</v>
       </c>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="14:14">
       <c r="N34" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="K20:N20"/>
@@ -2343,11 +2473,6 @@
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="O12:R12"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2362,7 +2487,7 @@
       <selection pane="topRight" activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="2"/>
@@ -2380,7 +2505,7 @@
     <col min="25" max="25" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2394,51 +2519,51 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="D3" s="25"/>
       <c r="E3" s="14"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
+    <row r="4" spans="1:25">
+      <c r="B4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="72" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="72" t="s">
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="72" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="75" t="s">
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="75" t="s">
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="77"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="78"/>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="33" t="s">
         <v>20</v>
       </c>
@@ -2515,7 +2640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="34" t="s">
         <v>10</v>
       </c>
@@ -2596,7 +2721,7 @@
         <v>0.59963527384809401</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="35" t="s">
         <v>11</v>
       </c>
@@ -2679,7 +2804,7 @@
         <v>0.202862373601151</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="D8" s="25"/>
       <c r="E8" s="14"/>
       <c r="F8" s="2">
@@ -2733,7 +2858,7 @@
         <v>4.2192303140604959E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="D9" s="25"/>
       <c r="E9" s="14"/>
       <c r="F9" s="2">
@@ -2787,7 +2912,7 @@
         <v>-4.1277204994510097E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2801,51 +2926,51 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="D11" s="25"/>
       <c r="E11" s="14"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="72" t="s">
+    <row r="12" spans="1:25">
+      <c r="B12" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="72" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="72" t="s">
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="72" t="s">
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="75" t="s">
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="75" t="s">
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="77"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="78"/>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="33" t="s">
         <v>20</v>
       </c>
@@ -2922,7 +3047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
@@ -3004,7 +3129,7 @@
         <v>0.81749722963277405</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="35" t="s">
         <v>11</v>
       </c>
@@ -3087,7 +3212,7 @@
         <v>0.60389712091115499</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="D16" s="25"/>
       <c r="E16" s="14"/>
       <c r="F16" s="2">
@@ -3141,7 +3266,7 @@
         <v>0.11142499209941603</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="D17" s="25"/>
       <c r="E17" s="14"/>
       <c r="F17" s="2">
@@ -3195,7 +3320,7 @@
         <v>3.1474468565140024E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3209,51 +3334,51 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="D19" s="25"/>
       <c r="E19" s="14"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="72" t="s">
+    <row r="20" spans="1:25">
+      <c r="B20" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="72" t="s">
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="72" t="s">
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="72" t="s">
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="75" t="s">
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="75" t="s">
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="77"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="78"/>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="33" t="s">
         <v>20</v>
       </c>
@@ -3330,7 +3455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22" s="34" t="s">
         <v>10</v>
       </c>
@@ -3415,7 +3540,7 @@
         <v>0.66761467513862804</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23" s="35" t="s">
         <v>11</v>
       </c>
@@ -3499,7 +3624,7 @@
         <v>0.64057186374492003</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="F24" s="2">
         <f t="shared" ref="F24:I24" si="14">F22-B22</f>
         <v>720.7199999999998</v>
@@ -3549,7 +3674,7 @@
         <v>2.8953894123310286E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="F25" s="2">
         <f t="shared" ref="F25:I25" si="16">F23-B23</f>
         <v>146.52000000000407</v>
@@ -3596,6 +3721,1270 @@
       </c>
       <c r="Y25" s="14">
         <f t="shared" si="18"/>
+        <v>-5.143856109185696E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42F29A4-40B4-4F76-862E-2F3EC1AC93BE}">
+  <dimension ref="A1:Y25"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="60"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="10.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="14"/>
+    <col min="12" max="12" width="9.140625" style="60"/>
+    <col min="13" max="13" width="9.140625" style="14"/>
+    <col min="14" max="15" width="9.140625" style="2"/>
+    <col min="16" max="16" width="9.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="14"/>
+    <col min="20" max="20" width="9.140625" style="60"/>
+    <col min="21" max="21" width="9.140625" style="14"/>
+    <col min="22" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="10.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="E3" s="14"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="B4" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="78"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>43861.68</v>
+      </c>
+      <c r="C6" s="2">
+        <v>27560.12</v>
+      </c>
+      <c r="D6" s="60">
+        <v>112.247079992</v>
+      </c>
+      <c r="E6" s="15">
+        <f>0.627764779504</f>
+        <v>0.627764779504</v>
+      </c>
+      <c r="F6" s="61">
+        <v>44746.239999999998</v>
+      </c>
+      <c r="G6" s="62">
+        <v>28439.88</v>
+      </c>
+      <c r="H6" s="63">
+        <v>114.712399969</v>
+      </c>
+      <c r="I6" s="64">
+        <f>0.635583855722</f>
+        <v>0.63558385572200005</v>
+      </c>
+      <c r="J6" s="10">
+        <v>22778.52</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5056.88</v>
+      </c>
+      <c r="L6" s="60">
+        <v>6.74392003059</v>
+      </c>
+      <c r="M6" s="15">
+        <f>0.229772150746</f>
+        <v>0.22977215074599999</v>
+      </c>
+      <c r="N6" s="61">
+        <v>14276.16</v>
+      </c>
+      <c r="O6" s="62">
+        <v>6475.72</v>
+      </c>
+      <c r="P6" s="63">
+        <v>8.5536399841299993</v>
+      </c>
+      <c r="Q6" s="64">
+        <f>0.495939083514</f>
+        <v>0.49593908351400001</v>
+      </c>
+      <c r="R6" s="10">
+        <v>75597.440000000002</v>
+      </c>
+      <c r="S6" s="4">
+        <v>42141.32</v>
+      </c>
+      <c r="T6" s="60">
+        <v>440.16081964492798</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0.55744297070748905</v>
+      </c>
+      <c r="V6" s="61">
+        <v>72404.960000000006</v>
+      </c>
+      <c r="W6" s="62">
+        <v>43416.4</v>
+      </c>
+      <c r="X6" s="63">
+        <v>441.51804473876899</v>
+      </c>
+      <c r="Y6" s="64">
+        <v>0.59963527384809401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>47010.84</v>
+      </c>
+      <c r="C7" s="8">
+        <v>28294.880000000001</v>
+      </c>
+      <c r="D7" s="69">
+        <v>17.955279979699998</v>
+      </c>
+      <c r="E7" s="16">
+        <f>0.60183842307</f>
+        <v>0.60183842307000002</v>
+      </c>
+      <c r="F7" s="65">
+        <v>80551.12</v>
+      </c>
+      <c r="G7" s="66">
+        <v>50689.52</v>
+      </c>
+      <c r="H7" s="67">
+        <v>22.1610000324</v>
+      </c>
+      <c r="I7" s="68">
+        <f>0.629191759205</f>
+        <v>0.62919175920500003</v>
+      </c>
+      <c r="J7" s="11">
+        <v>4843.04</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1530.8</v>
+      </c>
+      <c r="L7" s="69">
+        <v>127.51400003400001</v>
+      </c>
+      <c r="M7" s="16">
+        <f>0.319777913834</f>
+        <v>0.319777913834</v>
+      </c>
+      <c r="N7" s="65">
+        <v>3870.28</v>
+      </c>
+      <c r="O7" s="66">
+        <v>1329.32</v>
+      </c>
+      <c r="P7" s="67">
+        <v>456.181519966</v>
+      </c>
+      <c r="Q7" s="68">
+        <f>0.345052281224</f>
+        <v>0.345052281224</v>
+      </c>
+      <c r="R7" s="11">
+        <v>71535</v>
+      </c>
+      <c r="S7" s="12">
+        <v>14803.52</v>
+      </c>
+      <c r="T7" s="69">
+        <v>196.889799852371</v>
+      </c>
+      <c r="U7" s="16">
+        <f>0.206990094100602</f>
+        <v>0.20699009410060201</v>
+      </c>
+      <c r="V7" s="65">
+        <v>70674.52</v>
+      </c>
+      <c r="W7" s="66">
+        <v>14335.04</v>
+      </c>
+      <c r="X7" s="67">
+        <v>204.236077661514</v>
+      </c>
+      <c r="Y7" s="68">
+        <f>0.202862373601151</f>
+        <v>0.202862373601151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="E8" s="14"/>
+      <c r="F8" s="2">
+        <f>F6-B6</f>
+        <v>884.55999999999767</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:I8" si="0">G6-C6</f>
+        <v>879.76000000000204</v>
+      </c>
+      <c r="H8" s="60">
+        <f>H6-D6</f>
+        <v>2.4653199770000072</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
+        <v>7.8190762180000428E-3</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="N8" s="2">
+        <f t="shared" ref="N8:Q9" si="1">N6-J6</f>
+        <v>-8502.36</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>1418.8400000000001</v>
+      </c>
+      <c r="P8" s="60">
+        <f t="shared" si="1"/>
+        <v>1.8097199535399993</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26616693276800002</v>
+      </c>
+      <c r="V8" s="2">
+        <f>V6-R6</f>
+        <v>-3192.4799999999959</v>
+      </c>
+      <c r="W8" s="2">
+        <f>W6-S6</f>
+        <v>1275.0800000000017</v>
+      </c>
+      <c r="X8" s="60">
+        <f>X6-T6</f>
+        <v>1.3572250938410093</v>
+      </c>
+      <c r="Y8" s="14">
+        <f>Y6-U6</f>
+        <v>4.2192303140604959E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="E9" s="14"/>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:I9" si="2">F7-B7</f>
+        <v>33540.28</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>22394.639999999996</v>
+      </c>
+      <c r="H9" s="60">
+        <f>H7-D7</f>
+        <v>4.205720052700002</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="2"/>
+        <v>2.7353336135000017E-2</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="N9" s="2">
+        <f t="shared" si="1"/>
+        <v>-972.75999999999976</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="1"/>
+        <v>-201.48000000000002</v>
+      </c>
+      <c r="P9" s="71">
+        <f t="shared" si="1"/>
+        <v>328.667519932</v>
+      </c>
+      <c r="Q9" s="14">
+        <f>Q7-M7</f>
+        <v>2.5274367389999997E-2</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" ref="V9:Y9" si="3">V7-R7</f>
+        <v>-860.47999999999593</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="3"/>
+        <v>-468.47999999999956</v>
+      </c>
+      <c r="X9" s="71">
+        <f t="shared" si="3"/>
+        <v>7.3462778091430039</v>
+      </c>
+      <c r="Y9" s="70">
+        <f t="shared" si="3"/>
+        <v>-4.1277204994510097E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="E11" s="14"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="B12" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="78"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>33394.44</v>
+      </c>
+      <c r="C14" s="2">
+        <v>19862.96</v>
+      </c>
+      <c r="D14" s="60">
+        <v>435.56652023315399</v>
+      </c>
+      <c r="E14" s="15">
+        <f>0.595498451327</f>
+        <v>0.59549845132699997</v>
+      </c>
+      <c r="F14" s="61">
+        <v>33472.519999999997</v>
+      </c>
+      <c r="G14" s="62">
+        <v>20461.84</v>
+      </c>
+      <c r="H14" s="63">
+        <v>434.40089967727602</v>
+      </c>
+      <c r="I14" s="64">
+        <v>0.60385012711599995</v>
+      </c>
+      <c r="J14" s="10">
+        <v>6904.4</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1955.48</v>
+      </c>
+      <c r="L14" s="60">
+        <v>266.66423999800003</v>
+      </c>
+      <c r="M14" s="15">
+        <f>0.280064011089</f>
+        <v>0.28006401108899998</v>
+      </c>
+      <c r="N14" s="62">
+        <v>7652.36</v>
+      </c>
+      <c r="O14" s="62">
+        <v>2054.84</v>
+      </c>
+      <c r="P14" s="63">
+        <v>300.55159996999998</v>
+      </c>
+      <c r="Q14" s="64">
+        <f>0.266656194123</f>
+        <v>0.26665619412300001</v>
+      </c>
+      <c r="R14" s="10">
+        <v>72101.279999999999</v>
+      </c>
+      <c r="S14" s="4">
+        <v>50908.959999999999</v>
+      </c>
+      <c r="T14" s="60">
+        <v>435.56652023315399</v>
+      </c>
+      <c r="U14" s="15">
+        <f>0.706072237533358</f>
+        <v>0.70607223753335802</v>
+      </c>
+      <c r="V14" s="61">
+        <v>46776.959999999999</v>
+      </c>
+      <c r="W14" s="62">
+        <v>38239.96</v>
+      </c>
+      <c r="X14" s="63">
+        <v>434.40089967727602</v>
+      </c>
+      <c r="Y14" s="64">
+        <f>0.817497229632774</f>
+        <v>0.81749722963277405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7">
+        <v>256828.28</v>
+      </c>
+      <c r="C15" s="8">
+        <v>159559.20000000001</v>
+      </c>
+      <c r="D15" s="69">
+        <v>450.58300001100002</v>
+      </c>
+      <c r="E15" s="16">
+        <f>0.621226720257</f>
+        <v>0.62122672025699999</v>
+      </c>
+      <c r="F15" s="65">
+        <v>255556.4</v>
+      </c>
+      <c r="G15" s="66">
+        <v>161164.96</v>
+      </c>
+      <c r="H15" s="67">
+        <v>447.34788001999999</v>
+      </c>
+      <c r="I15" s="68">
+        <f>0.630712779453</f>
+        <v>0.63071277945299997</v>
+      </c>
+      <c r="J15" s="11">
+        <v>13233.72</v>
+      </c>
+      <c r="K15" s="12">
+        <v>6834.08</v>
+      </c>
+      <c r="L15" s="69">
+        <v>1788.57847999</v>
+      </c>
+      <c r="M15" s="16">
+        <f>0.517111316142</f>
+        <v>0.51711131614200001</v>
+      </c>
+      <c r="N15" s="65">
+        <v>13120.2</v>
+      </c>
+      <c r="O15" s="66">
+        <v>6724.76</v>
+      </c>
+      <c r="P15" s="67">
+        <v>1686.6924800199999</v>
+      </c>
+      <c r="Q15" s="68">
+        <f>0.513583558135</f>
+        <v>0.51358355813500001</v>
+      </c>
+      <c r="R15" s="11">
+        <v>75500.52</v>
+      </c>
+      <c r="S15" s="12">
+        <v>43218.400000000001</v>
+      </c>
+      <c r="T15" s="69">
+        <v>433.70486718177699</v>
+      </c>
+      <c r="U15" s="16">
+        <f>0.572422652346015</f>
+        <v>0.57242265234601497</v>
+      </c>
+      <c r="V15" s="65">
+        <v>72237.16</v>
+      </c>
+      <c r="W15" s="66">
+        <v>43623.72</v>
+      </c>
+      <c r="X15" s="67">
+        <v>433.45899882316502</v>
+      </c>
+      <c r="Y15" s="68">
+        <f>0.603897120911155</f>
+        <v>0.60389712091115499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="E16" s="14"/>
+      <c r="F16" s="2">
+        <f t="shared" ref="F16:I17" si="4">F14-B14</f>
+        <v>78.07999999999447</v>
+      </c>
+      <c r="G16" s="62">
+        <f t="shared" si="4"/>
+        <v>598.88000000000102</v>
+      </c>
+      <c r="H16" s="60">
+        <f t="shared" si="4"/>
+        <v>-1.1656205558779789</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="4"/>
+        <v>8.3516757889999793E-3</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="N16" s="2">
+        <f t="shared" ref="N16:Q17" si="5">N14-J14</f>
+        <v>747.96</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="5"/>
+        <v>99.360000000000127</v>
+      </c>
+      <c r="P16" s="60">
+        <f t="shared" si="5"/>
+        <v>33.887359971999956</v>
+      </c>
+      <c r="Q16" s="70">
+        <f t="shared" si="5"/>
+        <v>-1.3407816965999964E-2</v>
+      </c>
+      <c r="V16" s="2">
+        <f t="shared" ref="V16:Y17" si="6">V14-R14</f>
+        <v>-25324.32</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="6"/>
+        <v>-12669</v>
+      </c>
+      <c r="X16" s="60">
+        <f t="shared" si="6"/>
+        <v>-1.1656205558779789</v>
+      </c>
+      <c r="Y16" s="14">
+        <f t="shared" si="6"/>
+        <v>0.11142499209941603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="E17" s="14"/>
+      <c r="F17" s="2">
+        <f t="shared" si="4"/>
+        <v>-1271.8800000000047</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="4"/>
+        <v>1605.7599999999802</v>
+      </c>
+      <c r="H17" s="60">
+        <f t="shared" si="4"/>
+        <v>-3.2351199910000332</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="4"/>
+        <v>9.4860591959999851E-3</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="N17" s="2">
+        <f t="shared" si="5"/>
+        <v>-113.51999999999862</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="5"/>
+        <v>-109.31999999999971</v>
+      </c>
+      <c r="P17" s="71">
+        <f t="shared" si="5"/>
+        <v>-101.88599997000006</v>
+      </c>
+      <c r="Q17" s="70">
+        <f t="shared" si="5"/>
+        <v>-3.5277580070000036E-3</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" si="6"/>
+        <v>-3263.3600000000006</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="6"/>
+        <v>405.31999999999971</v>
+      </c>
+      <c r="X17" s="60">
+        <f t="shared" si="6"/>
+        <v>-0.24586835861197187</v>
+      </c>
+      <c r="Y17" s="14">
+        <f t="shared" si="6"/>
+        <v>3.1474468565140024E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="R18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="E19" s="14"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="B20" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="78"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1939.52</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1254.28</v>
+      </c>
+      <c r="D22" s="60">
+        <v>4.0217199611699996</v>
+      </c>
+      <c r="E22" s="15">
+        <f>0.412818978501</f>
+        <v>0.41281897850100002</v>
+      </c>
+      <c r="F22" s="61">
+        <v>2660.24</v>
+      </c>
+      <c r="G22" s="62">
+        <v>1850.8</v>
+      </c>
+      <c r="H22" s="63">
+        <v>3.5277999687200001</v>
+      </c>
+      <c r="I22" s="64">
+        <f>0.457858631304</f>
+        <v>0.45785863130400001</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1788.56</v>
+      </c>
+      <c r="K22" s="4">
+        <v>383.36</v>
+      </c>
+      <c r="L22" s="60">
+        <v>6.74392003059</v>
+      </c>
+      <c r="M22" s="15">
+        <f>0.117365546056</f>
+        <v>0.117365546056</v>
+      </c>
+      <c r="N22" s="61">
+        <v>2361.4</v>
+      </c>
+      <c r="O22" s="62">
+        <v>394.84</v>
+      </c>
+      <c r="P22" s="63">
+        <v>8.5536399841299993</v>
+      </c>
+      <c r="Q22" s="64">
+        <f>0.133845483353</f>
+        <v>0.13384548335300001</v>
+      </c>
+      <c r="R22" s="10">
+        <v>75640.639999999999</v>
+      </c>
+      <c r="S22" s="4">
+        <v>50279.44</v>
+      </c>
+      <c r="T22" s="60">
+        <v>45.724359817504798</v>
+      </c>
+      <c r="U22" s="15">
+        <f>0.664719285726297</f>
+        <v>0.66471928572629702</v>
+      </c>
+      <c r="V22" s="61">
+        <v>72349.759999999995</v>
+      </c>
+      <c r="W22" s="62">
+        <v>48301.440000000002</v>
+      </c>
+      <c r="X22" s="63">
+        <v>45.114759931564301</v>
+      </c>
+      <c r="Y22" s="64">
+        <f>0.667614675138628</f>
+        <v>0.66761467513862804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="7">
+        <v>65731.759999999995</v>
+      </c>
+      <c r="C23" s="8">
+        <v>42733</v>
+      </c>
+      <c r="D23" s="69">
+        <v>14.4680799961</v>
+      </c>
+      <c r="E23" s="16">
+        <f>0.649367174249</f>
+        <v>0.64936717424900003</v>
+      </c>
+      <c r="F23" s="65">
+        <v>65878.28</v>
+      </c>
+      <c r="G23" s="66">
+        <v>42978.879999999997</v>
+      </c>
+      <c r="H23" s="67">
+        <v>14.3954400158</v>
+      </c>
+      <c r="I23" s="68">
+        <f>0.651995258419</f>
+        <v>0.65199525841899997</v>
+      </c>
+      <c r="J23" s="11">
+        <v>55759.76</v>
+      </c>
+      <c r="K23" s="12">
+        <v>5086.16</v>
+      </c>
+      <c r="L23" s="69">
+        <v>181.28955995600001</v>
+      </c>
+      <c r="M23" s="16">
+        <f>0.0941569205377</f>
+        <v>9.4156920537700001E-2</v>
+      </c>
+      <c r="N23" s="65">
+        <v>49437.48</v>
+      </c>
+      <c r="O23" s="66">
+        <v>8438.16</v>
+      </c>
+      <c r="P23" s="67">
+        <v>410.138880024</v>
+      </c>
+      <c r="Q23" s="68">
+        <f>0.175672981217</f>
+        <v>0.17567298121700001</v>
+      </c>
+      <c r="R23" s="11">
+        <v>72151.28</v>
+      </c>
+      <c r="S23" s="12">
+        <v>49929.2</v>
+      </c>
+      <c r="T23" s="69">
+        <v>32.503294029235803</v>
+      </c>
+      <c r="U23" s="16">
+        <f>0.692010424836777</f>
+        <v>0.69201042483677699</v>
+      </c>
+      <c r="V23" s="65">
+        <v>58399.72</v>
+      </c>
+      <c r="W23" s="66">
+        <v>37408.92</v>
+      </c>
+      <c r="X23" s="67">
+        <v>30.305739288329999</v>
+      </c>
+      <c r="Y23" s="68">
+        <f>0.64057186374492</f>
+        <v>0.64057186374492003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="F24" s="2">
+        <f t="shared" ref="F24:I25" si="7">F22-B22</f>
+        <v>720.7199999999998</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="7"/>
+        <v>596.52</v>
+      </c>
+      <c r="H24" s="60">
+        <f t="shared" si="7"/>
+        <v>-0.49391999244999951</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="7"/>
+        <v>4.5039652802999985E-2</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" ref="N24:Q25" si="8">N22-J22</f>
+        <v>572.84000000000015</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="8"/>
+        <v>11.479999999999961</v>
+      </c>
+      <c r="P24" s="60">
+        <f t="shared" si="8"/>
+        <v>1.8097199535399993</v>
+      </c>
+      <c r="Q24" s="14">
+        <f t="shared" si="8"/>
+        <v>1.6479937297000008E-2</v>
+      </c>
+      <c r="V24" s="2">
+        <f>V22-R22</f>
+        <v>-3290.8800000000047</v>
+      </c>
+      <c r="W24" s="2">
+        <f>W22-S22</f>
+        <v>-1978</v>
+      </c>
+      <c r="X24" s="60">
+        <f>X22-T22</f>
+        <v>-0.60959988594049719</v>
+      </c>
+      <c r="Y24" s="14">
+        <f>Y22-U22</f>
+        <v>2.8953894123310286E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="F25" s="2">
+        <f t="shared" si="7"/>
+        <v>146.52000000000407</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="7"/>
+        <v>245.87999999999738</v>
+      </c>
+      <c r="H25" s="60">
+        <f t="shared" si="7"/>
+        <v>-7.2639980299999962E-2</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="7"/>
+        <v>2.6280841699999336E-3</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="8"/>
+        <v>-6322.2799999999988</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="8"/>
+        <v>3352</v>
+      </c>
+      <c r="P25" s="71">
+        <f t="shared" si="8"/>
+        <v>228.849320068</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" si="8"/>
+        <v>8.1516060679300006E-2</v>
+      </c>
+      <c r="V25" s="2">
+        <f>V23-R23</f>
+        <v>-13751.559999999998</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" ref="W25:Y25" si="9">W23-S23</f>
+        <v>-12520.279999999999</v>
+      </c>
+      <c r="X25" s="60">
+        <f t="shared" si="9"/>
+        <v>-2.1975547409058045</v>
+      </c>
+      <c r="Y25" s="70">
+        <f t="shared" si="9"/>
         <v>-5.143856109185696E-2</v>
       </c>
     </row>
@@ -3624,1266 +5013,1029 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42F29A4-40B4-4F76-862E-2F3EC1AC93BE}">
-  <dimension ref="A1:Y25"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8137F2D2-9415-4E0A-902C-EE90A5695E2E}">
+  <dimension ref="A3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="60"/>
-    <col min="6" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="10.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="14"/>
-    <col min="12" max="12" width="9.140625" style="60"/>
-    <col min="13" max="13" width="9.140625" style="14"/>
-    <col min="14" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="9.5703125" style="60" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="14"/>
-    <col min="20" max="20" width="9.140625" style="60"/>
-    <col min="21" max="21" width="9.140625" style="14"/>
-    <col min="22" max="23" width="9.140625" style="2"/>
-    <col min="24" max="24" width="10.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="14"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="R2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E3" s="14"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="77"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X5" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6">
-        <v>43861.68</v>
-      </c>
-      <c r="C6" s="2">
-        <v>27560.12</v>
-      </c>
-      <c r="D6" s="60">
-        <v>112.247079992</v>
-      </c>
-      <c r="E6" s="15">
-        <f>0.627764779504</f>
-        <v>0.627764779504</v>
-      </c>
-      <c r="F6" s="61">
-        <v>44746.239999999998</v>
-      </c>
-      <c r="G6" s="62">
-        <v>28439.88</v>
-      </c>
-      <c r="H6" s="63">
-        <v>114.712399969</v>
-      </c>
-      <c r="I6" s="64">
-        <f>0.635583855722</f>
-        <v>0.63558385572200005</v>
-      </c>
-      <c r="J6" s="10">
-        <v>22778.52</v>
-      </c>
-      <c r="K6" s="4">
-        <v>5056.88</v>
-      </c>
-      <c r="L6" s="60">
-        <v>6.74392003059</v>
-      </c>
-      <c r="M6" s="15">
-        <f>0.229772150746</f>
-        <v>0.22977215074599999</v>
-      </c>
-      <c r="N6" s="61">
-        <v>14276.16</v>
-      </c>
-      <c r="O6" s="62">
-        <v>6475.72</v>
-      </c>
-      <c r="P6" s="63">
-        <v>8.5536399841299993</v>
-      </c>
-      <c r="Q6" s="64">
-        <f>0.495939083514</f>
-        <v>0.49593908351400001</v>
-      </c>
-      <c r="R6" s="10">
-        <v>75597.440000000002</v>
-      </c>
-      <c r="S6" s="4">
-        <v>42141.32</v>
-      </c>
-      <c r="T6" s="60">
-        <v>440.16081964492798</v>
-      </c>
-      <c r="U6" s="15">
-        <v>0.55744297070748905</v>
-      </c>
-      <c r="V6" s="61">
-        <v>72404.960000000006</v>
-      </c>
-      <c r="W6" s="62">
-        <v>43416.4</v>
-      </c>
-      <c r="X6" s="63">
-        <v>441.51804473876899</v>
-      </c>
-      <c r="Y6" s="64">
-        <v>0.59963527384809401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7">
-        <v>47010.84</v>
-      </c>
-      <c r="C7" s="8">
-        <v>28294.880000000001</v>
-      </c>
-      <c r="D7" s="69">
-        <v>17.955279979699998</v>
-      </c>
-      <c r="E7" s="16">
-        <f>0.60183842307</f>
-        <v>0.60183842307000002</v>
-      </c>
-      <c r="F7" s="65">
-        <v>80551.12</v>
-      </c>
-      <c r="G7" s="66">
-        <v>50689.52</v>
-      </c>
-      <c r="H7" s="67">
-        <v>22.1610000324</v>
-      </c>
-      <c r="I7" s="68">
-        <f>0.629191759205</f>
-        <v>0.62919175920500003</v>
-      </c>
-      <c r="J7" s="11">
-        <v>4843.04</v>
-      </c>
-      <c r="K7" s="12">
-        <v>1530.8</v>
-      </c>
-      <c r="L7" s="69">
-        <v>127.51400003400001</v>
-      </c>
-      <c r="M7" s="16">
-        <f>0.319777913834</f>
-        <v>0.319777913834</v>
-      </c>
-      <c r="N7" s="65">
-        <v>3870.28</v>
-      </c>
-      <c r="O7" s="66">
-        <v>1329.32</v>
-      </c>
-      <c r="P7" s="67">
-        <v>456.181519966</v>
-      </c>
-      <c r="Q7" s="68">
-        <f>0.345052281224</f>
-        <v>0.345052281224</v>
-      </c>
-      <c r="R7" s="11">
-        <v>71535</v>
-      </c>
-      <c r="S7" s="12">
-        <v>14803.52</v>
-      </c>
-      <c r="T7" s="69">
-        <v>196.889799852371</v>
-      </c>
-      <c r="U7" s="16">
-        <f>0.206990094100602</f>
-        <v>0.20699009410060201</v>
-      </c>
-      <c r="V7" s="65">
-        <v>70674.52</v>
-      </c>
-      <c r="W7" s="66">
-        <v>14335.04</v>
-      </c>
-      <c r="X7" s="67">
-        <v>204.236077661514</v>
-      </c>
-      <c r="Y7" s="68">
-        <f>0.202862373601151</f>
-        <v>0.202862373601151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E8" s="14"/>
-      <c r="F8" s="2">
-        <f>F6-B6</f>
-        <v>884.55999999999767</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" ref="G8:I8" si="0">G6-C6</f>
-        <v>879.76000000000204</v>
-      </c>
-      <c r="H8" s="60">
-        <f>H6-D6</f>
-        <v>2.4653199770000072</v>
-      </c>
-      <c r="I8" s="14">
-        <f t="shared" si="0"/>
-        <v>7.8190762180000428E-3</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="N8" s="2">
-        <f t="shared" ref="N8:Q9" si="1">N6-J6</f>
-        <v>-8502.36</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="1"/>
-        <v>1418.8400000000001</v>
-      </c>
-      <c r="P8" s="60">
-        <f t="shared" si="1"/>
-        <v>1.8097199535399993</v>
-      </c>
-      <c r="Q8" s="14">
-        <f t="shared" si="1"/>
-        <v>0.26616693276800002</v>
-      </c>
-      <c r="V8" s="2">
-        <f>V6-R6</f>
-        <v>-3192.4799999999959</v>
-      </c>
-      <c r="W8" s="2">
-        <f>W6-S6</f>
-        <v>1275.0800000000017</v>
-      </c>
-      <c r="X8" s="60">
-        <f>X6-T6</f>
-        <v>1.3572250938410093</v>
-      </c>
-      <c r="Y8" s="14">
-        <f>Y6-U6</f>
-        <v>4.2192303140604959E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E9" s="14"/>
-      <c r="F9" s="2">
-        <f t="shared" ref="F9:I9" si="2">F7-B7</f>
-        <v>33540.28</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="2"/>
-        <v>22394.639999999996</v>
-      </c>
-      <c r="H9" s="60">
-        <f>H7-D7</f>
-        <v>4.205720052700002</v>
-      </c>
-      <c r="I9" s="14">
-        <f t="shared" si="2"/>
-        <v>2.7353336135000017E-2</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="N9" s="2">
-        <f t="shared" si="1"/>
-        <v>-972.75999999999976</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="1"/>
-        <v>-201.48000000000002</v>
-      </c>
-      <c r="P9" s="71">
-        <f t="shared" si="1"/>
-        <v>328.667519932</v>
-      </c>
-      <c r="Q9" s="14">
-        <f>Q7-M7</f>
-        <v>2.5274367389999997E-2</v>
-      </c>
-      <c r="V9" s="2">
-        <f t="shared" ref="V9:Y9" si="3">V7-R7</f>
-        <v>-860.47999999999593</v>
-      </c>
-      <c r="W9" s="2">
-        <f t="shared" si="3"/>
-        <v>-468.47999999999956</v>
-      </c>
-      <c r="X9" s="71">
-        <f t="shared" si="3"/>
-        <v>7.3462778091430039</v>
-      </c>
-      <c r="Y9" s="70">
-        <f t="shared" si="3"/>
-        <v>-4.1277204994510097E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="J10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="R10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E11" s="14"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="77"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P13" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="T13" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="U13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X13" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y13" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6">
-        <v>33394.44</v>
-      </c>
-      <c r="C14" s="2">
-        <v>19862.96</v>
-      </c>
-      <c r="D14" s="60">
-        <v>435.56652023315399</v>
-      </c>
-      <c r="E14" s="15">
-        <f>0.595498451327</f>
-        <v>0.59549845132699997</v>
-      </c>
-      <c r="F14" s="61">
-        <v>33472.519999999997</v>
-      </c>
-      <c r="G14" s="62">
-        <v>20461.84</v>
-      </c>
-      <c r="H14" s="63">
-        <v>434.40089967727602</v>
-      </c>
-      <c r="I14" s="64">
-        <v>0.60385012711599995</v>
-      </c>
-      <c r="J14" s="10">
-        <v>6904.4</v>
-      </c>
-      <c r="K14" s="4">
-        <v>1955.48</v>
-      </c>
-      <c r="L14" s="60">
-        <v>266.66423999800003</v>
-      </c>
-      <c r="M14" s="15">
-        <f>0.280064011089</f>
-        <v>0.28006401108899998</v>
-      </c>
-      <c r="N14" s="62">
-        <v>7652.36</v>
-      </c>
-      <c r="O14" s="62">
-        <v>2054.84</v>
-      </c>
-      <c r="P14" s="63">
-        <v>300.55159996999998</v>
-      </c>
-      <c r="Q14" s="64">
-        <f>0.266656194123</f>
-        <v>0.26665619412300001</v>
-      </c>
-      <c r="R14" s="10">
-        <v>72101.279999999999</v>
-      </c>
-      <c r="S14" s="4">
-        <v>50908.959999999999</v>
-      </c>
-      <c r="T14" s="60">
-        <v>435.56652023315399</v>
-      </c>
-      <c r="U14" s="15">
-        <f>0.706072237533358</f>
-        <v>0.70607223753335802</v>
-      </c>
-      <c r="V14" s="61">
-        <v>46776.959999999999</v>
-      </c>
-      <c r="W14" s="62">
-        <v>38239.96</v>
-      </c>
-      <c r="X14" s="63">
-        <v>434.40089967727602</v>
-      </c>
-      <c r="Y14" s="64">
-        <f>0.817497229632774</f>
-        <v>0.81749722963277405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7">
-        <v>256828.28</v>
-      </c>
-      <c r="C15" s="8">
-        <v>159559.20000000001</v>
-      </c>
-      <c r="D15" s="69">
-        <v>450.58300001100002</v>
-      </c>
-      <c r="E15" s="16">
-        <f>0.621226720257</f>
-        <v>0.62122672025699999</v>
-      </c>
-      <c r="F15" s="65">
-        <v>255556.4</v>
-      </c>
-      <c r="G15" s="66">
-        <v>161164.96</v>
-      </c>
-      <c r="H15" s="67">
-        <v>447.34788001999999</v>
-      </c>
-      <c r="I15" s="68">
-        <f>0.630712779453</f>
-        <v>0.63071277945299997</v>
-      </c>
-      <c r="J15" s="11">
-        <v>13233.72</v>
-      </c>
-      <c r="K15" s="12">
-        <v>6834.08</v>
-      </c>
-      <c r="L15" s="69">
-        <v>1788.57847999</v>
-      </c>
-      <c r="M15" s="16">
-        <f>0.517111316142</f>
-        <v>0.51711131614200001</v>
-      </c>
-      <c r="N15" s="65">
-        <v>13120.2</v>
-      </c>
-      <c r="O15" s="66">
-        <v>6724.76</v>
-      </c>
-      <c r="P15" s="67">
-        <v>1686.6924800199999</v>
-      </c>
-      <c r="Q15" s="68">
-        <f>0.513583558135</f>
-        <v>0.51358355813500001</v>
-      </c>
-      <c r="R15" s="11">
-        <v>75500.52</v>
-      </c>
-      <c r="S15" s="12">
-        <v>43218.400000000001</v>
-      </c>
-      <c r="T15" s="69">
-        <v>433.70486718177699</v>
-      </c>
-      <c r="U15" s="16">
-        <f>0.572422652346015</f>
-        <v>0.57242265234601497</v>
-      </c>
-      <c r="V15" s="65">
-        <v>72237.16</v>
-      </c>
-      <c r="W15" s="66">
-        <v>43623.72</v>
-      </c>
-      <c r="X15" s="67">
-        <v>433.45899882316502</v>
-      </c>
-      <c r="Y15" s="68">
-        <f>0.603897120911155</f>
-        <v>0.60389712091115499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E16" s="14"/>
-      <c r="F16" s="2">
-        <f t="shared" ref="F16:I17" si="4">F14-B14</f>
-        <v>78.07999999999447</v>
-      </c>
-      <c r="G16" s="62">
-        <f t="shared" si="4"/>
-        <v>598.88000000000102</v>
-      </c>
-      <c r="H16" s="60">
-        <f t="shared" si="4"/>
-        <v>-1.1656205558779789</v>
-      </c>
-      <c r="I16" s="14">
-        <f t="shared" si="4"/>
-        <v>8.3516757889999793E-3</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="N16" s="2">
-        <f t="shared" ref="N16:Q17" si="5">N14-J14</f>
-        <v>747.96</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="5"/>
-        <v>99.360000000000127</v>
-      </c>
-      <c r="P16" s="60">
-        <f t="shared" si="5"/>
-        <v>33.887359971999956</v>
-      </c>
-      <c r="Q16" s="70">
-        <f t="shared" si="5"/>
-        <v>-1.3407816965999964E-2</v>
-      </c>
-      <c r="V16" s="2">
-        <f t="shared" ref="V16:Y17" si="6">V14-R14</f>
-        <v>-25324.32</v>
-      </c>
-      <c r="W16" s="2">
-        <f t="shared" si="6"/>
-        <v>-12669</v>
-      </c>
-      <c r="X16" s="60">
-        <f t="shared" si="6"/>
-        <v>-1.1656205558779789</v>
-      </c>
-      <c r="Y16" s="14">
-        <f t="shared" si="6"/>
-        <v>0.11142499209941603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E17" s="14"/>
-      <c r="F17" s="2">
-        <f t="shared" si="4"/>
-        <v>-1271.8800000000047</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="4"/>
-        <v>1605.7599999999802</v>
-      </c>
-      <c r="H17" s="60">
-        <f t="shared" si="4"/>
-        <v>-3.2351199910000332</v>
-      </c>
-      <c r="I17" s="14">
-        <f t="shared" si="4"/>
-        <v>9.4860591959999851E-3</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="N17" s="2">
-        <f t="shared" si="5"/>
-        <v>-113.51999999999862</v>
-      </c>
-      <c r="O17" s="2">
-        <f t="shared" si="5"/>
-        <v>-109.31999999999971</v>
-      </c>
-      <c r="P17" s="71">
-        <f t="shared" si="5"/>
-        <v>-101.88599997000006</v>
-      </c>
-      <c r="Q17" s="70">
-        <f t="shared" si="5"/>
-        <v>-3.5277580070000036E-3</v>
-      </c>
-      <c r="V17" s="2">
-        <f t="shared" si="6"/>
-        <v>-3263.3600000000006</v>
-      </c>
-      <c r="W17" s="2">
-        <f t="shared" si="6"/>
-        <v>405.31999999999971</v>
-      </c>
-      <c r="X17" s="60">
-        <f t="shared" si="6"/>
-        <v>-0.24586835861197187</v>
-      </c>
-      <c r="Y17" s="14">
-        <f t="shared" si="6"/>
-        <v>3.1474468565140024E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="J18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="R18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E19" s="14"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="77"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="T21" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="U21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X21" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y21" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1939.52</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1254.28</v>
-      </c>
-      <c r="D22" s="60">
-        <v>4.0217199611699996</v>
-      </c>
-      <c r="E22" s="15">
-        <f>0.412818978501</f>
-        <v>0.41281897850100002</v>
-      </c>
-      <c r="F22" s="61">
-        <v>2660.24</v>
-      </c>
-      <c r="G22" s="62">
-        <v>1850.8</v>
-      </c>
-      <c r="H22" s="63">
-        <v>3.5277999687200001</v>
-      </c>
-      <c r="I22" s="64">
-        <f>0.457858631304</f>
-        <v>0.45785863130400001</v>
-      </c>
-      <c r="J22" s="10">
-        <v>1788.56</v>
-      </c>
-      <c r="K22" s="4">
-        <v>383.36</v>
-      </c>
-      <c r="L22" s="60">
-        <v>6.74392003059</v>
-      </c>
-      <c r="M22" s="15">
-        <f>0.117365546056</f>
-        <v>0.117365546056</v>
-      </c>
-      <c r="N22" s="61">
-        <v>2361.4</v>
-      </c>
-      <c r="O22" s="62">
-        <v>394.84</v>
-      </c>
-      <c r="P22" s="63">
-        <v>8.5536399841299993</v>
-      </c>
-      <c r="Q22" s="64">
-        <f>0.133845483353</f>
-        <v>0.13384548335300001</v>
-      </c>
-      <c r="R22" s="10">
-        <v>75640.639999999999</v>
-      </c>
-      <c r="S22" s="4">
-        <v>50279.44</v>
-      </c>
-      <c r="T22" s="60">
-        <v>45.724359817504798</v>
-      </c>
-      <c r="U22" s="15">
-        <f>0.664719285726297</f>
-        <v>0.66471928572629702</v>
-      </c>
-      <c r="V22" s="61">
-        <v>72349.759999999995</v>
-      </c>
-      <c r="W22" s="62">
-        <v>48301.440000000002</v>
-      </c>
-      <c r="X22" s="63">
-        <v>45.114759931564301</v>
-      </c>
-      <c r="Y22" s="64">
-        <f>0.667614675138628</f>
-        <v>0.66761467513862804</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="7">
-        <v>65731.759999999995</v>
-      </c>
-      <c r="C23" s="8">
-        <v>42733</v>
-      </c>
-      <c r="D23" s="69">
-        <v>14.4680799961</v>
-      </c>
-      <c r="E23" s="16">
-        <f>0.649367174249</f>
-        <v>0.64936717424900003</v>
-      </c>
-      <c r="F23" s="65">
-        <v>65878.28</v>
-      </c>
-      <c r="G23" s="66">
-        <v>42978.879999999997</v>
-      </c>
-      <c r="H23" s="67">
-        <v>14.3954400158</v>
-      </c>
-      <c r="I23" s="68">
-        <f>0.651995258419</f>
-        <v>0.65199525841899997</v>
-      </c>
-      <c r="J23" s="11">
-        <v>55759.76</v>
-      </c>
-      <c r="K23" s="12">
-        <v>5086.16</v>
-      </c>
-      <c r="L23" s="69">
-        <v>181.28955995600001</v>
-      </c>
-      <c r="M23" s="16">
-        <f>0.0941569205377</f>
-        <v>9.4156920537700001E-2</v>
-      </c>
-      <c r="N23" s="65">
-        <v>49437.48</v>
-      </c>
-      <c r="O23" s="66">
-        <v>8438.16</v>
-      </c>
-      <c r="P23" s="67">
-        <v>410.138880024</v>
-      </c>
-      <c r="Q23" s="68">
-        <f>0.175672981217</f>
-        <v>0.17567298121700001</v>
-      </c>
-      <c r="R23" s="11">
-        <v>72151.28</v>
-      </c>
-      <c r="S23" s="12">
-        <v>49929.2</v>
-      </c>
-      <c r="T23" s="69">
-        <v>32.503294029235803</v>
-      </c>
-      <c r="U23" s="16">
-        <f>0.692010424836777</f>
-        <v>0.69201042483677699</v>
-      </c>
-      <c r="V23" s="65">
-        <v>58399.72</v>
-      </c>
-      <c r="W23" s="66">
-        <v>37408.92</v>
-      </c>
-      <c r="X23" s="67">
-        <v>30.305739288329999</v>
-      </c>
-      <c r="Y23" s="68">
-        <f>0.64057186374492</f>
-        <v>0.64057186374492003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F24" s="2">
-        <f t="shared" ref="F24:I25" si="7">F22-B22</f>
-        <v>720.7199999999998</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="7"/>
-        <v>596.52</v>
-      </c>
-      <c r="H24" s="60">
-        <f t="shared" si="7"/>
-        <v>-0.49391999244999951</v>
-      </c>
-      <c r="I24" s="14">
-        <f t="shared" si="7"/>
-        <v>4.5039652802999985E-2</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" ref="N24:Q25" si="8">N22-J22</f>
-        <v>572.84000000000015</v>
-      </c>
-      <c r="O24" s="2">
-        <f t="shared" si="8"/>
-        <v>11.479999999999961</v>
-      </c>
-      <c r="P24" s="60">
-        <f t="shared" si="8"/>
-        <v>1.8097199535399993</v>
-      </c>
-      <c r="Q24" s="14">
-        <f t="shared" si="8"/>
-        <v>1.6479937297000008E-2</v>
-      </c>
-      <c r="V24" s="2">
-        <f>V22-R22</f>
-        <v>-3290.8800000000047</v>
-      </c>
-      <c r="W24" s="2">
-        <f>W22-S22</f>
-        <v>-1978</v>
-      </c>
-      <c r="X24" s="60">
-        <f>X22-T22</f>
-        <v>-0.60959988594049719</v>
-      </c>
-      <c r="Y24" s="14">
-        <f>Y22-U22</f>
-        <v>2.8953894123310286E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F25" s="2">
-        <f t="shared" si="7"/>
-        <v>146.52000000000407</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="7"/>
-        <v>245.87999999999738</v>
-      </c>
-      <c r="H25" s="60">
-        <f t="shared" si="7"/>
-        <v>-7.2639980299999962E-2</v>
-      </c>
-      <c r="I25" s="14">
-        <f t="shared" si="7"/>
-        <v>2.6280841699999336E-3</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" si="8"/>
-        <v>-6322.2799999999988</v>
-      </c>
-      <c r="O25" s="2">
-        <f t="shared" si="8"/>
-        <v>3352</v>
-      </c>
-      <c r="P25" s="71">
-        <f t="shared" si="8"/>
-        <v>228.849320068</v>
-      </c>
-      <c r="Q25" s="14">
-        <f t="shared" si="8"/>
-        <v>8.1516060679300006E-2</v>
-      </c>
-      <c r="V25" s="2">
-        <f>V23-R23</f>
-        <v>-13751.559999999998</v>
-      </c>
-      <c r="W25" s="2">
-        <f t="shared" ref="W25:Y25" si="9">W23-S23</f>
-        <v>-12520.279999999999</v>
-      </c>
-      <c r="X25" s="60">
-        <f t="shared" si="9"/>
-        <v>-2.1975547409058045</v>
-      </c>
-      <c r="Y25" s="70">
-        <f t="shared" si="9"/>
-        <v>-5.143856109185696E-2</v>
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="72">
+        <v>3.3E-3</v>
+      </c>
+      <c r="C7" s="72">
+        <v>-1.2200000000000001E-2</v>
+      </c>
+      <c r="D7" s="72">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="E7" s="72">
+        <v>-1.7899999999999999E-2</v>
+      </c>
+      <c r="F7" s="72">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="G7" s="72">
+        <v>-3.04E-2</v>
+      </c>
+      <c r="H7" s="72">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I7" s="72">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="J7" s="72">
+        <v>0.29139999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="72">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="C8" s="72">
+        <v>-1.6400000000000001E-2</v>
+      </c>
+      <c r="D8" s="72">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="E8" s="72">
+        <v>0.1653</v>
+      </c>
+      <c r="F8" s="72">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="G8" s="72">
+        <v>-8.8000000000000005E-3</v>
+      </c>
+      <c r="H8" s="72">
+        <v>-1.4200000000000001E-2</v>
+      </c>
+      <c r="I8" s="72">
+        <v>0.1038</v>
+      </c>
+      <c r="J8" s="72">
+        <v>0.13880000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="72">
+        <v>6.3E-3</v>
+      </c>
+      <c r="C9" s="72">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D9" s="72">
+        <v>0.1104</v>
+      </c>
+      <c r="E9" s="72">
+        <v>-2.06E-2</v>
+      </c>
+      <c r="F9" s="72">
+        <v>-4.99E-2</v>
+      </c>
+      <c r="G9" s="72">
+        <v>-3.8600000000000002E-2</v>
+      </c>
+      <c r="H9" s="72">
+        <v>-1.29E-2</v>
+      </c>
+      <c r="I9" s="72">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="J9" s="72">
+        <v>-0.22359999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="72">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="C10" s="72">
+        <v>-4.4299999999999999E-2</v>
+      </c>
+      <c r="D10" s="72">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="E10" s="72">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="F10" s="72">
+        <v>-6.7999999999999996E-3</v>
+      </c>
+      <c r="G10" s="72">
+        <v>-4.0899999999999999E-2</v>
+      </c>
+      <c r="H10" s="72">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="I10" s="72">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="J10" s="72">
+        <v>5.21E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="72">
+        <v>1.15E-2</v>
+      </c>
+      <c r="C11" s="72">
+        <v>-2.6599999999999999E-2</v>
+      </c>
+      <c r="D11" s="72">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="E11" s="72">
+        <v>0.1047</v>
+      </c>
+      <c r="F11" s="72">
+        <v>-1.84E-2</v>
+      </c>
+      <c r="G11" s="72">
+        <v>-2.35E-2</v>
+      </c>
+      <c r="H11" s="72">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="I11" s="72">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="J11" s="72">
+        <v>0.44850000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="72">
+        <v>1.95E-2</v>
+      </c>
+      <c r="C12" s="72">
+        <v>-0.15920000000000001</v>
+      </c>
+      <c r="D12" s="72">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="E12" s="72">
+        <v>-1.5299999999999999E-2</v>
+      </c>
+      <c r="F12" s="72">
+        <v>-0.17219999999999999</v>
+      </c>
+      <c r="G12" s="72">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H12" s="72">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="I12" s="72">
+        <v>-0.2056</v>
+      </c>
+      <c r="J12" s="72">
+        <v>-7.9799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="72">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="C13" s="72">
+        <v>-4.4999999999999997E-3</v>
+      </c>
+      <c r="D13" s="72">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="E13" s="72">
+        <v>-7.7999999999999996E-3</v>
+      </c>
+      <c r="F13" s="72">
+        <v>-3.5099999999999999E-2</v>
+      </c>
+      <c r="G13" s="72">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H13" s="72">
+        <v>-2.1299999999999999E-2</v>
+      </c>
+      <c r="I13" s="72">
+        <v>-0.1046</v>
+      </c>
+      <c r="J13" s="72">
+        <v>-5.2699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="72">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C14" s="72">
+        <v>-0.12</v>
+      </c>
+      <c r="D14" s="72">
+        <v>0.1517</v>
+      </c>
+      <c r="E14" s="72">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="F14" s="72">
+        <v>-5.5599999999999997E-2</v>
+      </c>
+      <c r="G14" s="72">
+        <v>-1.29E-2</v>
+      </c>
+      <c r="H14" s="72">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="I14" s="72">
+        <v>-1.15E-2</v>
+      </c>
+      <c r="J14" s="72">
+        <v>0.16239999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="72">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="C15" s="72">
+        <v>-4.0399999999999998E-2</v>
+      </c>
+      <c r="D15" s="72">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="E15" s="72">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="F15" s="72">
+        <v>-9.7900000000000001E-2</v>
+      </c>
+      <c r="G15" s="72">
+        <v>-4.24E-2</v>
+      </c>
+      <c r="H15" s="72">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="I15" s="72">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J15" s="72">
+        <v>0.25180000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="72">
+        <v>0.1008</v>
+      </c>
+      <c r="C16" s="72">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D16" s="72">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="E16" s="72">
+        <v>0.1764</v>
+      </c>
+      <c r="F16" s="72">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="G16" s="72">
+        <v>7.85E-2</v>
+      </c>
+      <c r="H16" s="72">
+        <v>2.69E-2</v>
+      </c>
+      <c r="I16" s="72">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="J16" s="72">
+        <v>0.67110000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="72">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C17" s="72">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D17" s="72">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="E17" s="72">
+        <v>0.2407</v>
+      </c>
+      <c r="F17" s="72">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="G17" s="72">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="H17" s="72">
+        <v>0.48330000000000001</v>
+      </c>
+      <c r="I17" s="72">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="J17" s="72">
+        <v>0.76490000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="72">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="C18" s="72">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="D18" s="72">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="E18" s="72">
+        <v>0.44419999999999998</v>
+      </c>
+      <c r="F18" s="72">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="G18" s="72">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="H18" s="72">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="I18" s="72">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="J18" s="72">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="72">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="C19">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D19">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.54579999999999995</v>
+      </c>
+      <c r="F19">
+        <v>1.38E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.1305</v>
+      </c>
+      <c r="H19">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="I19">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.19650000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="72">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="C20">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="D20">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="F20">
+        <v>1.49E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.1158</v>
+      </c>
+      <c r="H20">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I20">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="J20">
+        <v>6.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="72">
+        <v>0.2838</v>
+      </c>
+      <c r="C21">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="E21">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F21">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.1067</v>
+      </c>
+      <c r="I21">
+        <v>0.2177</v>
+      </c>
+      <c r="J21">
+        <v>0.18360000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="72"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="72"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="72">
+        <v>-0.44019999999999998</v>
+      </c>
+      <c r="C27" s="72">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="D27" s="72">
+        <v>-0.22120000000000001</v>
+      </c>
+      <c r="E27" s="72">
+        <v>-9.3899999999999997E-2</v>
+      </c>
+      <c r="F27" s="72">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="G27" s="72">
+        <v>0.1142</v>
+      </c>
+      <c r="H27" s="72">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="I27" s="72">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="J27" s="72">
+        <v>-0.10780000000000001</v>
+      </c>
+      <c r="K27" s="72"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="72">
+        <v>1.06E-2</v>
+      </c>
+      <c r="C28" s="72">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="D28" s="72">
+        <v>-0.15629999999999999</v>
+      </c>
+      <c r="E28" s="72">
+        <v>-0.05</v>
+      </c>
+      <c r="F28" s="72">
+        <v>0.1167</v>
+      </c>
+      <c r="G28" s="72">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="H28" s="72">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="I28" s="72">
+        <v>0.3725</v>
+      </c>
+      <c r="J28" s="72">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="72">
+        <v>7.6E-3</v>
+      </c>
+      <c r="C29" s="72">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D29" s="72">
+        <v>0.2404</v>
+      </c>
+      <c r="E29" s="72">
+        <v>-3.3999999999999998E-3</v>
+      </c>
+      <c r="F29" s="72">
+        <v>0.1278</v>
+      </c>
+      <c r="G29" s="72">
+        <v>0.1845</v>
+      </c>
+      <c r="H29" s="72">
+        <v>0.2175</v>
+      </c>
+      <c r="I29" s="72">
+        <v>0.58589999999999998</v>
+      </c>
+      <c r="J29" s="72">
+        <v>0.1343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="72">
+        <v>-9.4999999999999998E-3</v>
+      </c>
+      <c r="C30" s="72">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="D30" s="72">
+        <v>0.32029999999999997</v>
+      </c>
+      <c r="E30" s="72">
+        <v>6.83E-2</v>
+      </c>
+      <c r="F30" s="72">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G30" s="72">
+        <v>0.2036</v>
+      </c>
+      <c r="H30" s="72">
+        <v>-1.1900000000000001E-2</v>
+      </c>
+      <c r="I30" s="72">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="J30" s="72">
+        <v>-0.1925</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="72">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="C31" s="72">
+        <v>0.1169</v>
+      </c>
+      <c r="D31" s="72">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E31" s="72">
+        <v>4.99E-2</v>
+      </c>
+      <c r="F31" s="72">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="G31" s="72">
+        <v>0.1258</v>
+      </c>
+      <c r="H31" s="72">
+        <v>9.06E-2</v>
+      </c>
+      <c r="I31" s="72">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="J31" s="72">
+        <v>0.28360000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="72">
+        <v>-3.85E-2</v>
+      </c>
+      <c r="C32" s="72">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="D32" s="72">
+        <v>0.379</v>
+      </c>
+      <c r="E32" s="72">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="F32" s="72">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="G32" s="72">
+        <v>0.2114</v>
+      </c>
+      <c r="H32" s="72">
+        <v>-0.27960000000000002</v>
+      </c>
+      <c r="I32" s="72">
+        <v>0.5262</v>
+      </c>
+      <c r="J32" s="72">
+        <v>-0.1482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="72">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="C33" s="72">
+        <v>0.1002</v>
+      </c>
+      <c r="D33" s="72">
+        <v>-1.84E-2</v>
+      </c>
+      <c r="E33" s="72">
+        <v>0</v>
+      </c>
+      <c r="F33" s="72">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="G33" s="72">
+        <v>0.18540000000000001</v>
+      </c>
+      <c r="H33" s="72">
+        <v>-2.7199999999999998E-2</v>
+      </c>
+      <c r="I33" s="72">
+        <v>0.38690000000000002</v>
+      </c>
+      <c r="J33" s="72">
+        <v>-0.34610000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="72">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C34" s="72">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="D34" s="72">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="E34" s="72">
+        <v>3.8E-3</v>
+      </c>
+      <c r="F34" s="72">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="G34" s="72">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="H34" s="72">
+        <v>-1.9E-3</v>
+      </c>
+      <c r="I34" s="72">
+        <v>-0.93030000000000002</v>
+      </c>
+      <c r="J34" s="72">
+        <v>-9.6500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="72">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="C36" s="72">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="D36" s="72">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="E36" s="72">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="F36" s="72">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G36" s="72">
+        <v>0.1133</v>
+      </c>
+      <c r="H36" s="72">
+        <v>-0.45700000000000002</v>
+      </c>
+      <c r="I36" s="72">
+        <v>-0.48080000000000001</v>
+      </c>
+      <c r="J36" s="72">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="K36" s="72"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="72">
+        <v>0.2074</v>
+      </c>
+      <c r="C37" s="72">
+        <v>0.1008</v>
+      </c>
+      <c r="D37" s="72">
+        <v>0.2863</v>
+      </c>
+      <c r="E37" s="72">
+        <v>0.13550000000000001</v>
+      </c>
+      <c r="F37" s="72">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="G37" s="72">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="H37" s="72">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I37" s="72">
+        <v>0.46160000000000001</v>
+      </c>
+      <c r="J37" s="72">
+        <v>0.1225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="72">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="C38" s="72">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="D38" s="72">
+        <v>0.2515</v>
+      </c>
+      <c r="E38" s="72">
+        <v>0.18490000000000001</v>
+      </c>
+      <c r="F38" s="72">
+        <v>2.12E-2</v>
+      </c>
+      <c r="G38" s="72">
+        <v>2.69E-2</v>
+      </c>
+      <c r="H38" s="72">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="I38" s="72">
+        <v>0.47970000000000002</v>
+      </c>
+      <c r="J38" s="72">
+        <v>0.24249999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="72">
+        <v>4.53E-2</v>
+      </c>
+      <c r="C39">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="D39">
+        <v>0.26290000000000002</v>
+      </c>
+      <c r="E39">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="F39">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="G39">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="H39">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="I39">
+        <v>0.4622</v>
+      </c>
+      <c r="J39">
+        <v>0.1106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Monash_University\Year5\Honours_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065BB330-2BE1-4CAB-AC81-6F85BDA9335B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F29BA5-EB58-4D20-B099-918B791B335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
+    <workbookView xWindow="-28920" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="66">
   <si>
     <t>TSN = Total number of generated samples</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>native_country</t>
+  </si>
+  <si>
+    <t>Feature</t>
   </si>
 </sst>
 </file>
@@ -3753,9 +3756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42F29A4-40B4-4F76-862E-2F3EC1AC93BE}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3801,30 +3804,30 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="73" t="s">
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="73" t="s">
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="75"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="78"/>
       <c r="R4" s="76" t="s">
         <v>18</v>
       </c>
@@ -4204,30 +4207,30 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="73" t="s">
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="73" t="s">
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="73" t="s">
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="75"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="78"/>
       <c r="R12" s="76" t="s">
         <v>18</v>
       </c>
@@ -4608,30 +4611,30 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:25">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="73" t="s">
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="73" t="s">
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="73" t="s">
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="75"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="78"/>
       <c r="R20" s="76" t="s">
         <v>18</v>
       </c>
@@ -5017,8 +5020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8137F2D2-9415-4E0A-902C-EE90A5695E2E}">
   <dimension ref="A3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5037,6 +5040,9 @@
       </c>
     </row>
     <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Monash_University\Year5\Honours_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F29BA5-EB58-4D20-B099-918B791B335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBE1BA8-A0E1-44A1-AFE9-7FE77D8AD098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="general data" sheetId="5" r:id="rId3"/>
     <sheet name="new_data" sheetId="6" r:id="rId4"/>
     <sheet name="correlation_coefficients" sheetId="8" r:id="rId5"/>
+    <sheet name="t-test" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="73">
   <si>
     <t>TSN = Total number of generated samples</t>
   </si>
@@ -238,6 +239,27 @@
   </si>
   <si>
     <t>Feature</t>
+  </si>
+  <si>
+    <t>Fairness Testing Algorithm</t>
+  </si>
+  <si>
+    <t>Classifier</t>
+  </si>
+  <si>
+    <t>t-statistic</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Reject Null Hypothesis</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Reject null hypthesis?</t>
   </si>
 </sst>
 </file>
@@ -434,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -528,6 +550,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3756,9 +3779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42F29A4-40B4-4F76-862E-2F3EC1AC93BE}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N9" sqref="N9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4878,17 +4901,17 @@
         <v>0.69201042483677699</v>
       </c>
       <c r="V23" s="65">
-        <v>58399.72</v>
+        <v>68850.64</v>
       </c>
       <c r="W23" s="66">
-        <v>37408.92</v>
+        <v>47900.56</v>
       </c>
       <c r="X23" s="67">
-        <v>30.305739288329999</v>
+        <v>29.520818271636902</v>
       </c>
       <c r="Y23" s="68">
-        <f>0.64057186374492</f>
-        <v>0.64057186374492003</v>
+        <f>0.695717701367691</f>
+        <v>0.69571770136769095</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -4976,19 +4999,19 @@
       </c>
       <c r="V25" s="2">
         <f>V23-R23</f>
-        <v>-13751.559999999998</v>
+        <v>-3300.6399999999994</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" ref="W25:Y25" si="9">W23-S23</f>
-        <v>-12520.279999999999</v>
+        <v>-2028.6399999999994</v>
       </c>
       <c r="X25" s="60">
-        <f t="shared" si="9"/>
-        <v>-2.1975547409058045</v>
+        <f>X23-T23</f>
+        <v>-2.9824757575989018</v>
       </c>
       <c r="Y25" s="70">
         <f t="shared" si="9"/>
-        <v>-5.143856109185696E-2</v>
+        <v>3.707276530913961E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6044,4 +6067,766 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95DB78E-C3C9-4D84-AB69-47409FDD14D6}">
+  <dimension ref="B3:G42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>-1.1693913956591699</v>
+      </c>
+      <c r="F4">
+        <v>0.25372924677457598</v>
+      </c>
+      <c r="G4" t="b">
+        <f>F4&lt;0.05</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>-0.31776652576627101</v>
+      </c>
+      <c r="F5">
+        <v>0.75341035855965799</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" ref="G5:G21" si="0">F5&lt;0.05</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>-23.426223312313699</v>
+      </c>
+      <c r="F6" s="79">
+        <v>4.8137919979846798E-18</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>-14.297332990836001</v>
+      </c>
+      <c r="F7" s="79">
+        <v>3.0714612725714102E-13</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>-0.41377015356941399</v>
+      </c>
+      <c r="F8">
+        <v>0.68271670620649105</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>-4.0814472340827601</v>
+      </c>
+      <c r="F9">
+        <v>4.2880921906591899E-4</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>-12.112149888197999</v>
+      </c>
+      <c r="F10" s="79">
+        <v>1.03067926866572E-11</v>
+      </c>
+      <c r="G10" t="b">
+        <f>F10&lt;0.05</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>-0.46110818639969398</v>
+      </c>
+      <c r="F11">
+        <v>0.64887258439009499</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>1.06041085590896</v>
+      </c>
+      <c r="F12">
+        <v>0.29951326413134899</v>
+      </c>
+      <c r="G12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>-2.9256685367686099</v>
+      </c>
+      <c r="F13">
+        <v>7.3993424288121296E-3</v>
+      </c>
+      <c r="G13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>-6.8462529407336197</v>
+      </c>
+      <c r="F14" s="79">
+        <v>4.4238056566889001E-7</v>
+      </c>
+      <c r="G14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>0.70881419932388401</v>
+      </c>
+      <c r="F15">
+        <v>0.48526860203996602</v>
+      </c>
+      <c r="G15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>-30.993361936174601</v>
+      </c>
+      <c r="F16" s="79">
+        <v>7.1735146545689301E-21</v>
+      </c>
+      <c r="G16" t="b">
+        <f>F16&lt;0.05</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>-0.42922691283650499</v>
+      </c>
+      <c r="F17">
+        <v>0.67158672847322398</v>
+      </c>
+      <c r="G17" t="b">
+        <f>F17&lt;0.05</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>-23.426223312313699</v>
+      </c>
+      <c r="F18" s="79">
+        <v>4.8137919979846798E-18</v>
+      </c>
+      <c r="G18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>0.349556455790973</v>
+      </c>
+      <c r="F19">
+        <v>0.72972028676733203</v>
+      </c>
+      <c r="G19" t="b">
+        <f>F19&lt;0.05</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>-2.2221621609410001</v>
+      </c>
+      <c r="F20">
+        <v>3.5952710792857202E-2</v>
+      </c>
+      <c r="G20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>-96.983270019834706</v>
+      </c>
+      <c r="F21" s="79">
+        <v>1.1922100634926601E-32</v>
+      </c>
+      <c r="G21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25">
+        <v>0.25372924677457598</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>IF(E25&lt;0.05, "Yes", "No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26">
+        <v>0.75341035855965799</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" ref="F26:F42" si="1">IF(E26&lt;0.05, "Yes", "No")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="79">
+        <v>4.8137919979846798E-18</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="79">
+        <v>3.0714612725714102E-13</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>0.68271670620649105</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>4.2880921906591899E-4</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="79">
+        <v>1.03067926866572E-11</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32">
+        <v>0.64887258439009499</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33">
+        <v>0.29951326413134899</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34">
+        <v>7.3993424288121296E-3</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="79">
+        <v>4.4238056566889001E-7</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36">
+        <v>0.48526860203996602</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="79">
+        <v>7.1735146545689301E-21</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38">
+        <v>0.67158672847322398</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="79">
+        <v>4.8137919979846798E-18</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <v>0.72972028676733203</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41">
+        <v>3.5952710792857202E-2</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="79">
+        <v>1.1922100634926601E-32</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Monash_University\Year5\Honours_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBE1BA8-A0E1-44A1-AFE9-7FE77D8AD098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456E31BE-2683-47DF-B829-DF499C01F8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
     <sheet name="New" sheetId="3" r:id="rId2"/>
     <sheet name="general data" sheetId="5" r:id="rId3"/>
     <sheet name="new_data" sheetId="6" r:id="rId4"/>
-    <sheet name="correlation_coefficients" sheetId="8" r:id="rId5"/>
-    <sheet name="t-test" sheetId="9" r:id="rId6"/>
+    <sheet name="latest_data" sheetId="10" r:id="rId5"/>
+    <sheet name="correlation_coefficients" sheetId="8" r:id="rId6"/>
+    <sheet name="t-test" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="74">
   <si>
     <t>TSN = Total number of generated samples</t>
   </si>
@@ -261,6 +262,9 @@
   <si>
     <t>Reject null hypthesis?</t>
   </si>
+  <si>
+    <t>Time</t>
+  </si>
 </sst>
 </file>
 
@@ -456,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -551,6 +555,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3781,7 +3792,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L17" sqref="L17"/>
+      <selection pane="topRight" activeCell="D11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5040,6 +5051,1478 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DC7D24-B396-4993-B282-4FF11F71EEA8}">
+  <dimension ref="A2:AE25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V10" sqref="V10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.140625" style="60"/>
+    <col min="7" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="10.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="14"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="60"/>
+    <col min="16" max="16" width="9.140625" style="14"/>
+    <col min="17" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="14"/>
+    <col min="24" max="24" width="9.140625" style="3"/>
+    <col min="25" max="25" width="9.140625" style="60"/>
+    <col min="26" max="26" width="9.140625" style="14"/>
+    <col min="27" max="28" width="9.140625" style="2"/>
+    <col min="29" max="29" width="9.140625" style="3"/>
+    <col min="30" max="30" width="10.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:31">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="80"/>
+      <c r="F2" s="14"/>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="V2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="F3" s="14"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="B4" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="77"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="77"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="77"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="77"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="81"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="78"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>43861.68</v>
+      </c>
+      <c r="C6" s="2">
+        <v>27560.12</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4.1082749177399997E-3</v>
+      </c>
+      <c r="E6" s="60">
+        <v>112.247079992</v>
+      </c>
+      <c r="F6" s="15">
+        <f>0.627764779504</f>
+        <v>0.627764779504</v>
+      </c>
+      <c r="G6" s="61">
+        <v>44746.239999999998</v>
+      </c>
+      <c r="H6" s="62">
+        <v>28439.88</v>
+      </c>
+      <c r="I6" s="82">
+        <v>4.0888118807699998E-3</v>
+      </c>
+      <c r="J6" s="63">
+        <v>114.712399969</v>
+      </c>
+      <c r="K6" s="64">
+        <f>0.635583855722</f>
+        <v>0.63558385572200005</v>
+      </c>
+      <c r="L6" s="10">
+        <v>22778.52</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5056.88</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.217891284849</v>
+      </c>
+      <c r="O6" s="60">
+        <v>6.74392003059</v>
+      </c>
+      <c r="P6" s="15">
+        <f>0.229772150746</f>
+        <v>0.22977215074599999</v>
+      </c>
+      <c r="Q6" s="61">
+        <v>14276.16</v>
+      </c>
+      <c r="R6" s="62">
+        <v>6475.72</v>
+      </c>
+      <c r="S6" s="82">
+        <v>0.66141675514800002</v>
+      </c>
+      <c r="T6" s="63">
+        <v>8.5536399841299993</v>
+      </c>
+      <c r="U6" s="64">
+        <f>0.495939083514</f>
+        <v>0.49593908351400001</v>
+      </c>
+      <c r="V6" s="10">
+        <v>75597.440000000002</v>
+      </c>
+      <c r="W6" s="4">
+        <v>42141.32</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1.04460485707496E-2</v>
+      </c>
+      <c r="Y6" s="60">
+        <v>440.16081964492798</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>0.55744297070748905</v>
+      </c>
+      <c r="AA6" s="61">
+        <v>72404.960000000006</v>
+      </c>
+      <c r="AB6" s="62">
+        <v>43416.4</v>
+      </c>
+      <c r="AC6" s="82">
+        <v>1.01703200463237E-2</v>
+      </c>
+      <c r="AD6" s="63">
+        <v>441.51804473876899</v>
+      </c>
+      <c r="AE6" s="64">
+        <v>0.59963527384809401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>47010.84</v>
+      </c>
+      <c r="C7" s="8">
+        <v>28294.880000000001</v>
+      </c>
+      <c r="D7" s="9">
+        <v>6.4714923485100005E-4</v>
+      </c>
+      <c r="E7" s="69">
+        <v>17.955279979699998</v>
+      </c>
+      <c r="F7" s="16">
+        <f>0.60183842307</f>
+        <v>0.60183842307000002</v>
+      </c>
+      <c r="G7" s="65">
+        <v>80551.12</v>
+      </c>
+      <c r="H7" s="66">
+        <v>50689.52</v>
+      </c>
+      <c r="I7" s="83">
+        <v>4.3877273659700001E-4</v>
+      </c>
+      <c r="J7" s="67">
+        <v>22.1610000324</v>
+      </c>
+      <c r="K7" s="68">
+        <f>0.629191759205</f>
+        <v>0.62919175920500003</v>
+      </c>
+      <c r="L7" s="11">
+        <v>4843.04</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1530.8</v>
+      </c>
+      <c r="N7" s="9">
+        <v>8.4274882345303906E-2</v>
+      </c>
+      <c r="O7" s="69">
+        <v>127.51400003400001</v>
+      </c>
+      <c r="P7" s="16">
+        <f>0.319777913834</f>
+        <v>0.319777913834</v>
+      </c>
+      <c r="Q7" s="65">
+        <v>3870.28</v>
+      </c>
+      <c r="R7" s="66">
+        <v>1329.32</v>
+      </c>
+      <c r="S7" s="83">
+        <v>0.34610360097600001</v>
+      </c>
+      <c r="T7" s="67">
+        <v>456.181519966</v>
+      </c>
+      <c r="U7" s="68">
+        <f>0.345052281224</f>
+        <v>0.345052281224</v>
+      </c>
+      <c r="V7" s="11">
+        <v>71535</v>
+      </c>
+      <c r="W7" s="12">
+        <v>14803.52</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1.3708259982290701E-2</v>
+      </c>
+      <c r="Y7" s="69">
+        <v>196.889799852371</v>
+      </c>
+      <c r="Z7" s="16">
+        <f>0.206990094100602</f>
+        <v>0.20699009410060201</v>
+      </c>
+      <c r="AA7" s="65">
+        <v>70674.52</v>
+      </c>
+      <c r="AB7" s="66">
+        <v>14335.04</v>
+      </c>
+      <c r="AC7" s="83">
+        <v>1.5778135649961202E-2</v>
+      </c>
+      <c r="AD7" s="67">
+        <v>204.236077661514</v>
+      </c>
+      <c r="AE7" s="68">
+        <f>0.202862373601151</f>
+        <v>0.202862373601151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="F8" s="14"/>
+      <c r="G8" s="2">
+        <f>G6-B6</f>
+        <v>884.55999999999767</v>
+      </c>
+      <c r="H8" s="2">
+        <f>H6-C6</f>
+        <v>879.76000000000204</v>
+      </c>
+      <c r="I8" s="2">
+        <f>I6-D6</f>
+        <v>-1.9463036969999924E-5</v>
+      </c>
+      <c r="J8" s="60">
+        <f>J6-E6</f>
+        <v>2.4653199770000072</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" ref="K8" si="0">K6-F6</f>
+        <v>7.8190762180000428E-3</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="Q8" s="2">
+        <f>Q6-L6</f>
+        <v>-8502.36</v>
+      </c>
+      <c r="R8" s="2">
+        <f>R6-M6</f>
+        <v>1418.8400000000001</v>
+      </c>
+      <c r="T8" s="60">
+        <f>T6-O6</f>
+        <v>1.8097199535399993</v>
+      </c>
+      <c r="U8" s="14">
+        <f>U6-P6</f>
+        <v>0.26616693276800002</v>
+      </c>
+      <c r="AA8" s="2">
+        <f>AA6-V6</f>
+        <v>-3192.4799999999959</v>
+      </c>
+      <c r="AB8" s="2">
+        <f>AB6-W6</f>
+        <v>1275.0800000000017</v>
+      </c>
+      <c r="AD8" s="60">
+        <f>AD6-Y6</f>
+        <v>1.3572250938410093</v>
+      </c>
+      <c r="AE8" s="14">
+        <f>AE6-Z6</f>
+        <v>4.2192303140604959E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="F9" s="14"/>
+      <c r="G9" s="2">
+        <f>G7-B7</f>
+        <v>33540.28</v>
+      </c>
+      <c r="H9" s="2">
+        <f>H7-C7</f>
+        <v>22394.639999999996</v>
+      </c>
+      <c r="I9" s="2">
+        <f>I7-D7</f>
+        <v>-2.0837649825400004E-4</v>
+      </c>
+      <c r="J9" s="60">
+        <f>J7-E7</f>
+        <v>4.205720052700002</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" ref="K9" si="1">K7-F7</f>
+        <v>2.7353336135000017E-2</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="Q9" s="2">
+        <f>Q7-L7</f>
+        <v>-972.75999999999976</v>
+      </c>
+      <c r="R9" s="2">
+        <f>R7-M7</f>
+        <v>-201.48000000000002</v>
+      </c>
+      <c r="T9" s="71">
+        <f>T7-O7</f>
+        <v>328.667519932</v>
+      </c>
+      <c r="U9" s="14">
+        <f>U7-P7</f>
+        <v>2.5274367389999997E-2</v>
+      </c>
+      <c r="AA9" s="2">
+        <f>AA7-V7</f>
+        <v>-860.47999999999593</v>
+      </c>
+      <c r="AB9" s="2">
+        <f>AB7-W7</f>
+        <v>-468.47999999999956</v>
+      </c>
+      <c r="AD9" s="71">
+        <f>AD7-Y7</f>
+        <v>7.3462778091430039</v>
+      </c>
+      <c r="AE9" s="70">
+        <f>AE7-Z7</f>
+        <v>-4.1277204994510097E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="F10" s="14"/>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="V10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="F11" s="14"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="B12" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="77"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="77"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="77"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="77"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="78"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE13" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>33394.44</v>
+      </c>
+      <c r="C14" s="2">
+        <v>19862.96</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.00794947949207E-2</v>
+      </c>
+      <c r="E14" s="60">
+        <v>435.56652023315399</v>
+      </c>
+      <c r="F14" s="15">
+        <f>0.595498451327</f>
+        <v>0.59549845132699997</v>
+      </c>
+      <c r="G14" s="61">
+        <v>33472.519999999997</v>
+      </c>
+      <c r="H14" s="62">
+        <v>20461.84</v>
+      </c>
+      <c r="I14" s="82">
+        <v>9.9580910894967803E-3</v>
+      </c>
+      <c r="J14" s="63">
+        <v>434.40089967727602</v>
+      </c>
+      <c r="K14" s="64">
+        <v>0.60385012711599995</v>
+      </c>
+      <c r="L14" s="10">
+        <v>6904.4</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1955.48</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.142773449454</v>
+      </c>
+      <c r="O14" s="60">
+        <v>266.66423999800003</v>
+      </c>
+      <c r="P14" s="15">
+        <f>0.280064011089</f>
+        <v>0.28006401108899998</v>
+      </c>
+      <c r="Q14" s="62">
+        <v>7652.36</v>
+      </c>
+      <c r="R14" s="62">
+        <v>2054.84</v>
+      </c>
+      <c r="S14" s="82">
+        <v>0.15315927474300001</v>
+      </c>
+      <c r="T14" s="63">
+        <v>300.55159996999998</v>
+      </c>
+      <c r="U14" s="64">
+        <f>0.266656194123</f>
+        <v>0.26665619412300001</v>
+      </c>
+      <c r="V14" s="10">
+        <v>72101.279999999999</v>
+      </c>
+      <c r="W14" s="4">
+        <v>50908.959999999999</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1.00794947949207E-2</v>
+      </c>
+      <c r="Y14" s="60">
+        <v>435.56652023315399</v>
+      </c>
+      <c r="Z14" s="15">
+        <f>0.706072237533358</f>
+        <v>0.70607223753335802</v>
+      </c>
+      <c r="AA14" s="61">
+        <v>46776.959999999999</v>
+      </c>
+      <c r="AB14" s="62">
+        <v>38239.96</v>
+      </c>
+      <c r="AC14" s="82">
+        <v>9.9580910894967803E-3</v>
+      </c>
+      <c r="AD14" s="63">
+        <v>434.40089967727602</v>
+      </c>
+      <c r="AE14" s="64">
+        <f>0.817497229632774</f>
+        <v>0.81749722963277405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7">
+        <v>256828.28</v>
+      </c>
+      <c r="C15" s="8">
+        <v>159559.20000000001</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2.8235654760299998E-3</v>
+      </c>
+      <c r="E15" s="69">
+        <v>450.58300001100002</v>
+      </c>
+      <c r="F15" s="16">
+        <f>0.621226720257</f>
+        <v>0.62122672025699999</v>
+      </c>
+      <c r="G15" s="65">
+        <v>255556.4</v>
+      </c>
+      <c r="H15" s="66">
+        <v>161164.96</v>
+      </c>
+      <c r="I15" s="83">
+        <v>2.7762807068600001E-3</v>
+      </c>
+      <c r="J15" s="67">
+        <v>447.34788001999999</v>
+      </c>
+      <c r="K15" s="68">
+        <f>0.630712779453</f>
+        <v>0.63071277945299997</v>
+      </c>
+      <c r="L15" s="11">
+        <v>13233.72</v>
+      </c>
+      <c r="M15" s="12">
+        <v>6834.08</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.26817115436900002</v>
+      </c>
+      <c r="O15" s="69">
+        <v>1788.57847999</v>
+      </c>
+      <c r="P15" s="16">
+        <f>0.517111316142</f>
+        <v>0.51711131614200001</v>
+      </c>
+      <c r="Q15" s="65">
+        <v>13120.2</v>
+      </c>
+      <c r="R15" s="66">
+        <v>6724.76</v>
+      </c>
+      <c r="S15" s="83">
+        <v>0.253251056463</v>
+      </c>
+      <c r="T15" s="67">
+        <v>1686.6924800199999</v>
+      </c>
+      <c r="U15" s="68">
+        <f>0.513583558135</f>
+        <v>0.51358355813500001</v>
+      </c>
+      <c r="V15" s="11">
+        <v>75500.52</v>
+      </c>
+      <c r="W15" s="12">
+        <v>43218.400000000001</v>
+      </c>
+      <c r="X15" s="9">
+        <v>8.5186578901613602E-3</v>
+      </c>
+      <c r="Y15" s="69">
+        <v>433.70486718177699</v>
+      </c>
+      <c r="Z15" s="16">
+        <f>0.572422652346015</f>
+        <v>0.57242265234601497</v>
+      </c>
+      <c r="AA15" s="65">
+        <v>72237.16</v>
+      </c>
+      <c r="AB15" s="66">
+        <v>43623.72</v>
+      </c>
+      <c r="AC15" s="83">
+        <v>1.1335646942011101E-2</v>
+      </c>
+      <c r="AD15" s="67">
+        <v>433.45899882316502</v>
+      </c>
+      <c r="AE15" s="68">
+        <f>0.603897120911155</f>
+        <v>0.60389712091115499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="F16" s="14"/>
+      <c r="G16" s="2">
+        <f>G14-B14</f>
+        <v>78.07999999999447</v>
+      </c>
+      <c r="H16" s="84">
+        <f>H14-C14</f>
+        <v>598.88000000000102</v>
+      </c>
+      <c r="I16" s="84">
+        <f t="shared" ref="I16:I17" si="2">I14-D14</f>
+        <v>-1.2140370542391976E-4</v>
+      </c>
+      <c r="J16" s="60">
+        <f>J14-E14</f>
+        <v>-1.1656205558779789</v>
+      </c>
+      <c r="K16" s="14">
+        <f>K14-F14</f>
+        <v>8.3516757889999793E-3</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="Q16" s="2">
+        <f>Q14-L14</f>
+        <v>747.96</v>
+      </c>
+      <c r="R16" s="2">
+        <f>R14-M14</f>
+        <v>99.360000000000127</v>
+      </c>
+      <c r="T16" s="60">
+        <f>T14-O14</f>
+        <v>33.887359971999956</v>
+      </c>
+      <c r="U16" s="70">
+        <f>U14-P14</f>
+        <v>-1.3407816965999964E-2</v>
+      </c>
+      <c r="AA16" s="2">
+        <f>AA14-V14</f>
+        <v>-25324.32</v>
+      </c>
+      <c r="AB16" s="2">
+        <f>AB14-W14</f>
+        <v>-12669</v>
+      </c>
+      <c r="AD16" s="60">
+        <f>AD14-Y14</f>
+        <v>-1.1656205558779789</v>
+      </c>
+      <c r="AE16" s="14">
+        <f>AE14-Z14</f>
+        <v>0.11142499209941603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="F17" s="14"/>
+      <c r="G17" s="2">
+        <f>G15-B15</f>
+        <v>-1271.8800000000047</v>
+      </c>
+      <c r="H17" s="84">
+        <f>H15-C15</f>
+        <v>1605.7599999999802</v>
+      </c>
+      <c r="I17" s="84">
+        <f t="shared" si="2"/>
+        <v>-4.7284769169999696E-5</v>
+      </c>
+      <c r="J17" s="60">
+        <f>J15-E15</f>
+        <v>-3.2351199910000332</v>
+      </c>
+      <c r="K17" s="14">
+        <f>K15-F15</f>
+        <v>9.4860591959999851E-3</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="Q17" s="2">
+        <f>Q15-L15</f>
+        <v>-113.51999999999862</v>
+      </c>
+      <c r="R17" s="2">
+        <f>R15-M15</f>
+        <v>-109.31999999999971</v>
+      </c>
+      <c r="T17" s="71">
+        <f>T15-O15</f>
+        <v>-101.88599997000006</v>
+      </c>
+      <c r="U17" s="70">
+        <f>U15-P15</f>
+        <v>-3.5277580070000036E-3</v>
+      </c>
+      <c r="AA17" s="2">
+        <f>AA15-V15</f>
+        <v>-3263.3600000000006</v>
+      </c>
+      <c r="AB17" s="2">
+        <f>AB15-W15</f>
+        <v>405.31999999999971</v>
+      </c>
+      <c r="AD17" s="60">
+        <f>AD15-Y15</f>
+        <v>-0.24586835861197187</v>
+      </c>
+      <c r="AE17" s="14">
+        <f>AE15-Z15</f>
+        <v>3.1474468565140024E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="80"/>
+      <c r="F18" s="14"/>
+      <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="V18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="F19" s="14"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="B20" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="77"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="77"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="77"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="77"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="77"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="78"/>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD21" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE21" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1939.52</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1254.28</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.37152060365E-3</v>
+      </c>
+      <c r="E22" s="60">
+        <v>4.0217199611699996</v>
+      </c>
+      <c r="F22" s="15">
+        <f>0.412818978501</f>
+        <v>0.41281897850100002</v>
+      </c>
+      <c r="G22" s="61">
+        <v>2660.24</v>
+      </c>
+      <c r="H22" s="62">
+        <v>1850.8</v>
+      </c>
+      <c r="I22" s="82">
+        <v>1.3221012618700001E-3</v>
+      </c>
+      <c r="J22" s="63">
+        <v>3.5277999687200001</v>
+      </c>
+      <c r="K22" s="64">
+        <f>0.457858631304</f>
+        <v>0.45785863130400001</v>
+      </c>
+      <c r="L22" s="10">
+        <v>1788.56</v>
+      </c>
+      <c r="M22" s="4">
+        <v>383.36</v>
+      </c>
+      <c r="N22">
+        <v>1.8658029371758499E-2</v>
+      </c>
+      <c r="O22" s="60">
+        <v>6.74392003059</v>
+      </c>
+      <c r="P22" s="15">
+        <f>0.117365546056</f>
+        <v>0.117365546056</v>
+      </c>
+      <c r="Q22" s="61">
+        <v>2361.4</v>
+      </c>
+      <c r="R22" s="62">
+        <v>394.84</v>
+      </c>
+      <c r="S22" s="82">
+        <v>3.05458604952944E-2</v>
+      </c>
+      <c r="T22" s="63">
+        <v>8.5536399841299993</v>
+      </c>
+      <c r="U22" s="64">
+        <f>0.133845483353</f>
+        <v>0.13384548335300001</v>
+      </c>
+      <c r="V22" s="10">
+        <v>75640.639999999999</v>
+      </c>
+      <c r="W22" s="4">
+        <v>50279.44</v>
+      </c>
+      <c r="X22" s="3">
+        <v>9.0999720581259305E-4</v>
+      </c>
+      <c r="Y22" s="60">
+        <v>45.724359817504798</v>
+      </c>
+      <c r="Z22" s="15">
+        <f>0.664719285726297</f>
+        <v>0.66471928572629702</v>
+      </c>
+      <c r="AA22" s="61">
+        <v>72349.759999999995</v>
+      </c>
+      <c r="AB22" s="62">
+        <v>48301.440000000002</v>
+      </c>
+      <c r="AC22" s="82">
+        <v>9.3614011579710597E-4</v>
+      </c>
+      <c r="AD22" s="63">
+        <v>45.114759931564301</v>
+      </c>
+      <c r="AE22" s="64">
+        <f>0.667614675138628</f>
+        <v>0.66761467513862804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="7">
+        <v>65731.759999999995</v>
+      </c>
+      <c r="C23" s="8">
+        <v>42733</v>
+      </c>
+      <c r="D23" s="9">
+        <v>3.41266998576E-4</v>
+      </c>
+      <c r="E23" s="69">
+        <v>14.4680799961</v>
+      </c>
+      <c r="F23" s="16">
+        <f>0.649367174249</f>
+        <v>0.64936717424900003</v>
+      </c>
+      <c r="G23" s="65">
+        <v>65878.28</v>
+      </c>
+      <c r="H23" s="66">
+        <v>42978.879999999997</v>
+      </c>
+      <c r="I23" s="83">
+        <v>3.3760500982900002E-4</v>
+      </c>
+      <c r="J23" s="67">
+        <v>14.3954400158</v>
+      </c>
+      <c r="K23" s="68">
+        <f>0.651995258419</f>
+        <v>0.65199525841899997</v>
+      </c>
+      <c r="L23" s="11">
+        <v>55759.76</v>
+      </c>
+      <c r="M23" s="12">
+        <v>5086.16</v>
+      </c>
+      <c r="N23" s="9">
+        <v>3.7332598489539001E-2</v>
+      </c>
+      <c r="O23" s="69">
+        <v>181.28955995600001</v>
+      </c>
+      <c r="P23" s="16">
+        <f>0.0941569205377</f>
+        <v>9.4156920537700001E-2</v>
+      </c>
+      <c r="Q23" s="65">
+        <v>49437.48</v>
+      </c>
+      <c r="R23" s="66">
+        <v>8438.16</v>
+      </c>
+      <c r="S23" s="83">
+        <v>5.2383032633299999E-2</v>
+      </c>
+      <c r="T23" s="67">
+        <v>410.138880024</v>
+      </c>
+      <c r="U23" s="68">
+        <f>0.175672981217</f>
+        <v>0.17567298121700001</v>
+      </c>
+      <c r="V23" s="11">
+        <v>72151.28</v>
+      </c>
+      <c r="W23" s="12">
+        <v>49929.2</v>
+      </c>
+      <c r="X23" s="9">
+        <v>6.5100253153404499E-4</v>
+      </c>
+      <c r="Y23" s="69">
+        <v>32.503294029235803</v>
+      </c>
+      <c r="Z23" s="16">
+        <f>0.692010424836777</f>
+        <v>0.69201042483677699</v>
+      </c>
+      <c r="AA23" s="65">
+        <v>68850.64</v>
+      </c>
+      <c r="AB23" s="66">
+        <v>47900.56</v>
+      </c>
+      <c r="AC23" s="83">
+        <v>6.1632317997577203E-4</v>
+      </c>
+      <c r="AD23" s="67">
+        <v>29.520818271636902</v>
+      </c>
+      <c r="AE23" s="68">
+        <f>0.695717701367691</f>
+        <v>0.69571770136769095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="G24" s="2">
+        <f>G22-B22</f>
+        <v>720.7199999999998</v>
+      </c>
+      <c r="H24" s="2">
+        <f>H22-C22</f>
+        <v>596.52</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" ref="I24:I25" si="3">I22-D22</f>
+        <v>-4.94193417799999E-5</v>
+      </c>
+      <c r="J24" s="60">
+        <f>J22-E22</f>
+        <v>-0.49391999244999951</v>
+      </c>
+      <c r="K24" s="14">
+        <f>K22-F22</f>
+        <v>4.5039652802999985E-2</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>Q22-L22</f>
+        <v>572.84000000000015</v>
+      </c>
+      <c r="R24" s="2">
+        <f>R22-M22</f>
+        <v>11.479999999999961</v>
+      </c>
+      <c r="T24" s="60">
+        <f>T22-O22</f>
+        <v>1.8097199535399993</v>
+      </c>
+      <c r="U24" s="14">
+        <f>U22-P22</f>
+        <v>1.6479937297000008E-2</v>
+      </c>
+      <c r="AA24" s="2">
+        <f>AA22-V22</f>
+        <v>-3290.8800000000047</v>
+      </c>
+      <c r="AB24" s="2">
+        <f>AB22-W22</f>
+        <v>-1978</v>
+      </c>
+      <c r="AD24" s="60">
+        <f>AD22-Y22</f>
+        <v>-0.60959988594049719</v>
+      </c>
+      <c r="AE24" s="14">
+        <f>AE22-Z22</f>
+        <v>2.8953894123310286E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="G25" s="2">
+        <f>G23-B23</f>
+        <v>146.52000000000407</v>
+      </c>
+      <c r="H25" s="2">
+        <f>H23-C23</f>
+        <v>245.87999999999738</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>-3.6619887469999828E-6</v>
+      </c>
+      <c r="J25" s="60">
+        <f>J23-E23</f>
+        <v>-7.2639980299999962E-2</v>
+      </c>
+      <c r="K25" s="14">
+        <f>K23-F23</f>
+        <v>2.6280841699999336E-3</v>
+      </c>
+      <c r="Q25" s="2">
+        <f>Q23-L23</f>
+        <v>-6322.2799999999988</v>
+      </c>
+      <c r="R25" s="2">
+        <f>R23-M23</f>
+        <v>3352</v>
+      </c>
+      <c r="T25" s="71">
+        <f>T23-O23</f>
+        <v>228.849320068</v>
+      </c>
+      <c r="U25" s="14">
+        <f>U23-P23</f>
+        <v>8.1516060679300006E-2</v>
+      </c>
+      <c r="AA25" s="2">
+        <f>AA23-V23</f>
+        <v>-3300.6399999999994</v>
+      </c>
+      <c r="AB25" s="2">
+        <f>AB23-W23</f>
+        <v>-2028.6399999999994</v>
+      </c>
+      <c r="AD25" s="60">
+        <f>AD23-Y23</f>
+        <v>-2.9824757575989018</v>
+      </c>
+      <c r="AE25" s="70">
+        <f t="shared" ref="AE25" si="4">AE23-Z23</f>
+        <v>3.707276530913961E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="V20:Z20"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="V12:Z12"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="AA4:AE4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8137F2D2-9415-4E0A-902C-EE90A5695E2E}">
   <dimension ref="A3:K39"/>
   <sheetViews>
@@ -6069,11 +7552,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95DB78E-C3C9-4D84-AB69-47409FDD14D6}">
   <dimension ref="B3:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Monash_University\Year5\Honours_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456E31BE-2683-47DF-B829-DF499C01F8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7897E318-15D4-46F1-BF46-D6CA28AA1C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="t-test" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="79">
   <si>
     <t>TSN = Total number of generated samples</t>
   </si>
@@ -257,13 +258,28 @@
     <t>Reject Null Hypothesis</t>
   </si>
   <si>
-    <t>P-value</t>
+    <t>Time</t>
   </si>
   <si>
-    <t>Reject null hypthesis?</t>
+    <t>SUR P-value</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Time P-Value</t>
+  </si>
+  <si>
+    <t>Reject Time Null</t>
+  </si>
+  <si>
+    <t>Reject SUR Null</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Combined Results</t>
   </si>
 </sst>
 </file>
@@ -460,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -536,6 +552,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,14 +574,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,30 +962,30 @@
       </c>
     </row>
     <row r="14" spans="2:19">
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="73" t="s">
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="73" t="s">
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="73" t="s">
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="75"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="79"/>
     </row>
     <row r="15" spans="2:19">
       <c r="D15" s="5" t="s">
@@ -1128,30 +1143,30 @@
       </c>
     </row>
     <row r="22" spans="3:19">
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="73" t="s">
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="73" t="s">
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="73" t="s">
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="75"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="79"/>
     </row>
     <row r="23" spans="3:19">
       <c r="D23" s="5" t="s">
@@ -1300,30 +1315,30 @@
       </c>
     </row>
     <row r="30" spans="3:19">
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="73" t="s">
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="73" t="s">
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="73" t="s">
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="75"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="79"/>
     </row>
     <row r="31" spans="3:19">
       <c r="D31" s="5" t="s">
@@ -1543,42 +1558,42 @@
       <c r="R3" s="14"/>
     </row>
     <row r="4" spans="2:26">
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="73" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="73" t="s">
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="73" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="73" t="s">
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="73" t="s">
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="75"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="79"/>
     </row>
     <row r="5" spans="2:26">
       <c r="B5" s="33" t="s">
@@ -1869,42 +1884,42 @@
       <c r="R11" s="14"/>
     </row>
     <row r="12" spans="2:26">
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="73" t="s">
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="73" t="s">
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="73" t="s">
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="73" t="s">
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="73" t="s">
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="75"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="79"/>
     </row>
     <row r="13" spans="2:26">
       <c r="B13" s="33" t="s">
@@ -2196,42 +2211,42 @@
       <c r="R19" s="14"/>
     </row>
     <row r="20" spans="2:26">
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="73" t="s">
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="73" t="s">
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="73" t="s">
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="73" t="s">
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="73" t="s">
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="75"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="79"/>
     </row>
     <row r="21" spans="2:26">
       <c r="B21" s="33" t="s">
@@ -2492,11 +2507,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="K20:N20"/>
@@ -2510,6 +2520,11 @@
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="O12:R12"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2563,42 +2578,42 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="73" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="73" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="73" t="s">
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="76" t="s">
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="76" t="s">
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="78"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="82"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="33" t="s">
@@ -2970,42 +2985,42 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="73" t="s">
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="73" t="s">
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="73" t="s">
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="76" t="s">
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="76" t="s">
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="78"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="82"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="33" t="s">
@@ -3378,42 +3393,42 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:25">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="73" t="s">
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="73" t="s">
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="73" t="s">
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="76" t="s">
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="76" t="s">
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="78"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="82"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="33" t="s">
@@ -3763,12 +3778,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
     <mergeCell ref="V20:Y20"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
@@ -3781,6 +3790,12 @@
     <mergeCell ref="J20:M20"/>
     <mergeCell ref="N20:Q20"/>
     <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3838,42 +3853,42 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="76" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="76" t="s">
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="76" t="s">
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="76" t="s">
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="76" t="s">
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="78"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="82"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="33" t="s">
@@ -4241,42 +4256,42 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="76" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="76" t="s">
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="76" t="s">
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="76" t="s">
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="76" t="s">
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="78"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="82"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="33" t="s">
@@ -4645,42 +4660,42 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:25">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="76" t="s">
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="76" t="s">
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="76" t="s">
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="76" t="s">
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="76" t="s">
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="78"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="82"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="33" t="s">
@@ -5027,6 +5042,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="V20:Y20"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
@@ -5039,12 +5060,6 @@
     <mergeCell ref="J20:M20"/>
     <mergeCell ref="N20:Q20"/>
     <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5054,7 +5069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DC7D24-B396-4993-B282-4FF11F71EEA8}">
   <dimension ref="A2:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="V10" sqref="V10"/>
     </sheetView>
@@ -5088,7 +5103,7 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="80"/>
+      <c r="D2" s="74"/>
       <c r="F2" s="14"/>
       <c r="L2" t="s">
         <v>22</v>
@@ -5104,48 +5119,48 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:31">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="76" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="76" t="s">
+      <c r="H4" s="81"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="77"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="76" t="s">
+      <c r="M4" s="81"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="77"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="76" t="s">
+      <c r="R4" s="81"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="77"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="76" t="s">
+      <c r="W4" s="81"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="78"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="81"/>
+      <c r="AE4" s="82"/>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="33" t="s">
@@ -5161,7 +5176,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>8</v>
@@ -5176,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>8</v>
@@ -5191,7 +5206,7 @@
         <v>7</v>
       </c>
       <c r="O5" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>8</v>
@@ -5206,7 +5221,7 @@
         <v>7</v>
       </c>
       <c r="T5" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>8</v>
@@ -5221,7 +5236,7 @@
         <v>7</v>
       </c>
       <c r="Y5" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z5" s="15" t="s">
         <v>8</v>
@@ -5236,7 +5251,7 @@
         <v>7</v>
       </c>
       <c r="AD5" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE5" s="15" t="s">
         <v>8</v>
@@ -5268,7 +5283,7 @@
       <c r="H6" s="62">
         <v>28439.88</v>
       </c>
-      <c r="I6" s="82">
+      <c r="I6" s="75">
         <v>4.0888118807699998E-3</v>
       </c>
       <c r="J6" s="63">
@@ -5300,7 +5315,7 @@
       <c r="R6" s="62">
         <v>6475.72</v>
       </c>
-      <c r="S6" s="82">
+      <c r="S6" s="75">
         <v>0.66141675514800002</v>
       </c>
       <c r="T6" s="63">
@@ -5331,7 +5346,7 @@
       <c r="AB6" s="62">
         <v>43416.4</v>
       </c>
-      <c r="AC6" s="82">
+      <c r="AC6" s="75">
         <v>1.01703200463237E-2</v>
       </c>
       <c r="AD6" s="63">
@@ -5367,7 +5382,7 @@
       <c r="H7" s="66">
         <v>50689.52</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="76">
         <v>4.3877273659700001E-4</v>
       </c>
       <c r="J7" s="67">
@@ -5399,7 +5414,7 @@
       <c r="R7" s="66">
         <v>1329.32</v>
       </c>
-      <c r="S7" s="83">
+      <c r="S7" s="76">
         <v>0.34610360097600001</v>
       </c>
       <c r="T7" s="67">
@@ -5431,7 +5446,7 @@
       <c r="AB7" s="66">
         <v>14335.04</v>
       </c>
-      <c r="AC7" s="83">
+      <c r="AC7" s="76">
         <v>1.5778135649961202E-2</v>
       </c>
       <c r="AD7" s="67">
@@ -5445,23 +5460,23 @@
     <row r="8" spans="1:31">
       <c r="F8" s="14"/>
       <c r="G8" s="2">
-        <f>G6-B6</f>
+        <f t="shared" ref="G8:J9" si="0">G6-B6</f>
         <v>884.55999999999767</v>
       </c>
       <c r="H8" s="2">
-        <f>H6-C6</f>
+        <f t="shared" si="0"/>
         <v>879.76000000000204</v>
       </c>
       <c r="I8" s="2">
-        <f>I6-D6</f>
+        <f t="shared" si="0"/>
         <v>-1.9463036969999924E-5</v>
       </c>
       <c r="J8" s="60">
-        <f>J6-E6</f>
+        <f t="shared" si="0"/>
         <v>2.4653199770000072</v>
       </c>
       <c r="K8" s="14">
-        <f t="shared" ref="K8" si="0">K6-F6</f>
+        <f t="shared" ref="K8" si="1">K6-F6</f>
         <v>7.8190762180000428E-3</v>
       </c>
       <c r="L8" s="4"/>
@@ -5502,23 +5517,23 @@
     <row r="9" spans="1:31">
       <c r="F9" s="14"/>
       <c r="G9" s="2">
-        <f>G7-B7</f>
+        <f t="shared" si="0"/>
         <v>33540.28</v>
       </c>
       <c r="H9" s="2">
-        <f>H7-C7</f>
+        <f t="shared" si="0"/>
         <v>22394.639999999996</v>
       </c>
       <c r="I9" s="2">
-        <f>I7-D7</f>
+        <f t="shared" si="0"/>
         <v>-2.0837649825400004E-4</v>
       </c>
       <c r="J9" s="60">
-        <f>J7-E7</f>
+        <f t="shared" si="0"/>
         <v>4.205720052700002</v>
       </c>
       <c r="K9" s="14">
-        <f t="shared" ref="K9" si="1">K7-F7</f>
+        <f t="shared" ref="K9" si="2">K7-F7</f>
         <v>2.7353336135000017E-2</v>
       </c>
       <c r="L9" s="4"/>
@@ -5560,7 +5575,7 @@
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="80"/>
+      <c r="D10" s="74"/>
       <c r="F10" s="14"/>
       <c r="L10" t="s">
         <v>23</v>
@@ -5576,48 +5591,48 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:31">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="76" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="76" t="s">
+      <c r="H12" s="81"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="77"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="76" t="s">
+      <c r="M12" s="81"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="R12" s="77"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="76" t="s">
+      <c r="R12" s="81"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="W12" s="77"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="76" t="s">
+      <c r="W12" s="81"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="78"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="82"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="33" t="s">
@@ -5633,7 +5648,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>8</v>
@@ -5648,7 +5663,7 @@
         <v>7</v>
       </c>
       <c r="J13" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>8</v>
@@ -5663,7 +5678,7 @@
         <v>7</v>
       </c>
       <c r="O13" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>8</v>
@@ -5678,7 +5693,7 @@
         <v>7</v>
       </c>
       <c r="T13" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U13" s="15" t="s">
         <v>8</v>
@@ -5693,7 +5708,7 @@
         <v>7</v>
       </c>
       <c r="Y13" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z13" s="15" t="s">
         <v>8</v>
@@ -5708,7 +5723,7 @@
         <v>7</v>
       </c>
       <c r="AD13" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE13" s="15" t="s">
         <v>8</v>
@@ -5740,7 +5755,7 @@
       <c r="H14" s="62">
         <v>20461.84</v>
       </c>
-      <c r="I14" s="82">
+      <c r="I14" s="75">
         <v>9.9580910894967803E-3</v>
       </c>
       <c r="J14" s="63">
@@ -5771,7 +5786,7 @@
       <c r="R14" s="62">
         <v>2054.84</v>
       </c>
-      <c r="S14" s="82">
+      <c r="S14" s="75">
         <v>0.15315927474300001</v>
       </c>
       <c r="T14" s="63">
@@ -5803,7 +5818,7 @@
       <c r="AB14" s="62">
         <v>38239.96</v>
       </c>
-      <c r="AC14" s="82">
+      <c r="AC14" s="75">
         <v>9.9580910894967803E-3</v>
       </c>
       <c r="AD14" s="63">
@@ -5840,7 +5855,7 @@
       <c r="H15" s="66">
         <v>161164.96</v>
       </c>
-      <c r="I15" s="83">
+      <c r="I15" s="76">
         <v>2.7762807068600001E-3</v>
       </c>
       <c r="J15" s="67">
@@ -5872,7 +5887,7 @@
       <c r="R15" s="66">
         <v>6724.76</v>
       </c>
-      <c r="S15" s="83">
+      <c r="S15" s="76">
         <v>0.253251056463</v>
       </c>
       <c r="T15" s="67">
@@ -5904,7 +5919,7 @@
       <c r="AB15" s="66">
         <v>43623.72</v>
       </c>
-      <c r="AC15" s="83">
+      <c r="AC15" s="76">
         <v>1.1335646942011101E-2</v>
       </c>
       <c r="AD15" s="67">
@@ -5921,12 +5936,12 @@
         <f>G14-B14</f>
         <v>78.07999999999447</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="2">
         <f>H14-C14</f>
         <v>598.88000000000102</v>
       </c>
-      <c r="I16" s="84">
-        <f t="shared" ref="I16:I17" si="2">I14-D14</f>
+      <c r="I16" s="2">
+        <f t="shared" ref="I16:I17" si="3">I14-D14</f>
         <v>-1.2140370542391976E-4</v>
       </c>
       <c r="J16" s="60">
@@ -5978,12 +5993,12 @@
         <f>G15-B15</f>
         <v>-1271.8800000000047</v>
       </c>
-      <c r="H17" s="84">
+      <c r="H17" s="2">
         <f>H15-C15</f>
         <v>1605.7599999999802</v>
       </c>
-      <c r="I17" s="84">
-        <f t="shared" si="2"/>
+      <c r="I17" s="2">
+        <f t="shared" si="3"/>
         <v>-4.7284769169999696E-5</v>
       </c>
       <c r="J17" s="60">
@@ -6033,7 +6048,7 @@
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="80"/>
+      <c r="D18" s="74"/>
       <c r="F18" s="14"/>
       <c r="L18" t="s">
         <v>24</v>
@@ -6049,48 +6064,48 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="76" t="s">
+      <c r="C20" s="81"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="76" t="s">
+      <c r="H20" s="81"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="M20" s="77"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="76" t="s">
+      <c r="M20" s="81"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="R20" s="77"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="76" t="s">
+      <c r="R20" s="81"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="W20" s="77"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="76" t="s">
+      <c r="W20" s="81"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="78"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="82"/>
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="33" t="s">
@@ -6106,7 +6121,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>8</v>
@@ -6121,7 +6136,7 @@
         <v>7</v>
       </c>
       <c r="J21" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>8</v>
@@ -6136,7 +6151,7 @@
         <v>7</v>
       </c>
       <c r="O21" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>8</v>
@@ -6151,7 +6166,7 @@
         <v>7</v>
       </c>
       <c r="T21" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U21" s="15" t="s">
         <v>8</v>
@@ -6166,7 +6181,7 @@
         <v>7</v>
       </c>
       <c r="Y21" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z21" s="15" t="s">
         <v>8</v>
@@ -6181,7 +6196,7 @@
         <v>7</v>
       </c>
       <c r="AD21" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE21" s="15" t="s">
         <v>8</v>
@@ -6213,7 +6228,7 @@
       <c r="H22" s="62">
         <v>1850.8</v>
       </c>
-      <c r="I22" s="82">
+      <c r="I22" s="75">
         <v>1.3221012618700001E-3</v>
       </c>
       <c r="J22" s="63">
@@ -6245,7 +6260,7 @@
       <c r="R22" s="62">
         <v>394.84</v>
       </c>
-      <c r="S22" s="82">
+      <c r="S22" s="75">
         <v>3.05458604952944E-2</v>
       </c>
       <c r="T22" s="63">
@@ -6277,7 +6292,7 @@
       <c r="AB22" s="62">
         <v>48301.440000000002</v>
       </c>
-      <c r="AC22" s="82">
+      <c r="AC22" s="75">
         <v>9.3614011579710597E-4</v>
       </c>
       <c r="AD22" s="63">
@@ -6314,7 +6329,7 @@
       <c r="H23" s="66">
         <v>42978.879999999997</v>
       </c>
-      <c r="I23" s="83">
+      <c r="I23" s="76">
         <v>3.3760500982900002E-4</v>
       </c>
       <c r="J23" s="67">
@@ -6346,7 +6361,7 @@
       <c r="R23" s="66">
         <v>8438.16</v>
       </c>
-      <c r="S23" s="83">
+      <c r="S23" s="76">
         <v>5.2383032633299999E-2</v>
       </c>
       <c r="T23" s="67">
@@ -6378,7 +6393,7 @@
       <c r="AB23" s="66">
         <v>47900.56</v>
       </c>
-      <c r="AC23" s="83">
+      <c r="AC23" s="76">
         <v>6.1632317997577203E-4</v>
       </c>
       <c r="AD23" s="67">
@@ -6399,7 +6414,7 @@
         <v>596.52</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" ref="I24:I25" si="3">I22-D22</f>
+        <f t="shared" ref="I24:I25" si="4">I22-D22</f>
         <v>-4.94193417799999E-5</v>
       </c>
       <c r="J24" s="60">
@@ -6453,7 +6468,7 @@
         <v>245.87999999999738</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.6619887469999828E-6</v>
       </c>
       <c r="J25" s="60">
@@ -6493,17 +6508,18 @@
         <v>-2.9824757575989018</v>
       </c>
       <c r="AE25" s="70">
-        <f t="shared" ref="AE25" si="4">AE23-Z23</f>
+        <f t="shared" ref="AE25" si="5">AE23-Z23</f>
         <v>3.707276530913961E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="V20:Z20"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:Z4"/>
     <mergeCell ref="AA20:AE20"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:K12"/>
@@ -6511,12 +6527,11 @@
     <mergeCell ref="Q12:U12"/>
     <mergeCell ref="V12:Z12"/>
     <mergeCell ref="AA12:AE12"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="V20:Z20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7554,10 +7569,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95DB78E-C3C9-4D84-AB69-47409FDD14D6}">
-  <dimension ref="B3:G42"/>
+  <dimension ref="B3:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H26" sqref="B24:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7566,8 +7581,10 @@
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
@@ -7645,7 +7662,7 @@
       <c r="E6">
         <v>-23.426223312313699</v>
       </c>
-      <c r="F6" s="79">
+      <c r="F6" s="73">
         <v>4.8137919979846798E-18</v>
       </c>
       <c r="G6" t="b">
@@ -7666,7 +7683,7 @@
       <c r="E7">
         <v>-14.297332990836001</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="73">
         <v>3.0714612725714102E-13</v>
       </c>
       <c r="G7" t="b">
@@ -7729,7 +7746,7 @@
       <c r="E10">
         <v>-12.112149888197999</v>
       </c>
-      <c r="F10" s="79">
+      <c r="F10" s="73">
         <v>1.03067926866572E-11</v>
       </c>
       <c r="G10" t="b">
@@ -7813,7 +7830,7 @@
       <c r="E14">
         <v>-6.8462529407336197</v>
       </c>
-      <c r="F14" s="79">
+      <c r="F14" s="73">
         <v>4.4238056566889001E-7</v>
       </c>
       <c r="G14" t="b">
@@ -7855,7 +7872,7 @@
       <c r="E16">
         <v>-30.993361936174601</v>
       </c>
-      <c r="F16" s="79">
+      <c r="F16" s="73">
         <v>7.1735146545689301E-21</v>
       </c>
       <c r="G16" t="b">
@@ -7863,7 +7880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:9">
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -7884,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:9">
       <c r="B18" t="s">
         <v>18</v>
       </c>
@@ -7897,7 +7914,7 @@
       <c r="E18">
         <v>-23.426223312313699</v>
       </c>
-      <c r="F18" s="79">
+      <c r="F18" s="73">
         <v>4.8137919979846798E-18</v>
       </c>
       <c r="G18" t="b">
@@ -7905,7 +7922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:9">
       <c r="B19" t="s">
         <v>18</v>
       </c>
@@ -7926,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:9">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -7947,7 +7964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:9">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -7960,7 +7977,7 @@
       <c r="E21">
         <v>-96.983270019834706</v>
       </c>
-      <c r="F21" s="79">
+      <c r="F21" s="73">
         <v>1.1922100634926601E-32</v>
       </c>
       <c r="G21" t="b">
@@ -7968,7 +7985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:9">
       <c r="B24" t="s">
         <v>66</v>
       </c>
@@ -7979,13 +7996,22 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -7998,12 +8024,22 @@
       <c r="E25">
         <v>0.25372924677457598</v>
       </c>
-      <c r="F25" s="1" t="str">
-        <f>IF(E25&lt;0.05, "Yes", "No")</f>
+      <c r="F25">
+        <v>0.572209586790842</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" ref="G25:G42" si="1">IF(E25&lt;0.05, "Yes", "No")</f>
         <v>No</v>
       </c>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="H25" s="1" t="str">
+        <f t="shared" ref="H25:H42" si="2">IF(F25&lt;0.05, "Yes", "No")</f>
+        <v>No</v>
+      </c>
+      <c r="I25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" t="s">
         <v>4</v>
       </c>
@@ -8016,12 +8052,22 @@
       <c r="E26">
         <v>0.75341035855965799</v>
       </c>
-      <c r="F26" s="1" t="str">
-        <f t="shared" ref="F26:F42" si="1">IF(E26&lt;0.05, "Yes", "No")</f>
+      <c r="F26" s="73">
+        <v>2.07973885106272E-9</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -8031,15 +8077,25 @@
       <c r="D27" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="79">
+      <c r="E27" s="73">
         <v>4.8137919979846798E-18</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27" s="73">
+        <v>2.4419157037155599E-5</v>
+      </c>
+      <c r="G27" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="I27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" t="s">
         <v>4</v>
       </c>
@@ -8049,15 +8105,25 @@
       <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="79">
+      <c r="E28" s="73">
         <v>3.0714612725714102E-13</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F28" s="73">
+        <v>1.1707636440496301E-5</v>
+      </c>
+      <c r="G28" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="I28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" t="s">
         <v>4</v>
       </c>
@@ -8070,12 +8136,22 @@
       <c r="E29">
         <v>0.68271670620649105</v>
       </c>
-      <c r="F29" s="1" t="str">
+      <c r="F29">
+        <v>0.86723836461891901</v>
+      </c>
+      <c r="G29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="I29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" t="s">
         <v>4</v>
       </c>
@@ -8088,12 +8164,22 @@
       <c r="E30">
         <v>4.2880921906591899E-4</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30">
+        <v>0.65627091705812801</v>
+      </c>
+      <c r="G30" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="I30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" t="s">
         <v>14</v>
       </c>
@@ -8103,15 +8189,25 @@
       <c r="D31" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="79">
+      <c r="E31" s="73">
         <v>1.03067926866572E-11</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F31" s="73">
+        <v>1.02054324171284E-21</v>
+      </c>
+      <c r="G31" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="32" spans="2:7">
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="I31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" t="s">
         <v>14</v>
       </c>
@@ -8124,12 +8220,22 @@
       <c r="E32">
         <v>0.64887258439009499</v>
       </c>
-      <c r="F32" s="1" t="str">
+      <c r="F32">
+        <v>0.165678432033633</v>
+      </c>
+      <c r="G32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="I32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" t="s">
         <v>14</v>
       </c>
@@ -8142,12 +8248,22 @@
       <c r="E33">
         <v>0.29951326413134899</v>
       </c>
-      <c r="F33" s="1" t="str">
+      <c r="F33">
+        <v>1.7188758797908502E-2</v>
+      </c>
+      <c r="G33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="I33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" t="s">
         <v>14</v>
       </c>
@@ -8160,12 +8276,22 @@
       <c r="E34">
         <v>7.3993424288121296E-3</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F34" s="73">
+        <v>1.2876378866076E-19</v>
+      </c>
+      <c r="G34" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="I34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -8175,15 +8301,25 @@
       <c r="D35" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="79">
+      <c r="E35" s="73">
         <v>4.4238056566889001E-7</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F35" s="73">
+        <v>7.3733241807256095E-18</v>
+      </c>
+      <c r="G35" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="36" spans="2:6">
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="I35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" t="s">
         <v>14</v>
       </c>
@@ -8196,12 +8332,22 @@
       <c r="E36">
         <v>0.48526860203996602</v>
       </c>
-      <c r="F36" s="1" t="str">
+      <c r="F36">
+        <v>4.8997988349383504E-4</v>
+      </c>
+      <c r="G36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="37" spans="2:6">
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="I36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" t="s">
         <v>18</v>
       </c>
@@ -8211,15 +8357,25 @@
       <c r="D37" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="79">
+      <c r="E37" s="73">
         <v>7.1735146545689301E-21</v>
       </c>
-      <c r="F37" t="str">
+      <c r="F37">
+        <v>0.12796602261280299</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="38" spans="2:6">
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="I37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" t="s">
         <v>18</v>
       </c>
@@ -8232,12 +8388,22 @@
       <c r="E38">
         <v>0.67158672847322398</v>
       </c>
-      <c r="F38" s="1" t="str">
+      <c r="F38">
+        <v>4.1895820194385702E-2</v>
+      </c>
+      <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="39" spans="2:6">
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="I38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" t="s">
         <v>18</v>
       </c>
@@ -8247,15 +8413,25 @@
       <c r="D39" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="79">
+      <c r="E39" s="73">
         <v>4.8137919979846798E-18</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39" s="73">
+        <v>2.4419157037155599E-5</v>
+      </c>
+      <c r="G39" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="40" spans="2:6">
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="I39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40" t="s">
         <v>18</v>
       </c>
@@ -8268,12 +8444,22 @@
       <c r="E40">
         <v>0.72972028676733203</v>
       </c>
-      <c r="F40" s="1" t="str">
+      <c r="F40">
+        <v>6.0443441667539198E-2</v>
+      </c>
+      <c r="G40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-    </row>
-    <row r="41" spans="2:6">
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="I40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" t="s">
         <v>18</v>
       </c>
@@ -8286,12 +8472,22 @@
       <c r="E41">
         <v>3.5952710792857202E-2</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F41" s="73">
+        <v>1.2921747133469399E-5</v>
+      </c>
+      <c r="G41" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-    </row>
-    <row r="42" spans="2:6">
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="I41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" t="s">
         <v>18</v>
       </c>
@@ -8301,12 +8497,22 @@
       <c r="D42" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="79">
+      <c r="E42" s="73">
         <v>1.1922100634926601E-32</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F42">
+        <v>0.84227227894214896</v>
+      </c>
+      <c r="G42" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="I42" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Monash_University\Year5\Honours_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7897E318-15D4-46F1-BF46-D6CA28AA1C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881F25D9-2B3C-4827-A527-A38D409678EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="latest_data" sheetId="10" r:id="rId5"/>
     <sheet name="correlation_coefficients" sheetId="8" r:id="rId6"/>
     <sheet name="t-test" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="83">
   <si>
     <t>TSN = Total number of generated samples</t>
   </si>
@@ -281,6 +281,18 @@
   <si>
     <t>Combined Results</t>
   </si>
+  <si>
+    <t>DT - MLPC</t>
+  </si>
+  <si>
+    <t>MLPC - RF</t>
+  </si>
+  <si>
+    <t>DT - RF</t>
+  </si>
+  <si>
+    <t>Bank Marketing</t>
+  </si>
 </sst>
 </file>
 
@@ -476,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -575,6 +587,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2507,6 +2522,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="K20:N20"/>
@@ -2520,11 +2540,6 @@
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="O12:R12"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3778,6 +3793,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="V20:Y20"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
@@ -3790,12 +3811,6 @@
     <mergeCell ref="J20:M20"/>
     <mergeCell ref="N20:Q20"/>
     <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5042,12 +5057,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
     <mergeCell ref="V20:Y20"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
@@ -5060,6 +5069,12 @@
     <mergeCell ref="J20:M20"/>
     <mergeCell ref="N20:Q20"/>
     <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5071,7 +5086,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V10" sqref="V10"/>
+      <selection pane="topRight" activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5158,7 +5173,7 @@
         <v>19</v>
       </c>
       <c r="AB4" s="81"/>
-      <c r="AC4" s="83"/>
+      <c r="AC4" s="84"/>
       <c r="AD4" s="81"/>
       <c r="AE4" s="82"/>
     </row>
@@ -5467,7 +5482,7 @@
         <f t="shared" si="0"/>
         <v>879.76000000000204</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>-1.9463036969999924E-5</v>
       </c>
@@ -5489,6 +5504,10 @@
         <f>R6-M6</f>
         <v>1418.8400000000001</v>
       </c>
+      <c r="S8" s="3">
+        <f t="shared" ref="S8:S9" si="2">S6-N6</f>
+        <v>0.44352547029900002</v>
+      </c>
       <c r="T8" s="60">
         <f>T6-O6</f>
         <v>1.8097199535399993</v>
@@ -5504,6 +5523,10 @@
       <c r="AB8" s="2">
         <f>AB6-W6</f>
         <v>1275.0800000000017</v>
+      </c>
+      <c r="AC8" s="3">
+        <f t="shared" ref="AC8:AC9" si="3">AC6-X6</f>
+        <v>-2.7572852442589967E-4</v>
       </c>
       <c r="AD8" s="60">
         <f>AD6-Y6</f>
@@ -5524,7 +5547,7 @@
         <f t="shared" si="0"/>
         <v>22394.639999999996</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>-2.0837649825400004E-4</v>
       </c>
@@ -5533,7 +5556,7 @@
         <v>4.205720052700002</v>
       </c>
       <c r="K9" s="14">
-        <f t="shared" ref="K9" si="2">K7-F7</f>
+        <f t="shared" ref="K9" si="4">K7-F7</f>
         <v>2.7353336135000017E-2</v>
       </c>
       <c r="L9" s="4"/>
@@ -5546,6 +5569,10 @@
         <f>R7-M7</f>
         <v>-201.48000000000002</v>
       </c>
+      <c r="S9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26182871863069612</v>
+      </c>
       <c r="T9" s="71">
         <f>T7-O7</f>
         <v>328.667519932</v>
@@ -5561,6 +5588,10 @@
       <c r="AB9" s="2">
         <f>AB7-W7</f>
         <v>-468.47999999999956</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" si="3"/>
+        <v>2.069875667670501E-3</v>
       </c>
       <c r="AD9" s="71">
         <f>AD7-Y7</f>
@@ -5630,7 +5661,7 @@
         <v>19</v>
       </c>
       <c r="AB12" s="81"/>
-      <c r="AC12" s="83"/>
+      <c r="AC12" s="84"/>
       <c r="AD12" s="81"/>
       <c r="AE12" s="82"/>
     </row>
@@ -5940,8 +5971,8 @@
         <f>H14-C14</f>
         <v>598.88000000000102</v>
       </c>
-      <c r="I16" s="2">
-        <f t="shared" ref="I16:I17" si="3">I14-D14</f>
+      <c r="I16" s="3">
+        <f t="shared" ref="I16:I17" si="5">I14-D14</f>
         <v>-1.2140370542391976E-4</v>
       </c>
       <c r="J16" s="60">
@@ -5962,6 +5993,10 @@
         <f>R14-M14</f>
         <v>99.360000000000127</v>
       </c>
+      <c r="S16" s="3">
+        <f t="shared" ref="S16:S17" si="6">S14-N14</f>
+        <v>1.0385825289000006E-2</v>
+      </c>
       <c r="T16" s="60">
         <f>T14-O14</f>
         <v>33.887359971999956</v>
@@ -5977,6 +6012,10 @@
       <c r="AB16" s="2">
         <f>AB14-W14</f>
         <v>-12669</v>
+      </c>
+      <c r="AC16" s="3">
+        <f t="shared" ref="AC16:AC17" si="7">AC14-X14</f>
+        <v>-1.2140370542391976E-4</v>
       </c>
       <c r="AD16" s="60">
         <f>AD14-Y14</f>
@@ -5997,8 +6036,8 @@
         <f>H15-C15</f>
         <v>1605.7599999999802</v>
       </c>
-      <c r="I17" s="2">
-        <f t="shared" si="3"/>
+      <c r="I17" s="3">
+        <f t="shared" si="5"/>
         <v>-4.7284769169999696E-5</v>
       </c>
       <c r="J17" s="60">
@@ -6019,6 +6058,10 @@
         <f>R15-M15</f>
         <v>-109.31999999999971</v>
       </c>
+      <c r="S17" s="3">
+        <f t="shared" si="6"/>
+        <v>-1.4920097906000018E-2</v>
+      </c>
       <c r="T17" s="71">
         <f>T15-O15</f>
         <v>-101.88599997000006</v>
@@ -6034,6 +6077,10 @@
       <c r="AB17" s="2">
         <f>AB15-W15</f>
         <v>405.31999999999971</v>
+      </c>
+      <c r="AC17" s="3">
+        <f t="shared" si="7"/>
+        <v>2.8169890518497404E-3</v>
       </c>
       <c r="AD17" s="60">
         <f>AD15-Y15</f>
@@ -6103,7 +6150,7 @@
         <v>19</v>
       </c>
       <c r="AB20" s="81"/>
-      <c r="AC20" s="83"/>
+      <c r="AC20" s="84"/>
       <c r="AD20" s="81"/>
       <c r="AE20" s="82"/>
     </row>
@@ -6244,7 +6291,7 @@
       <c r="M22" s="4">
         <v>383.36</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <v>1.8658029371758499E-2</v>
       </c>
       <c r="O22" s="60">
@@ -6413,8 +6460,8 @@
         <f>H22-C22</f>
         <v>596.52</v>
       </c>
-      <c r="I24" s="2">
-        <f t="shared" ref="I24:I25" si="4">I22-D22</f>
+      <c r="I24" s="3">
+        <f t="shared" ref="I24:I25" si="8">I22-D22</f>
         <v>-4.94193417799999E-5</v>
       </c>
       <c r="J24" s="60">
@@ -6433,6 +6480,10 @@
         <f>R22-M22</f>
         <v>11.479999999999961</v>
       </c>
+      <c r="S24" s="3">
+        <f t="shared" ref="S24:S25" si="9">S22-N22</f>
+        <v>1.1887831123535902E-2</v>
+      </c>
       <c r="T24" s="60">
         <f>T22-O22</f>
         <v>1.8097199535399993</v>
@@ -6448,6 +6499,10 @@
       <c r="AB24" s="2">
         <f>AB22-W22</f>
         <v>-1978</v>
+      </c>
+      <c r="AC24" s="3">
+        <f t="shared" ref="AC24:AC25" si="10">AC22-X22</f>
+        <v>2.6142909984512921E-5</v>
       </c>
       <c r="AD24" s="60">
         <f>AD22-Y22</f>
@@ -6467,8 +6522,8 @@
         <f>H23-C23</f>
         <v>245.87999999999738</v>
       </c>
-      <c r="I25" s="2">
-        <f t="shared" si="4"/>
+      <c r="I25" s="3">
+        <f t="shared" si="8"/>
         <v>-3.6619887469999828E-6</v>
       </c>
       <c r="J25" s="60">
@@ -6487,6 +6542,10 @@
         <f>R23-M23</f>
         <v>3352</v>
       </c>
+      <c r="S25" s="3">
+        <f t="shared" si="9"/>
+        <v>1.5050434143760998E-2</v>
+      </c>
       <c r="T25" s="71">
         <f>T23-O23</f>
         <v>228.849320068</v>
@@ -6503,23 +6562,21 @@
         <f>AB23-W23</f>
         <v>-2028.6399999999994</v>
       </c>
+      <c r="AC25" s="3">
+        <f t="shared" si="10"/>
+        <v>-3.4679351558272969E-5</v>
+      </c>
       <c r="AD25" s="60">
         <f>AD23-Y23</f>
         <v>-2.9824757575989018</v>
       </c>
       <c r="AE25" s="70">
-        <f t="shared" ref="AE25" si="5">AE23-Z23</f>
+        <f t="shared" ref="AE25" si="11">AE23-Z23</f>
         <v>3.707276530913961E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AA4:AE4"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:Z4"/>
     <mergeCell ref="AA20:AE20"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:K12"/>
@@ -6532,6 +6589,12 @@
     <mergeCell ref="L20:P20"/>
     <mergeCell ref="Q20:U20"/>
     <mergeCell ref="V20:Z20"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:Z4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7571,8 +7634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95DB78E-C3C9-4D84-AB69-47409FDD14D6}">
   <dimension ref="B3:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="B24:I42"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8518,4 +8581,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E71E7E2-BDE0-4081-9D6A-B6CF18B81DDD}">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Monash_University\Year5\Honours_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881F25D9-2B3C-4827-A527-A38D409678EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E16379-8DCB-4A94-9A6F-18D5123FDE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
+    <workbookView xWindow="-28920" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{52DF0958-0AB4-4740-8193-FA00E6A62DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Old" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="general data" sheetId="5" r:id="rId3"/>
     <sheet name="new_data" sheetId="6" r:id="rId4"/>
     <sheet name="latest_data" sheetId="10" r:id="rId5"/>
-    <sheet name="correlation_coefficients" sheetId="8" r:id="rId6"/>
-    <sheet name="t-test" sheetId="9" r:id="rId7"/>
+    <sheet name="t-test" sheetId="9" r:id="rId6"/>
+    <sheet name="correlation_coefficients" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="85">
   <si>
     <t>TSN = Total number of generated samples</t>
   </si>
@@ -293,6 +293,12 @@
   <si>
     <t>Bank Marketing</t>
   </si>
+  <si>
+    <t>marital status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -488,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -568,6 +574,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,10 +595,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -977,30 +986,30 @@
       </c>
     </row>
     <row r="14" spans="2:19">
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="77" t="s">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="77" t="s">
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="77" t="s">
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="79"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="82"/>
     </row>
     <row r="15" spans="2:19">
       <c r="D15" s="5" t="s">
@@ -1158,30 +1167,30 @@
       </c>
     </row>
     <row r="22" spans="3:19">
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="77" t="s">
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="77" t="s">
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="77" t="s">
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="79"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="82"/>
     </row>
     <row r="23" spans="3:19">
       <c r="D23" s="5" t="s">
@@ -1330,30 +1339,30 @@
       </c>
     </row>
     <row r="30" spans="3:19">
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="77" t="s">
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="77" t="s">
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="77" t="s">
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="79"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="82"/>
     </row>
     <row r="31" spans="3:19">
       <c r="D31" s="5" t="s">
@@ -1573,42 +1582,42 @@
       <c r="R3" s="14"/>
     </row>
     <row r="4" spans="2:26">
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="77" t="s">
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="77" t="s">
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="77" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="77" t="s">
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="77" t="s">
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="79"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="82"/>
     </row>
     <row r="5" spans="2:26">
       <c r="B5" s="33" t="s">
@@ -1899,42 +1908,42 @@
       <c r="R11" s="14"/>
     </row>
     <row r="12" spans="2:26">
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="77" t="s">
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="77" t="s">
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="77" t="s">
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="77" t="s">
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="77" t="s">
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="79"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="82"/>
     </row>
     <row r="13" spans="2:26">
       <c r="B13" s="33" t="s">
@@ -2226,42 +2235,42 @@
       <c r="R19" s="14"/>
     </row>
     <row r="20" spans="2:26">
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="77" t="s">
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="77" t="s">
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="77" t="s">
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="77" t="s">
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="77" t="s">
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="79"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="82"/>
     </row>
     <row r="21" spans="2:26">
       <c r="B21" s="33" t="s">
@@ -2522,11 +2531,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="K20:N20"/>
@@ -2540,6 +2544,11 @@
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="O12:R12"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2593,42 +2602,42 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="77" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="77" t="s">
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="77" t="s">
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="80" t="s">
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="80" t="s">
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="82"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="85"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="33" t="s">
@@ -3000,42 +3009,42 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="77" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="77" t="s">
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="77" t="s">
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="80" t="s">
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="80" t="s">
+      <c r="S12" s="84"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="82"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="85"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="33" t="s">
@@ -3408,42 +3417,42 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:25">
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="77" t="s">
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="77" t="s">
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="77" t="s">
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="80" t="s">
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="80" t="s">
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="82"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="85"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="33" t="s">
@@ -3789,6 +3798,1269 @@
       <c r="Y25" s="14">
         <f t="shared" si="18"/>
         <v>-5.143856109185696E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42F29A4-40B4-4F76-862E-2F3EC1AC93BE}">
+  <dimension ref="A1:Y25"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="60"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="10.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="14"/>
+    <col min="12" max="12" width="9.140625" style="60"/>
+    <col min="13" max="13" width="9.140625" style="14"/>
+    <col min="14" max="15" width="9.140625" style="2"/>
+    <col min="16" max="16" width="9.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="14"/>
+    <col min="20" max="20" width="9.140625" style="60"/>
+    <col min="21" max="21" width="9.140625" style="14"/>
+    <col min="22" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="10.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="E3" s="14"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="B4" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="85"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>43861.68</v>
+      </c>
+      <c r="C6" s="2">
+        <v>27560.12</v>
+      </c>
+      <c r="D6" s="60">
+        <v>112.247079992</v>
+      </c>
+      <c r="E6" s="15">
+        <f>0.627764779504</f>
+        <v>0.627764779504</v>
+      </c>
+      <c r="F6" s="61">
+        <v>44746.239999999998</v>
+      </c>
+      <c r="G6" s="62">
+        <v>28439.88</v>
+      </c>
+      <c r="H6" s="63">
+        <v>114.712399969</v>
+      </c>
+      <c r="I6" s="64">
+        <f>0.635583855722</f>
+        <v>0.63558385572200005</v>
+      </c>
+      <c r="J6" s="10">
+        <v>22778.52</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5056.88</v>
+      </c>
+      <c r="L6" s="60">
+        <v>6.74392003059</v>
+      </c>
+      <c r="M6" s="15">
+        <f>0.229772150746</f>
+        <v>0.22977215074599999</v>
+      </c>
+      <c r="N6" s="61">
+        <v>14276.16</v>
+      </c>
+      <c r="O6" s="62">
+        <v>6475.72</v>
+      </c>
+      <c r="P6" s="63">
+        <v>8.5536399841299993</v>
+      </c>
+      <c r="Q6" s="64">
+        <f>0.495939083514</f>
+        <v>0.49593908351400001</v>
+      </c>
+      <c r="R6" s="10">
+        <v>75597.440000000002</v>
+      </c>
+      <c r="S6" s="4">
+        <v>42141.32</v>
+      </c>
+      <c r="T6" s="60">
+        <v>440.16081964492798</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0.55744297070748905</v>
+      </c>
+      <c r="V6" s="61">
+        <v>72404.960000000006</v>
+      </c>
+      <c r="W6" s="62">
+        <v>43416.4</v>
+      </c>
+      <c r="X6" s="63">
+        <v>441.51804473876899</v>
+      </c>
+      <c r="Y6" s="64">
+        <v>0.59963527384809401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>47010.84</v>
+      </c>
+      <c r="C7" s="8">
+        <v>28294.880000000001</v>
+      </c>
+      <c r="D7" s="69">
+        <v>17.955279979699998</v>
+      </c>
+      <c r="E7" s="16">
+        <f>0.60183842307</f>
+        <v>0.60183842307000002</v>
+      </c>
+      <c r="F7" s="65">
+        <v>80551.12</v>
+      </c>
+      <c r="G7" s="66">
+        <v>50689.52</v>
+      </c>
+      <c r="H7" s="67">
+        <v>22.1610000324</v>
+      </c>
+      <c r="I7" s="68">
+        <f>0.629191759205</f>
+        <v>0.62919175920500003</v>
+      </c>
+      <c r="J7" s="11">
+        <v>4843.04</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1530.8</v>
+      </c>
+      <c r="L7" s="69">
+        <v>127.51400003400001</v>
+      </c>
+      <c r="M7" s="16">
+        <f>0.319777913834</f>
+        <v>0.319777913834</v>
+      </c>
+      <c r="N7" s="65">
+        <v>3870.28</v>
+      </c>
+      <c r="O7" s="66">
+        <v>1329.32</v>
+      </c>
+      <c r="P7" s="67">
+        <v>456.181519966</v>
+      </c>
+      <c r="Q7" s="68">
+        <f>0.345052281224</f>
+        <v>0.345052281224</v>
+      </c>
+      <c r="R7" s="11">
+        <v>71535</v>
+      </c>
+      <c r="S7" s="12">
+        <v>14803.52</v>
+      </c>
+      <c r="T7" s="69">
+        <v>196.889799852371</v>
+      </c>
+      <c r="U7" s="16">
+        <f>0.206990094100602</f>
+        <v>0.20699009410060201</v>
+      </c>
+      <c r="V7" s="65">
+        <v>70674.52</v>
+      </c>
+      <c r="W7" s="66">
+        <v>14335.04</v>
+      </c>
+      <c r="X7" s="67">
+        <v>204.236077661514</v>
+      </c>
+      <c r="Y7" s="68">
+        <f>0.202862373601151</f>
+        <v>0.202862373601151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="E8" s="14"/>
+      <c r="F8" s="2">
+        <f>F6-B6</f>
+        <v>884.55999999999767</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:I8" si="0">G6-C6</f>
+        <v>879.76000000000204</v>
+      </c>
+      <c r="H8" s="60">
+        <f>H6-D6</f>
+        <v>2.4653199770000072</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="0"/>
+        <v>7.8190762180000428E-3</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="N8" s="2">
+        <f t="shared" ref="N8:Q9" si="1">N6-J6</f>
+        <v>-8502.36</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>1418.8400000000001</v>
+      </c>
+      <c r="P8" s="60">
+        <f t="shared" si="1"/>
+        <v>1.8097199535399993</v>
+      </c>
+      <c r="Q8" s="14">
+        <f t="shared" si="1"/>
+        <v>0.26616693276800002</v>
+      </c>
+      <c r="V8" s="2">
+        <f>V6-R6</f>
+        <v>-3192.4799999999959</v>
+      </c>
+      <c r="W8" s="2">
+        <f>W6-S6</f>
+        <v>1275.0800000000017</v>
+      </c>
+      <c r="X8" s="60">
+        <f>X6-T6</f>
+        <v>1.3572250938410093</v>
+      </c>
+      <c r="Y8" s="14">
+        <f>Y6-U6</f>
+        <v>4.2192303140604959E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="E9" s="14"/>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:I9" si="2">F7-B7</f>
+        <v>33540.28</v>
+      </c>
+      <c r="G9" s="2">
+        <v>11</v>
+      </c>
+      <c r="H9" s="60">
+        <f>H7-D7</f>
+        <v>4.205720052700002</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="2"/>
+        <v>2.7353336135000017E-2</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="N9" s="2">
+        <f t="shared" si="1"/>
+        <v>-972.75999999999976</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="1"/>
+        <v>-201.48000000000002</v>
+      </c>
+      <c r="P9" s="71">
+        <f t="shared" si="1"/>
+        <v>328.667519932</v>
+      </c>
+      <c r="Q9" s="14">
+        <f>Q7-M7</f>
+        <v>2.5274367389999997E-2</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" ref="V9:Y9" si="3">V7-R7</f>
+        <v>-860.47999999999593</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="3"/>
+        <v>-468.47999999999956</v>
+      </c>
+      <c r="X9" s="71">
+        <f t="shared" si="3"/>
+        <v>7.3462778091430039</v>
+      </c>
+      <c r="Y9" s="70">
+        <f t="shared" si="3"/>
+        <v>-4.1277204994510097E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="E11" s="14"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="B12" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="84"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="85"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>33394.44</v>
+      </c>
+      <c r="C14" s="2">
+        <v>19862.96</v>
+      </c>
+      <c r="D14" s="60">
+        <v>435.56652023315399</v>
+      </c>
+      <c r="E14" s="15">
+        <f>0.595498451327</f>
+        <v>0.59549845132699997</v>
+      </c>
+      <c r="F14" s="61">
+        <v>33472.519999999997</v>
+      </c>
+      <c r="G14" s="62">
+        <v>20461.84</v>
+      </c>
+      <c r="H14" s="63">
+        <v>434.40089967727602</v>
+      </c>
+      <c r="I14" s="64">
+        <v>0.60385012711599995</v>
+      </c>
+      <c r="J14" s="10">
+        <v>6904.4</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1955.48</v>
+      </c>
+      <c r="L14" s="60">
+        <v>266.66423999800003</v>
+      </c>
+      <c r="M14" s="15">
+        <f>0.280064011089</f>
+        <v>0.28006401108899998</v>
+      </c>
+      <c r="N14" s="62">
+        <v>7652.36</v>
+      </c>
+      <c r="O14" s="62">
+        <v>2054.84</v>
+      </c>
+      <c r="P14" s="63">
+        <v>300.55159996999998</v>
+      </c>
+      <c r="Q14" s="64">
+        <f>0.266656194123</f>
+        <v>0.26665619412300001</v>
+      </c>
+      <c r="R14" s="10">
+        <v>72101.279999999999</v>
+      </c>
+      <c r="S14" s="4">
+        <v>50908.959999999999</v>
+      </c>
+      <c r="T14" s="60">
+        <v>435.56652023315399</v>
+      </c>
+      <c r="U14" s="15">
+        <f>0.706072237533358</f>
+        <v>0.70607223753335802</v>
+      </c>
+      <c r="V14" s="61">
+        <v>46776.959999999999</v>
+      </c>
+      <c r="W14" s="62">
+        <v>38239.96</v>
+      </c>
+      <c r="X14" s="63">
+        <v>434.40089967727602</v>
+      </c>
+      <c r="Y14" s="64">
+        <f>0.817497229632774</f>
+        <v>0.81749722963277405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7">
+        <v>256828.28</v>
+      </c>
+      <c r="C15" s="8">
+        <v>159559.20000000001</v>
+      </c>
+      <c r="D15" s="69">
+        <v>450.58300001100002</v>
+      </c>
+      <c r="E15" s="16">
+        <f>0.621226720257</f>
+        <v>0.62122672025699999</v>
+      </c>
+      <c r="F15" s="65">
+        <v>255556.4</v>
+      </c>
+      <c r="G15" s="66">
+        <v>161164.96</v>
+      </c>
+      <c r="H15" s="67">
+        <v>447.34788001999999</v>
+      </c>
+      <c r="I15" s="68">
+        <f>0.630712779453</f>
+        <v>0.63071277945299997</v>
+      </c>
+      <c r="J15" s="11">
+        <v>13233.72</v>
+      </c>
+      <c r="K15" s="12">
+        <v>6834.08</v>
+      </c>
+      <c r="L15" s="69">
+        <v>1788.57847999</v>
+      </c>
+      <c r="M15" s="16">
+        <f>0.517111316142</f>
+        <v>0.51711131614200001</v>
+      </c>
+      <c r="N15" s="65">
+        <v>13120.2</v>
+      </c>
+      <c r="O15" s="66">
+        <v>6724.76</v>
+      </c>
+      <c r="P15" s="67">
+        <v>1686.6924800199999</v>
+      </c>
+      <c r="Q15" s="68">
+        <f>0.513583558135</f>
+        <v>0.51358355813500001</v>
+      </c>
+      <c r="R15" s="11">
+        <v>75500.52</v>
+      </c>
+      <c r="S15" s="12">
+        <v>43218.400000000001</v>
+      </c>
+      <c r="T15" s="69">
+        <v>433.70486718177699</v>
+      </c>
+      <c r="U15" s="16">
+        <f>0.572422652346015</f>
+        <v>0.57242265234601497</v>
+      </c>
+      <c r="V15" s="65">
+        <v>72237.16</v>
+      </c>
+      <c r="W15" s="66">
+        <v>43623.72</v>
+      </c>
+      <c r="X15" s="67">
+        <v>433.45899882316502</v>
+      </c>
+      <c r="Y15" s="68">
+        <f>0.603897120911155</f>
+        <v>0.60389712091115499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="E16" s="14"/>
+      <c r="F16" s="2">
+        <f t="shared" ref="F16:I17" si="4">F14-B14</f>
+        <v>78.07999999999447</v>
+      </c>
+      <c r="G16" s="62">
+        <f t="shared" si="4"/>
+        <v>598.88000000000102</v>
+      </c>
+      <c r="H16" s="60">
+        <f t="shared" si="4"/>
+        <v>-1.1656205558779789</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="4"/>
+        <v>8.3516757889999793E-3</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="N16" s="2">
+        <f t="shared" ref="N16:Q17" si="5">N14-J14</f>
+        <v>747.96</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="5"/>
+        <v>99.360000000000127</v>
+      </c>
+      <c r="P16" s="60">
+        <f t="shared" si="5"/>
+        <v>33.887359971999956</v>
+      </c>
+      <c r="Q16" s="70">
+        <f t="shared" si="5"/>
+        <v>-1.3407816965999964E-2</v>
+      </c>
+      <c r="V16" s="2">
+        <f t="shared" ref="V16:Y17" si="6">V14-R14</f>
+        <v>-25324.32</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="6"/>
+        <v>-12669</v>
+      </c>
+      <c r="X16" s="60">
+        <f t="shared" si="6"/>
+        <v>-1.1656205558779789</v>
+      </c>
+      <c r="Y16" s="14">
+        <f t="shared" si="6"/>
+        <v>0.11142499209941603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="E17" s="14"/>
+      <c r="F17" s="2">
+        <f t="shared" si="4"/>
+        <v>-1271.8800000000047</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="4"/>
+        <v>1605.7599999999802</v>
+      </c>
+      <c r="H17" s="60">
+        <f t="shared" si="4"/>
+        <v>-3.2351199910000332</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="4"/>
+        <v>9.4860591959999851E-3</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="N17" s="2">
+        <f t="shared" si="5"/>
+        <v>-113.51999999999862</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="5"/>
+        <v>-109.31999999999971</v>
+      </c>
+      <c r="P17" s="71">
+        <f t="shared" si="5"/>
+        <v>-101.88599997000006</v>
+      </c>
+      <c r="Q17" s="70">
+        <f t="shared" si="5"/>
+        <v>-3.5277580070000036E-3</v>
+      </c>
+      <c r="V17" s="2">
+        <f t="shared" si="6"/>
+        <v>-3263.3600000000006</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="6"/>
+        <v>405.31999999999971</v>
+      </c>
+      <c r="X17" s="60">
+        <f t="shared" si="6"/>
+        <v>-0.24586835861197187</v>
+      </c>
+      <c r="Y17" s="14">
+        <f t="shared" si="6"/>
+        <v>3.1474468565140024E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="R18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="E19" s="14"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="B20" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="85"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1939.52</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1254.28</v>
+      </c>
+      <c r="D22" s="60">
+        <v>4.0217199611699996</v>
+      </c>
+      <c r="E22" s="15">
+        <f>0.412818978501</f>
+        <v>0.41281897850100002</v>
+      </c>
+      <c r="F22" s="61">
+        <v>2660.24</v>
+      </c>
+      <c r="G22" s="62">
+        <v>1850.8</v>
+      </c>
+      <c r="H22" s="63">
+        <v>3.5277999687200001</v>
+      </c>
+      <c r="I22" s="64">
+        <f>0.457858631304</f>
+        <v>0.45785863130400001</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1788.56</v>
+      </c>
+      <c r="K22" s="4">
+        <v>383.36</v>
+      </c>
+      <c r="L22" s="60">
+        <v>6.74392003059</v>
+      </c>
+      <c r="M22" s="15">
+        <f>0.117365546056</f>
+        <v>0.117365546056</v>
+      </c>
+      <c r="N22" s="61">
+        <v>2361.4</v>
+      </c>
+      <c r="O22" s="62">
+        <v>394.84</v>
+      </c>
+      <c r="P22" s="63">
+        <v>8.5536399841299993</v>
+      </c>
+      <c r="Q22" s="64">
+        <f>0.133845483353</f>
+        <v>0.13384548335300001</v>
+      </c>
+      <c r="R22" s="10">
+        <v>75640.639999999999</v>
+      </c>
+      <c r="S22" s="4">
+        <v>50279.44</v>
+      </c>
+      <c r="T22" s="60">
+        <v>45.724359817504798</v>
+      </c>
+      <c r="U22" s="15">
+        <f>0.664719285726297</f>
+        <v>0.66471928572629702</v>
+      </c>
+      <c r="V22" s="61">
+        <v>72349.759999999995</v>
+      </c>
+      <c r="W22" s="62">
+        <v>48301.440000000002</v>
+      </c>
+      <c r="X22" s="63">
+        <v>45.114759931564301</v>
+      </c>
+      <c r="Y22" s="64">
+        <f>0.667614675138628</f>
+        <v>0.66761467513862804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="7">
+        <v>65731.759999999995</v>
+      </c>
+      <c r="C23" s="8">
+        <v>42733</v>
+      </c>
+      <c r="D23" s="69">
+        <v>14.4680799961</v>
+      </c>
+      <c r="E23" s="16">
+        <f>0.649367174249</f>
+        <v>0.64936717424900003</v>
+      </c>
+      <c r="F23" s="65">
+        <v>65878.28</v>
+      </c>
+      <c r="G23" s="66">
+        <v>42978.879999999997</v>
+      </c>
+      <c r="H23" s="67">
+        <v>14.3954400158</v>
+      </c>
+      <c r="I23" s="68">
+        <f>0.651995258419</f>
+        <v>0.65199525841899997</v>
+      </c>
+      <c r="J23" s="11">
+        <v>55759.76</v>
+      </c>
+      <c r="K23" s="12">
+        <v>5086.16</v>
+      </c>
+      <c r="L23" s="69">
+        <v>181.28955995600001</v>
+      </c>
+      <c r="M23" s="16">
+        <f>0.0941569205377</f>
+        <v>9.4156920537700001E-2</v>
+      </c>
+      <c r="N23" s="65">
+        <v>49437.48</v>
+      </c>
+      <c r="O23" s="66">
+        <v>8438.16</v>
+      </c>
+      <c r="P23" s="67">
+        <v>410.138880024</v>
+      </c>
+      <c r="Q23" s="68">
+        <f>0.175672981217</f>
+        <v>0.17567298121700001</v>
+      </c>
+      <c r="R23" s="11">
+        <v>72151.28</v>
+      </c>
+      <c r="S23" s="12">
+        <v>49929.2</v>
+      </c>
+      <c r="T23" s="69">
+        <v>32.503294029235803</v>
+      </c>
+      <c r="U23" s="16">
+        <f>0.692010424836777</f>
+        <v>0.69201042483677699</v>
+      </c>
+      <c r="V23" s="65">
+        <v>68850.64</v>
+      </c>
+      <c r="W23" s="66">
+        <v>47900.56</v>
+      </c>
+      <c r="X23" s="67">
+        <v>29.520818271636902</v>
+      </c>
+      <c r="Y23" s="68">
+        <f>0.695717701367691</f>
+        <v>0.69571770136769095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="F24" s="2">
+        <f t="shared" ref="F24:I25" si="7">F22-B22</f>
+        <v>720.7199999999998</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="7"/>
+        <v>596.52</v>
+      </c>
+      <c r="H24" s="60">
+        <f t="shared" si="7"/>
+        <v>-0.49391999244999951</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="7"/>
+        <v>4.5039652802999985E-2</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" ref="N24:Q25" si="8">N22-J22</f>
+        <v>572.84000000000015</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="8"/>
+        <v>11.479999999999961</v>
+      </c>
+      <c r="P24" s="60">
+        <f t="shared" si="8"/>
+        <v>1.8097199535399993</v>
+      </c>
+      <c r="Q24" s="14">
+        <f t="shared" si="8"/>
+        <v>1.6479937297000008E-2</v>
+      </c>
+      <c r="V24" s="2">
+        <f>V22-R22</f>
+        <v>-3290.8800000000047</v>
+      </c>
+      <c r="W24" s="2">
+        <f>W22-S22</f>
+        <v>-1978</v>
+      </c>
+      <c r="X24" s="60">
+        <f>X22-T22</f>
+        <v>-0.60959988594049719</v>
+      </c>
+      <c r="Y24" s="14">
+        <f>Y22-U22</f>
+        <v>2.8953894123310286E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="F25" s="2">
+        <f t="shared" si="7"/>
+        <v>146.52000000000407</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="7"/>
+        <v>245.87999999999738</v>
+      </c>
+      <c r="H25" s="60">
+        <f t="shared" si="7"/>
+        <v>-7.2639980299999962E-2</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="7"/>
+        <v>2.6280841699999336E-3</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="8"/>
+        <v>-6322.2799999999988</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="8"/>
+        <v>3352</v>
+      </c>
+      <c r="P25" s="71">
+        <f t="shared" si="8"/>
+        <v>228.849320068</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" si="8"/>
+        <v>8.1516060679300006E-2</v>
+      </c>
+      <c r="V25" s="2">
+        <f>V23-R23</f>
+        <v>-3300.6399999999994</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" ref="W25:Y25" si="9">W23-S23</f>
+        <v>-2028.6399999999994</v>
+      </c>
+      <c r="X25" s="60">
+        <f>X23-T23</f>
+        <v>-2.9824757575989018</v>
+      </c>
+      <c r="Y25" s="70">
+        <f t="shared" si="9"/>
+        <v>3.707276530913961E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3816,1277 +5088,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42F29A4-40B4-4F76-862E-2F3EC1AC93BE}">
-  <dimension ref="A1:Y25"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D11" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="60"/>
-    <col min="6" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="10.28515625" style="60" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="14"/>
-    <col min="12" max="12" width="9.140625" style="60"/>
-    <col min="13" max="13" width="9.140625" style="14"/>
-    <col min="14" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="9.5703125" style="60" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="14"/>
-    <col min="20" max="20" width="9.140625" style="60"/>
-    <col min="21" max="21" width="9.140625" style="14"/>
-    <col min="22" max="23" width="9.140625" style="2"/>
-    <col min="24" max="24" width="10.140625" style="60" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25">
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="R2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="E3" s="14"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="B4" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="82"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X5" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6">
-        <v>43861.68</v>
-      </c>
-      <c r="C6" s="2">
-        <v>27560.12</v>
-      </c>
-      <c r="D6" s="60">
-        <v>112.247079992</v>
-      </c>
-      <c r="E6" s="15">
-        <f>0.627764779504</f>
-        <v>0.627764779504</v>
-      </c>
-      <c r="F6" s="61">
-        <v>44746.239999999998</v>
-      </c>
-      <c r="G6" s="62">
-        <v>28439.88</v>
-      </c>
-      <c r="H6" s="63">
-        <v>114.712399969</v>
-      </c>
-      <c r="I6" s="64">
-        <f>0.635583855722</f>
-        <v>0.63558385572200005</v>
-      </c>
-      <c r="J6" s="10">
-        <v>22778.52</v>
-      </c>
-      <c r="K6" s="4">
-        <v>5056.88</v>
-      </c>
-      <c r="L6" s="60">
-        <v>6.74392003059</v>
-      </c>
-      <c r="M6" s="15">
-        <f>0.229772150746</f>
-        <v>0.22977215074599999</v>
-      </c>
-      <c r="N6" s="61">
-        <v>14276.16</v>
-      </c>
-      <c r="O6" s="62">
-        <v>6475.72</v>
-      </c>
-      <c r="P6" s="63">
-        <v>8.5536399841299993</v>
-      </c>
-      <c r="Q6" s="64">
-        <f>0.495939083514</f>
-        <v>0.49593908351400001</v>
-      </c>
-      <c r="R6" s="10">
-        <v>75597.440000000002</v>
-      </c>
-      <c r="S6" s="4">
-        <v>42141.32</v>
-      </c>
-      <c r="T6" s="60">
-        <v>440.16081964492798</v>
-      </c>
-      <c r="U6" s="15">
-        <v>0.55744297070748905</v>
-      </c>
-      <c r="V6" s="61">
-        <v>72404.960000000006</v>
-      </c>
-      <c r="W6" s="62">
-        <v>43416.4</v>
-      </c>
-      <c r="X6" s="63">
-        <v>441.51804473876899</v>
-      </c>
-      <c r="Y6" s="64">
-        <v>0.59963527384809401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7">
-        <v>47010.84</v>
-      </c>
-      <c r="C7" s="8">
-        <v>28294.880000000001</v>
-      </c>
-      <c r="D7" s="69">
-        <v>17.955279979699998</v>
-      </c>
-      <c r="E7" s="16">
-        <f>0.60183842307</f>
-        <v>0.60183842307000002</v>
-      </c>
-      <c r="F7" s="65">
-        <v>80551.12</v>
-      </c>
-      <c r="G7" s="66">
-        <v>50689.52</v>
-      </c>
-      <c r="H7" s="67">
-        <v>22.1610000324</v>
-      </c>
-      <c r="I7" s="68">
-        <f>0.629191759205</f>
-        <v>0.62919175920500003</v>
-      </c>
-      <c r="J7" s="11">
-        <v>4843.04</v>
-      </c>
-      <c r="K7" s="12">
-        <v>1530.8</v>
-      </c>
-      <c r="L7" s="69">
-        <v>127.51400003400001</v>
-      </c>
-      <c r="M7" s="16">
-        <f>0.319777913834</f>
-        <v>0.319777913834</v>
-      </c>
-      <c r="N7" s="65">
-        <v>3870.28</v>
-      </c>
-      <c r="O7" s="66">
-        <v>1329.32</v>
-      </c>
-      <c r="P7" s="67">
-        <v>456.181519966</v>
-      </c>
-      <c r="Q7" s="68">
-        <f>0.345052281224</f>
-        <v>0.345052281224</v>
-      </c>
-      <c r="R7" s="11">
-        <v>71535</v>
-      </c>
-      <c r="S7" s="12">
-        <v>14803.52</v>
-      </c>
-      <c r="T7" s="69">
-        <v>196.889799852371</v>
-      </c>
-      <c r="U7" s="16">
-        <f>0.206990094100602</f>
-        <v>0.20699009410060201</v>
-      </c>
-      <c r="V7" s="65">
-        <v>70674.52</v>
-      </c>
-      <c r="W7" s="66">
-        <v>14335.04</v>
-      </c>
-      <c r="X7" s="67">
-        <v>204.236077661514</v>
-      </c>
-      <c r="Y7" s="68">
-        <f>0.202862373601151</f>
-        <v>0.202862373601151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="E8" s="14"/>
-      <c r="F8" s="2">
-        <f>F6-B6</f>
-        <v>884.55999999999767</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" ref="G8:I8" si="0">G6-C6</f>
-        <v>879.76000000000204</v>
-      </c>
-      <c r="H8" s="60">
-        <f>H6-D6</f>
-        <v>2.4653199770000072</v>
-      </c>
-      <c r="I8" s="14">
-        <f t="shared" si="0"/>
-        <v>7.8190762180000428E-3</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="N8" s="2">
-        <f t="shared" ref="N8:Q9" si="1">N6-J6</f>
-        <v>-8502.36</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="1"/>
-        <v>1418.8400000000001</v>
-      </c>
-      <c r="P8" s="60">
-        <f t="shared" si="1"/>
-        <v>1.8097199535399993</v>
-      </c>
-      <c r="Q8" s="14">
-        <f t="shared" si="1"/>
-        <v>0.26616693276800002</v>
-      </c>
-      <c r="V8" s="2">
-        <f>V6-R6</f>
-        <v>-3192.4799999999959</v>
-      </c>
-      <c r="W8" s="2">
-        <f>W6-S6</f>
-        <v>1275.0800000000017</v>
-      </c>
-      <c r="X8" s="60">
-        <f>X6-T6</f>
-        <v>1.3572250938410093</v>
-      </c>
-      <c r="Y8" s="14">
-        <f>Y6-U6</f>
-        <v>4.2192303140604959E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="E9" s="14"/>
-      <c r="F9" s="2">
-        <f t="shared" ref="F9:I9" si="2">F7-B7</f>
-        <v>33540.28</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="2"/>
-        <v>22394.639999999996</v>
-      </c>
-      <c r="H9" s="60">
-        <f>H7-D7</f>
-        <v>4.205720052700002</v>
-      </c>
-      <c r="I9" s="14">
-        <f t="shared" si="2"/>
-        <v>2.7353336135000017E-2</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="N9" s="2">
-        <f t="shared" si="1"/>
-        <v>-972.75999999999976</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="1"/>
-        <v>-201.48000000000002</v>
-      </c>
-      <c r="P9" s="71">
-        <f t="shared" si="1"/>
-        <v>328.667519932</v>
-      </c>
-      <c r="Q9" s="14">
-        <f>Q7-M7</f>
-        <v>2.5274367389999997E-2</v>
-      </c>
-      <c r="V9" s="2">
-        <f t="shared" ref="V9:Y9" si="3">V7-R7</f>
-        <v>-860.47999999999593</v>
-      </c>
-      <c r="W9" s="2">
-        <f t="shared" si="3"/>
-        <v>-468.47999999999956</v>
-      </c>
-      <c r="X9" s="71">
-        <f t="shared" si="3"/>
-        <v>7.3462778091430039</v>
-      </c>
-      <c r="Y9" s="70">
-        <f t="shared" si="3"/>
-        <v>-4.1277204994510097E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="J10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="R10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="E11" s="14"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="B12" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="82"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P13" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="T13" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="U13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X13" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y13" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6">
-        <v>33394.44</v>
-      </c>
-      <c r="C14" s="2">
-        <v>19862.96</v>
-      </c>
-      <c r="D14" s="60">
-        <v>435.56652023315399</v>
-      </c>
-      <c r="E14" s="15">
-        <f>0.595498451327</f>
-        <v>0.59549845132699997</v>
-      </c>
-      <c r="F14" s="61">
-        <v>33472.519999999997</v>
-      </c>
-      <c r="G14" s="62">
-        <v>20461.84</v>
-      </c>
-      <c r="H14" s="63">
-        <v>434.40089967727602</v>
-      </c>
-      <c r="I14" s="64">
-        <v>0.60385012711599995</v>
-      </c>
-      <c r="J14" s="10">
-        <v>6904.4</v>
-      </c>
-      <c r="K14" s="4">
-        <v>1955.48</v>
-      </c>
-      <c r="L14" s="60">
-        <v>266.66423999800003</v>
-      </c>
-      <c r="M14" s="15">
-        <f>0.280064011089</f>
-        <v>0.28006401108899998</v>
-      </c>
-      <c r="N14" s="62">
-        <v>7652.36</v>
-      </c>
-      <c r="O14" s="62">
-        <v>2054.84</v>
-      </c>
-      <c r="P14" s="63">
-        <v>300.55159996999998</v>
-      </c>
-      <c r="Q14" s="64">
-        <f>0.266656194123</f>
-        <v>0.26665619412300001</v>
-      </c>
-      <c r="R14" s="10">
-        <v>72101.279999999999</v>
-      </c>
-      <c r="S14" s="4">
-        <v>50908.959999999999</v>
-      </c>
-      <c r="T14" s="60">
-        <v>435.56652023315399</v>
-      </c>
-      <c r="U14" s="15">
-        <f>0.706072237533358</f>
-        <v>0.70607223753335802</v>
-      </c>
-      <c r="V14" s="61">
-        <v>46776.959999999999</v>
-      </c>
-      <c r="W14" s="62">
-        <v>38239.96</v>
-      </c>
-      <c r="X14" s="63">
-        <v>434.40089967727602</v>
-      </c>
-      <c r="Y14" s="64">
-        <f>0.817497229632774</f>
-        <v>0.81749722963277405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7">
-        <v>256828.28</v>
-      </c>
-      <c r="C15" s="8">
-        <v>159559.20000000001</v>
-      </c>
-      <c r="D15" s="69">
-        <v>450.58300001100002</v>
-      </c>
-      <c r="E15" s="16">
-        <f>0.621226720257</f>
-        <v>0.62122672025699999</v>
-      </c>
-      <c r="F15" s="65">
-        <v>255556.4</v>
-      </c>
-      <c r="G15" s="66">
-        <v>161164.96</v>
-      </c>
-      <c r="H15" s="67">
-        <v>447.34788001999999</v>
-      </c>
-      <c r="I15" s="68">
-        <f>0.630712779453</f>
-        <v>0.63071277945299997</v>
-      </c>
-      <c r="J15" s="11">
-        <v>13233.72</v>
-      </c>
-      <c r="K15" s="12">
-        <v>6834.08</v>
-      </c>
-      <c r="L15" s="69">
-        <v>1788.57847999</v>
-      </c>
-      <c r="M15" s="16">
-        <f>0.517111316142</f>
-        <v>0.51711131614200001</v>
-      </c>
-      <c r="N15" s="65">
-        <v>13120.2</v>
-      </c>
-      <c r="O15" s="66">
-        <v>6724.76</v>
-      </c>
-      <c r="P15" s="67">
-        <v>1686.6924800199999</v>
-      </c>
-      <c r="Q15" s="68">
-        <f>0.513583558135</f>
-        <v>0.51358355813500001</v>
-      </c>
-      <c r="R15" s="11">
-        <v>75500.52</v>
-      </c>
-      <c r="S15" s="12">
-        <v>43218.400000000001</v>
-      </c>
-      <c r="T15" s="69">
-        <v>433.70486718177699</v>
-      </c>
-      <c r="U15" s="16">
-        <f>0.572422652346015</f>
-        <v>0.57242265234601497</v>
-      </c>
-      <c r="V15" s="65">
-        <v>72237.16</v>
-      </c>
-      <c r="W15" s="66">
-        <v>43623.72</v>
-      </c>
-      <c r="X15" s="67">
-        <v>433.45899882316502</v>
-      </c>
-      <c r="Y15" s="68">
-        <f>0.603897120911155</f>
-        <v>0.60389712091115499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="E16" s="14"/>
-      <c r="F16" s="2">
-        <f t="shared" ref="F16:I17" si="4">F14-B14</f>
-        <v>78.07999999999447</v>
-      </c>
-      <c r="G16" s="62">
-        <f t="shared" si="4"/>
-        <v>598.88000000000102</v>
-      </c>
-      <c r="H16" s="60">
-        <f t="shared" si="4"/>
-        <v>-1.1656205558779789</v>
-      </c>
-      <c r="I16" s="14">
-        <f t="shared" si="4"/>
-        <v>8.3516757889999793E-3</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="N16" s="2">
-        <f t="shared" ref="N16:Q17" si="5">N14-J14</f>
-        <v>747.96</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="5"/>
-        <v>99.360000000000127</v>
-      </c>
-      <c r="P16" s="60">
-        <f t="shared" si="5"/>
-        <v>33.887359971999956</v>
-      </c>
-      <c r="Q16" s="70">
-        <f t="shared" si="5"/>
-        <v>-1.3407816965999964E-2</v>
-      </c>
-      <c r="V16" s="2">
-        <f t="shared" ref="V16:Y17" si="6">V14-R14</f>
-        <v>-25324.32</v>
-      </c>
-      <c r="W16" s="2">
-        <f t="shared" si="6"/>
-        <v>-12669</v>
-      </c>
-      <c r="X16" s="60">
-        <f t="shared" si="6"/>
-        <v>-1.1656205558779789</v>
-      </c>
-      <c r="Y16" s="14">
-        <f t="shared" si="6"/>
-        <v>0.11142499209941603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="E17" s="14"/>
-      <c r="F17" s="2">
-        <f t="shared" si="4"/>
-        <v>-1271.8800000000047</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="4"/>
-        <v>1605.7599999999802</v>
-      </c>
-      <c r="H17" s="60">
-        <f t="shared" si="4"/>
-        <v>-3.2351199910000332</v>
-      </c>
-      <c r="I17" s="14">
-        <f t="shared" si="4"/>
-        <v>9.4860591959999851E-3</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="N17" s="2">
-        <f t="shared" si="5"/>
-        <v>-113.51999999999862</v>
-      </c>
-      <c r="O17" s="2">
-        <f t="shared" si="5"/>
-        <v>-109.31999999999971</v>
-      </c>
-      <c r="P17" s="71">
-        <f t="shared" si="5"/>
-        <v>-101.88599997000006</v>
-      </c>
-      <c r="Q17" s="70">
-        <f t="shared" si="5"/>
-        <v>-3.5277580070000036E-3</v>
-      </c>
-      <c r="V17" s="2">
-        <f t="shared" si="6"/>
-        <v>-3263.3600000000006</v>
-      </c>
-      <c r="W17" s="2">
-        <f t="shared" si="6"/>
-        <v>405.31999999999971</v>
-      </c>
-      <c r="X17" s="60">
-        <f t="shared" si="6"/>
-        <v>-0.24586835861197187</v>
-      </c>
-      <c r="Y17" s="14">
-        <f t="shared" si="6"/>
-        <v>3.1474468565140024E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="J18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="R18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="E19" s="14"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="B20" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="82"/>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="T21" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="U21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X21" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y21" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1939.52</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1254.28</v>
-      </c>
-      <c r="D22" s="60">
-        <v>4.0217199611699996</v>
-      </c>
-      <c r="E22" s="15">
-        <f>0.412818978501</f>
-        <v>0.41281897850100002</v>
-      </c>
-      <c r="F22" s="61">
-        <v>2660.24</v>
-      </c>
-      <c r="G22" s="62">
-        <v>1850.8</v>
-      </c>
-      <c r="H22" s="63">
-        <v>3.5277999687200001</v>
-      </c>
-      <c r="I22" s="64">
-        <f>0.457858631304</f>
-        <v>0.45785863130400001</v>
-      </c>
-      <c r="J22" s="10">
-        <v>1788.56</v>
-      </c>
-      <c r="K22" s="4">
-        <v>383.36</v>
-      </c>
-      <c r="L22" s="60">
-        <v>6.74392003059</v>
-      </c>
-      <c r="M22" s="15">
-        <f>0.117365546056</f>
-        <v>0.117365546056</v>
-      </c>
-      <c r="N22" s="61">
-        <v>2361.4</v>
-      </c>
-      <c r="O22" s="62">
-        <v>394.84</v>
-      </c>
-      <c r="P22" s="63">
-        <v>8.5536399841299993</v>
-      </c>
-      <c r="Q22" s="64">
-        <f>0.133845483353</f>
-        <v>0.13384548335300001</v>
-      </c>
-      <c r="R22" s="10">
-        <v>75640.639999999999</v>
-      </c>
-      <c r="S22" s="4">
-        <v>50279.44</v>
-      </c>
-      <c r="T22" s="60">
-        <v>45.724359817504798</v>
-      </c>
-      <c r="U22" s="15">
-        <f>0.664719285726297</f>
-        <v>0.66471928572629702</v>
-      </c>
-      <c r="V22" s="61">
-        <v>72349.759999999995</v>
-      </c>
-      <c r="W22" s="62">
-        <v>48301.440000000002</v>
-      </c>
-      <c r="X22" s="63">
-        <v>45.114759931564301</v>
-      </c>
-      <c r="Y22" s="64">
-        <f>0.667614675138628</f>
-        <v>0.66761467513862804</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="7">
-        <v>65731.759999999995</v>
-      </c>
-      <c r="C23" s="8">
-        <v>42733</v>
-      </c>
-      <c r="D23" s="69">
-        <v>14.4680799961</v>
-      </c>
-      <c r="E23" s="16">
-        <f>0.649367174249</f>
-        <v>0.64936717424900003</v>
-      </c>
-      <c r="F23" s="65">
-        <v>65878.28</v>
-      </c>
-      <c r="G23" s="66">
-        <v>42978.879999999997</v>
-      </c>
-      <c r="H23" s="67">
-        <v>14.3954400158</v>
-      </c>
-      <c r="I23" s="68">
-        <f>0.651995258419</f>
-        <v>0.65199525841899997</v>
-      </c>
-      <c r="J23" s="11">
-        <v>55759.76</v>
-      </c>
-      <c r="K23" s="12">
-        <v>5086.16</v>
-      </c>
-      <c r="L23" s="69">
-        <v>181.28955995600001</v>
-      </c>
-      <c r="M23" s="16">
-        <f>0.0941569205377</f>
-        <v>9.4156920537700001E-2</v>
-      </c>
-      <c r="N23" s="65">
-        <v>49437.48</v>
-      </c>
-      <c r="O23" s="66">
-        <v>8438.16</v>
-      </c>
-      <c r="P23" s="67">
-        <v>410.138880024</v>
-      </c>
-      <c r="Q23" s="68">
-        <f>0.175672981217</f>
-        <v>0.17567298121700001</v>
-      </c>
-      <c r="R23" s="11">
-        <v>72151.28</v>
-      </c>
-      <c r="S23" s="12">
-        <v>49929.2</v>
-      </c>
-      <c r="T23" s="69">
-        <v>32.503294029235803</v>
-      </c>
-      <c r="U23" s="16">
-        <f>0.692010424836777</f>
-        <v>0.69201042483677699</v>
-      </c>
-      <c r="V23" s="65">
-        <v>68850.64</v>
-      </c>
-      <c r="W23" s="66">
-        <v>47900.56</v>
-      </c>
-      <c r="X23" s="67">
-        <v>29.520818271636902</v>
-      </c>
-      <c r="Y23" s="68">
-        <f>0.695717701367691</f>
-        <v>0.69571770136769095</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="F24" s="2">
-        <f t="shared" ref="F24:I25" si="7">F22-B22</f>
-        <v>720.7199999999998</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="7"/>
-        <v>596.52</v>
-      </c>
-      <c r="H24" s="60">
-        <f t="shared" si="7"/>
-        <v>-0.49391999244999951</v>
-      </c>
-      <c r="I24" s="14">
-        <f t="shared" si="7"/>
-        <v>4.5039652802999985E-2</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" ref="N24:Q25" si="8">N22-J22</f>
-        <v>572.84000000000015</v>
-      </c>
-      <c r="O24" s="2">
-        <f t="shared" si="8"/>
-        <v>11.479999999999961</v>
-      </c>
-      <c r="P24" s="60">
-        <f t="shared" si="8"/>
-        <v>1.8097199535399993</v>
-      </c>
-      <c r="Q24" s="14">
-        <f t="shared" si="8"/>
-        <v>1.6479937297000008E-2</v>
-      </c>
-      <c r="V24" s="2">
-        <f>V22-R22</f>
-        <v>-3290.8800000000047</v>
-      </c>
-      <c r="W24" s="2">
-        <f>W22-S22</f>
-        <v>-1978</v>
-      </c>
-      <c r="X24" s="60">
-        <f>X22-T22</f>
-        <v>-0.60959988594049719</v>
-      </c>
-      <c r="Y24" s="14">
-        <f>Y22-U22</f>
-        <v>2.8953894123310286E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="F25" s="2">
-        <f t="shared" si="7"/>
-        <v>146.52000000000407</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="7"/>
-        <v>245.87999999999738</v>
-      </c>
-      <c r="H25" s="60">
-        <f t="shared" si="7"/>
-        <v>-7.2639980299999962E-2</v>
-      </c>
-      <c r="I25" s="14">
-        <f t="shared" si="7"/>
-        <v>2.6280841699999336E-3</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" si="8"/>
-        <v>-6322.2799999999988</v>
-      </c>
-      <c r="O25" s="2">
-        <f t="shared" si="8"/>
-        <v>3352</v>
-      </c>
-      <c r="P25" s="71">
-        <f t="shared" si="8"/>
-        <v>228.849320068</v>
-      </c>
-      <c r="Q25" s="14">
-        <f t="shared" si="8"/>
-        <v>8.1516060679300006E-2</v>
-      </c>
-      <c r="V25" s="2">
-        <f>V23-R23</f>
-        <v>-3300.6399999999994</v>
-      </c>
-      <c r="W25" s="2">
-        <f t="shared" ref="W25:Y25" si="9">W23-S23</f>
-        <v>-2028.6399999999994</v>
-      </c>
-      <c r="X25" s="60">
-        <f>X23-T23</f>
-        <v>-2.9824757575989018</v>
-      </c>
-      <c r="Y25" s="70">
-        <f t="shared" si="9"/>
-        <v>3.707276530913961E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DC7D24-B396-4993-B282-4FF11F71EEA8}">
-  <dimension ref="A2:AE25"/>
+  <dimension ref="A2:AE31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC23" sqref="AC23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5134,48 +5142,48 @@
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:31">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="80" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="84"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="81"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="80" t="s">
+      <c r="M4" s="84"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="81"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="80" t="s">
+      <c r="R4" s="84"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="81"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="80" t="s">
+      <c r="W4" s="84"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="82"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="85"/>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="33" t="s">
@@ -5340,7 +5348,7 @@
         <f>0.495939083514</f>
         <v>0.49593908351400001</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="46">
         <v>75597.440000000002</v>
       </c>
       <c r="W6" s="4">
@@ -5439,7 +5447,7 @@
         <f>0.345052281224</f>
         <v>0.345052281224</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="48">
         <v>71535</v>
       </c>
       <c r="W7" s="12">
@@ -5573,7 +5581,7 @@
         <f t="shared" si="2"/>
         <v>0.26182871863069612</v>
       </c>
-      <c r="T9" s="71">
+      <c r="T9" s="60">
         <f>T7-O7</f>
         <v>328.667519932</v>
       </c>
@@ -5593,11 +5601,11 @@
         <f t="shared" si="3"/>
         <v>2.069875667670501E-3</v>
       </c>
-      <c r="AD9" s="71">
+      <c r="AD9" s="60">
         <f>AD7-Y7</f>
         <v>7.3462778091430039</v>
       </c>
-      <c r="AE9" s="70">
+      <c r="AE9" s="14">
         <f>AE7-Z7</f>
         <v>-4.1277204994510097E-3</v>
       </c>
@@ -5622,48 +5630,48 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:31">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="80" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="81"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="80" t="s">
+      <c r="H12" s="84"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="81"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="80" t="s">
+      <c r="M12" s="84"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="R12" s="81"/>
-      <c r="S12" s="83"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="80" t="s">
+      <c r="R12" s="84"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="W12" s="81"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="80" t="s">
+      <c r="W12" s="84"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="82"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="85"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="33" t="s">
@@ -5827,7 +5835,7 @@
         <f>0.266656194123</f>
         <v>0.26665619412300001</v>
       </c>
-      <c r="V14" s="10">
+      <c r="V14" s="46">
         <v>72101.279999999999</v>
       </c>
       <c r="W14" s="4">
@@ -5928,7 +5936,7 @@
         <f>0.513583558135</f>
         <v>0.51358355813500001</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="48">
         <v>75500.52</v>
       </c>
       <c r="W15" s="12">
@@ -6001,7 +6009,7 @@
         <f>T14-O14</f>
         <v>33.887359971999956</v>
       </c>
-      <c r="U16" s="70">
+      <c r="U16" s="14">
         <f>U14-P14</f>
         <v>-1.3407816965999964E-2</v>
       </c>
@@ -6062,11 +6070,11 @@
         <f t="shared" si="6"/>
         <v>-1.4920097906000018E-2</v>
       </c>
-      <c r="T17" s="71">
+      <c r="T17" s="60">
         <f>T15-O15</f>
         <v>-101.88599997000006</v>
       </c>
-      <c r="U17" s="70">
+      <c r="U17" s="14">
         <f>U15-P15</f>
         <v>-3.5277580070000036E-3</v>
       </c>
@@ -6111,48 +6119,48 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="80" t="s">
+      <c r="C20" s="84"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="81"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="80" t="s">
+      <c r="H20" s="84"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M20" s="81"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="80" t="s">
+      <c r="M20" s="84"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="R20" s="81"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="80" t="s">
+      <c r="R20" s="84"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="W20" s="81"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="80" t="s">
+      <c r="W20" s="84"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="82"/>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="85"/>
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="33" t="s">
@@ -6317,7 +6325,7 @@
         <f>0.133845483353</f>
         <v>0.13384548335300001</v>
       </c>
-      <c r="V22" s="10">
+      <c r="V22" s="46">
         <v>75640.639999999999</v>
       </c>
       <c r="W22" s="4">
@@ -6418,7 +6426,7 @@
         <f>0.175672981217</f>
         <v>0.17567298121700001</v>
       </c>
-      <c r="V23" s="11">
+      <c r="V23" s="48">
         <v>72151.28</v>
       </c>
       <c r="W23" s="12">
@@ -6546,7 +6554,7 @@
         <f t="shared" si="9"/>
         <v>1.5050434143760998E-2</v>
       </c>
-      <c r="T25" s="71">
+      <c r="T25" s="60">
         <f>T23-O23</f>
         <v>228.849320068</v>
       </c>
@@ -6570,13 +6578,41 @@
         <f>AD23-Y23</f>
         <v>-2.9824757575989018</v>
       </c>
-      <c r="AE25" s="70">
+      <c r="AE25" s="14">
         <f t="shared" ref="AE25" si="11">AE23-Z23</f>
         <v>3.707276530913961E-3</v>
       </c>
     </row>
+    <row r="29" spans="1:31">
+      <c r="E29" s="60">
+        <f>AVERAGE(B6:B7,B14:B15,B22:B23)</f>
+        <v>74794.42</v>
+      </c>
+      <c r="F29" s="2">
+        <f>AVERAGE(V6:V7,V14:V15,V22:V23)</f>
+        <v>73754.36</v>
+      </c>
+      <c r="N29" s="3">
+        <f>11/18</f>
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="N30" s="3">
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="F31" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:Z4"/>
     <mergeCell ref="AA20:AE20"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="G12:K12"/>
@@ -6589,1053 +6625,17 @@
     <mergeCell ref="L20:P20"/>
     <mergeCell ref="Q20:U20"/>
     <mergeCell ref="V20:Z20"/>
-    <mergeCell ref="AA4:AE4"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:Z4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8137F2D2-9415-4E0A-902C-EE90A5695E2E}">
-  <dimension ref="A3:K39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:10">
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="72" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="72">
-        <v>3.3E-3</v>
-      </c>
-      <c r="C7" s="72">
-        <v>-1.2200000000000001E-2</v>
-      </c>
-      <c r="D7" s="72">
-        <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="E7" s="72">
-        <v>-1.7899999999999999E-2</v>
-      </c>
-      <c r="F7" s="72">
-        <v>-1.9599999999999999E-2</v>
-      </c>
-      <c r="G7" s="72">
-        <v>-3.04E-2</v>
-      </c>
-      <c r="H7" s="72">
-        <v>1.4E-2</v>
-      </c>
-      <c r="I7" s="72">
-        <v>0.11890000000000001</v>
-      </c>
-      <c r="J7" s="72">
-        <v>0.29139999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="72">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="C8" s="72">
-        <v>-1.6400000000000001E-2</v>
-      </c>
-      <c r="D8" s="72">
-        <v>7.9100000000000004E-2</v>
-      </c>
-      <c r="E8" s="72">
-        <v>0.1653</v>
-      </c>
-      <c r="F8" s="72">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="G8" s="72">
-        <v>-8.8000000000000005E-3</v>
-      </c>
-      <c r="H8" s="72">
-        <v>-1.4200000000000001E-2</v>
-      </c>
-      <c r="I8" s="72">
-        <v>0.1038</v>
-      </c>
-      <c r="J8" s="72">
-        <v>0.13880000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="72">
-        <v>6.3E-3</v>
-      </c>
-      <c r="C9" s="72">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="D9" s="72">
-        <v>0.1104</v>
-      </c>
-      <c r="E9" s="72">
-        <v>-2.06E-2</v>
-      </c>
-      <c r="F9" s="72">
-        <v>-4.99E-2</v>
-      </c>
-      <c r="G9" s="72">
-        <v>-3.8600000000000002E-2</v>
-      </c>
-      <c r="H9" s="72">
-        <v>-1.29E-2</v>
-      </c>
-      <c r="I9" s="72">
-        <v>0.12139999999999999</v>
-      </c>
-      <c r="J9" s="72">
-        <v>-0.22359999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="72">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="C10" s="72">
-        <v>-4.4299999999999999E-2</v>
-      </c>
-      <c r="D10" s="72">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="E10" s="72">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="F10" s="72">
-        <v>-6.7999999999999996E-3</v>
-      </c>
-      <c r="G10" s="72">
-        <v>-4.0899999999999999E-2</v>
-      </c>
-      <c r="H10" s="72">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="I10" s="72">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="J10" s="72">
-        <v>5.21E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="72">
-        <v>1.15E-2</v>
-      </c>
-      <c r="C11" s="72">
-        <v>-2.6599999999999999E-2</v>
-      </c>
-      <c r="D11" s="72">
-        <v>6.4299999999999996E-2</v>
-      </c>
-      <c r="E11" s="72">
-        <v>0.1047</v>
-      </c>
-      <c r="F11" s="72">
-        <v>-1.84E-2</v>
-      </c>
-      <c r="G11" s="72">
-        <v>-2.35E-2</v>
-      </c>
-      <c r="H11" s="72">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="I11" s="72">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="J11" s="72">
-        <v>0.44850000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="72">
-        <v>1.95E-2</v>
-      </c>
-      <c r="C12" s="72">
-        <v>-0.15920000000000001</v>
-      </c>
-      <c r="D12" s="72">
-        <v>0.15939999999999999</v>
-      </c>
-      <c r="E12" s="72">
-        <v>-1.5299999999999999E-2</v>
-      </c>
-      <c r="F12" s="72">
-        <v>-0.17219999999999999</v>
-      </c>
-      <c r="G12" s="72">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="H12" s="72">
-        <v>-2.3E-2</v>
-      </c>
-      <c r="I12" s="72">
-        <v>-0.2056</v>
-      </c>
-      <c r="J12" s="72">
-        <v>-7.9799999999999996E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="72">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="C13" s="72">
-        <v>-4.4999999999999997E-3</v>
-      </c>
-      <c r="D13" s="72">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="E13" s="72">
-        <v>-7.7999999999999996E-3</v>
-      </c>
-      <c r="F13" s="72">
-        <v>-3.5099999999999999E-2</v>
-      </c>
-      <c r="G13" s="72">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H13" s="72">
-        <v>-2.1299999999999999E-2</v>
-      </c>
-      <c r="I13" s="72">
-        <v>-0.1046</v>
-      </c>
-      <c r="J13" s="72">
-        <v>-5.2699999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="72">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C14" s="72">
-        <v>-0.12</v>
-      </c>
-      <c r="D14" s="72">
-        <v>0.1517</v>
-      </c>
-      <c r="E14" s="72">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="F14" s="72">
-        <v>-5.5599999999999997E-2</v>
-      </c>
-      <c r="G14" s="72">
-        <v>-1.29E-2</v>
-      </c>
-      <c r="H14" s="72">
-        <v>0.12709999999999999</v>
-      </c>
-      <c r="I14" s="72">
-        <v>-1.15E-2</v>
-      </c>
-      <c r="J14" s="72">
-        <v>0.16239999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="72">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="C15" s="72">
-        <v>-4.0399999999999998E-2</v>
-      </c>
-      <c r="D15" s="72">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="E15" s="72">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="F15" s="72">
-        <v>-9.7900000000000001E-2</v>
-      </c>
-      <c r="G15" s="72">
-        <v>-4.24E-2</v>
-      </c>
-      <c r="H15" s="72">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="I15" s="72">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="J15" s="72">
-        <v>0.25180000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="72">
-        <v>0.1008</v>
-      </c>
-      <c r="C16" s="72">
-        <v>3.95E-2</v>
-      </c>
-      <c r="D16" s="72">
-        <v>6.1600000000000002E-2</v>
-      </c>
-      <c r="E16" s="72">
-        <v>0.1764</v>
-      </c>
-      <c r="F16" s="72">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="G16" s="72">
-        <v>7.85E-2</v>
-      </c>
-      <c r="H16" s="72">
-        <v>2.69E-2</v>
-      </c>
-      <c r="I16" s="72">
-        <v>5.4399999999999997E-2</v>
-      </c>
-      <c r="J16" s="72">
-        <v>0.67110000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="72">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="C17" s="72">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="D17" s="72">
-        <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="E17" s="72">
-        <v>0.2407</v>
-      </c>
-      <c r="F17" s="72">
-        <v>0.11459999999999999</v>
-      </c>
-      <c r="G17" s="72">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="H17" s="72">
-        <v>0.48330000000000001</v>
-      </c>
-      <c r="I17" s="72">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="J17" s="72">
-        <v>0.76490000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="72">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="C18" s="72">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="D18" s="72">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="E18" s="72">
-        <v>0.44419999999999998</v>
-      </c>
-      <c r="F18" s="72">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="G18" s="72">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="H18" s="72">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="I18" s="72">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="J18" s="72">
-        <v>0.17699999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="72">
-        <v>8.0199999999999994E-2</v>
-      </c>
-      <c r="C19">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D19">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="E19">
-        <v>0.54579999999999995</v>
-      </c>
-      <c r="F19">
-        <v>1.38E-2</v>
-      </c>
-      <c r="G19">
-        <v>0.1305</v>
-      </c>
-      <c r="H19">
-        <v>5.5500000000000001E-2</v>
-      </c>
-      <c r="I19">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="J19">
-        <v>0.19650000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="72">
-        <v>4.8800000000000003E-2</v>
-      </c>
-      <c r="C20">
-        <v>4.9099999999999998E-2</v>
-      </c>
-      <c r="D20">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="E20">
-        <v>0.31609999999999999</v>
-      </c>
-      <c r="F20">
-        <v>1.49E-2</v>
-      </c>
-      <c r="G20">
-        <v>0.1158</v>
-      </c>
-      <c r="H20">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="I20">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="J20">
-        <v>6.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="72">
-        <v>0.2838</v>
-      </c>
-      <c r="C21">
-        <v>5.0799999999999998E-2</v>
-      </c>
-      <c r="D21">
-        <v>0.10249999999999999</v>
-      </c>
-      <c r="E21">
-        <v>1.8E-3</v>
-      </c>
-      <c r="F21">
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="G21">
-        <v>0.28839999999999999</v>
-      </c>
-      <c r="H21">
-        <v>0.1067</v>
-      </c>
-      <c r="I21">
-        <v>0.2177</v>
-      </c>
-      <c r="J21">
-        <v>0.18360000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" s="72"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="72"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="72">
-        <v>-0.44019999999999998</v>
-      </c>
-      <c r="C27" s="72">
-        <v>3.7600000000000001E-2</v>
-      </c>
-      <c r="D27" s="72">
-        <v>-0.22120000000000001</v>
-      </c>
-      <c r="E27" s="72">
-        <v>-9.3899999999999997E-2</v>
-      </c>
-      <c r="F27" s="72">
-        <v>8.2100000000000006E-2</v>
-      </c>
-      <c r="G27" s="72">
-        <v>0.1142</v>
-      </c>
-      <c r="H27" s="72">
-        <v>6.1699999999999998E-2</v>
-      </c>
-      <c r="I27" s="72">
-        <v>0.38950000000000001</v>
-      </c>
-      <c r="J27" s="72">
-        <v>-0.10780000000000001</v>
-      </c>
-      <c r="K27" s="72"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="72">
-        <v>1.06E-2</v>
-      </c>
-      <c r="C28" s="72">
-        <v>6.5199999999999994E-2</v>
-      </c>
-      <c r="D28" s="72">
-        <v>-0.15629999999999999</v>
-      </c>
-      <c r="E28" s="72">
-        <v>-0.05</v>
-      </c>
-      <c r="F28" s="72">
-        <v>0.1167</v>
-      </c>
-      <c r="G28" s="72">
-        <v>7.4700000000000003E-2</v>
-      </c>
-      <c r="H28" s="72">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="I28" s="72">
-        <v>0.3725</v>
-      </c>
-      <c r="J28" s="72">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="72">
-        <v>7.6E-3</v>
-      </c>
-      <c r="C29" s="72">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="D29" s="72">
-        <v>0.2404</v>
-      </c>
-      <c r="E29" s="72">
-        <v>-3.3999999999999998E-3</v>
-      </c>
-      <c r="F29" s="72">
-        <v>0.1278</v>
-      </c>
-      <c r="G29" s="72">
-        <v>0.1845</v>
-      </c>
-      <c r="H29" s="72">
-        <v>0.2175</v>
-      </c>
-      <c r="I29" s="72">
-        <v>0.58589999999999998</v>
-      </c>
-      <c r="J29" s="72">
-        <v>0.1343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="72">
-        <v>-9.4999999999999998E-3</v>
-      </c>
-      <c r="C30" s="72">
-        <v>4.6199999999999998E-2</v>
-      </c>
-      <c r="D30" s="72">
-        <v>0.32029999999999997</v>
-      </c>
-      <c r="E30" s="72">
-        <v>6.83E-2</v>
-      </c>
-      <c r="F30" s="72">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="G30" s="72">
-        <v>0.2036</v>
-      </c>
-      <c r="H30" s="72">
-        <v>-1.1900000000000001E-2</v>
-      </c>
-      <c r="I30" s="72">
-        <v>0.54210000000000003</v>
-      </c>
-      <c r="J30" s="72">
-        <v>-0.1925</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="72">
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="C31" s="72">
-        <v>0.1169</v>
-      </c>
-      <c r="D31" s="72">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="E31" s="72">
-        <v>4.99E-2</v>
-      </c>
-      <c r="F31" s="72">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="G31" s="72">
-        <v>0.1258</v>
-      </c>
-      <c r="H31" s="72">
-        <v>9.06E-2</v>
-      </c>
-      <c r="I31" s="72">
-        <v>0.41660000000000003</v>
-      </c>
-      <c r="J31" s="72">
-        <v>0.28360000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="72">
-        <v>-3.85E-2</v>
-      </c>
-      <c r="C32" s="72">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="D32" s="72">
-        <v>0.379</v>
-      </c>
-      <c r="E32" s="72">
-        <v>7.6600000000000001E-2</v>
-      </c>
-      <c r="F32" s="72">
-        <v>8.0399999999999999E-2</v>
-      </c>
-      <c r="G32" s="72">
-        <v>0.2114</v>
-      </c>
-      <c r="H32" s="72">
-        <v>-0.27960000000000002</v>
-      </c>
-      <c r="I32" s="72">
-        <v>0.5262</v>
-      </c>
-      <c r="J32" s="72">
-        <v>-0.1482</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="72">
-        <v>-1.1000000000000001E-3</v>
-      </c>
-      <c r="C33" s="72">
-        <v>0.1002</v>
-      </c>
-      <c r="D33" s="72">
-        <v>-1.84E-2</v>
-      </c>
-      <c r="E33" s="72">
-        <v>0</v>
-      </c>
-      <c r="F33" s="72">
-        <v>9.8199999999999996E-2</v>
-      </c>
-      <c r="G33" s="72">
-        <v>0.18540000000000001</v>
-      </c>
-      <c r="H33" s="72">
-        <v>-2.7199999999999998E-2</v>
-      </c>
-      <c r="I33" s="72">
-        <v>0.38690000000000002</v>
-      </c>
-      <c r="J33" s="72">
-        <v>-0.34610000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="72">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="C34" s="72">
-        <v>6.1499999999999999E-2</v>
-      </c>
-      <c r="D34" s="72">
-        <v>0.21049999999999999</v>
-      </c>
-      <c r="E34" s="72">
-        <v>3.8E-3</v>
-      </c>
-      <c r="F34" s="72">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="G34" s="72">
-        <v>6.4799999999999996E-2</v>
-      </c>
-      <c r="H34" s="72">
-        <v>-1.9E-3</v>
-      </c>
-      <c r="I34" s="72">
-        <v>-0.93030000000000002</v>
-      </c>
-      <c r="J34" s="72">
-        <v>-9.6500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" s="72" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="72">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="C36" s="72">
-        <v>9.8699999999999996E-2</v>
-      </c>
-      <c r="D36" s="72">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="E36" s="72">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="F36" s="72">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="G36" s="72">
-        <v>0.1133</v>
-      </c>
-      <c r="H36" s="72">
-        <v>-0.45700000000000002</v>
-      </c>
-      <c r="I36" s="72">
-        <v>-0.48080000000000001</v>
-      </c>
-      <c r="J36" s="72">
-        <v>0.14130000000000001</v>
-      </c>
-      <c r="K36" s="72"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="72">
-        <v>0.2074</v>
-      </c>
-      <c r="C37" s="72">
-        <v>0.1008</v>
-      </c>
-      <c r="D37" s="72">
-        <v>0.2863</v>
-      </c>
-      <c r="E37" s="72">
-        <v>0.13550000000000001</v>
-      </c>
-      <c r="F37" s="72">
-        <v>7.3300000000000004E-2</v>
-      </c>
-      <c r="G37" s="72">
-        <v>0.30059999999999998</v>
-      </c>
-      <c r="H37" s="72">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="I37" s="72">
-        <v>0.46160000000000001</v>
-      </c>
-      <c r="J37" s="72">
-        <v>0.1225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="72">
-        <v>0.25159999999999999</v>
-      </c>
-      <c r="C38" s="72">
-        <v>8.0199999999999994E-2</v>
-      </c>
-      <c r="D38" s="72">
-        <v>0.2515</v>
-      </c>
-      <c r="E38" s="72">
-        <v>0.18490000000000001</v>
-      </c>
-      <c r="F38" s="72">
-        <v>2.12E-2</v>
-      </c>
-      <c r="G38" s="72">
-        <v>2.69E-2</v>
-      </c>
-      <c r="H38" s="72">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="I38" s="72">
-        <v>0.47970000000000002</v>
-      </c>
-      <c r="J38" s="72">
-        <v>0.24249999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="72">
-        <v>4.53E-2</v>
-      </c>
-      <c r="C39">
-        <v>6.3899999999999998E-2</v>
-      </c>
-      <c r="D39">
-        <v>0.26290000000000002</v>
-      </c>
-      <c r="E39">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="F39">
-        <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="G39">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="H39">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="I39">
-        <v>0.4622</v>
-      </c>
-      <c r="J39">
-        <v>0.1106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95DB78E-C3C9-4D84-AB69-47409FDD14D6}">
   <dimension ref="B3:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8299,26 +7299,26 @@
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" t="s">
+      <c r="B33" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="77">
         <v>0.29951326413134899</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="77">
         <v>1.7188758797908502E-2</v>
       </c>
-      <c r="G33" s="1" t="str">
+      <c r="G33" s="78" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="H33" s="1" t="str">
+      <c r="H33" s="78" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
@@ -8383,26 +7383,26 @@
       </c>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" t="s">
+      <c r="B36" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="77">
         <v>0.48526860203996602</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="77">
         <v>4.8997988349383504E-4</v>
       </c>
-      <c r="G36" s="1" t="str">
+      <c r="G36" s="78" t="str">
         <f t="shared" si="1"/>
         <v>No</v>
       </c>
-      <c r="H36" s="1" t="str">
+      <c r="H36" s="78" t="str">
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
@@ -8411,26 +7411,26 @@
       </c>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" t="s">
+      <c r="B37" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="73">
+      <c r="E37" s="79">
         <v>7.1735146545689301E-21</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="77">
         <v>0.12796602261280299</v>
       </c>
-      <c r="G37" t="str">
+      <c r="G37" s="77" t="str">
         <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
-      <c r="H37" s="1" t="str">
+      <c r="H37" s="78" t="str">
         <f t="shared" si="2"/>
         <v>No</v>
       </c>
@@ -8576,6 +7576,1036 @@
       </c>
       <c r="I42" t="s">
         <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8137F2D2-9415-4E0A-902C-EE90A5695E2E}">
+  <dimension ref="A3:K39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="72">
+        <v>3.3E-3</v>
+      </c>
+      <c r="C7" s="72">
+        <v>-1.2200000000000001E-2</v>
+      </c>
+      <c r="D7" s="72">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="E7" s="72">
+        <v>-1.7899999999999999E-2</v>
+      </c>
+      <c r="F7" s="72">
+        <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="G7" s="72">
+        <v>-3.04E-2</v>
+      </c>
+      <c r="H7" s="72">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I7" s="72">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="J7" s="72">
+        <v>0.29139999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="72">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="C8" s="72">
+        <v>-1.6400000000000001E-2</v>
+      </c>
+      <c r="D8" s="72">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="E8" s="72">
+        <v>0.1653</v>
+      </c>
+      <c r="F8" s="72">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="G8" s="72">
+        <v>-8.8000000000000005E-3</v>
+      </c>
+      <c r="H8" s="72">
+        <v>-1.4200000000000001E-2</v>
+      </c>
+      <c r="I8" s="72">
+        <v>0.1038</v>
+      </c>
+      <c r="J8" s="72">
+        <v>0.13880000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="72">
+        <v>6.3E-3</v>
+      </c>
+      <c r="C9" s="72">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D9" s="72">
+        <v>0.1104</v>
+      </c>
+      <c r="E9" s="72">
+        <v>-2.06E-2</v>
+      </c>
+      <c r="F9" s="72">
+        <v>-4.99E-2</v>
+      </c>
+      <c r="G9" s="72">
+        <v>-3.8600000000000002E-2</v>
+      </c>
+      <c r="H9" s="72">
+        <v>-1.29E-2</v>
+      </c>
+      <c r="I9" s="72">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="J9" s="72">
+        <v>-0.22359999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="72">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="C10" s="72">
+        <v>-4.4299999999999999E-2</v>
+      </c>
+      <c r="D10" s="72">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="E10" s="72">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="F10" s="72">
+        <v>-6.7999999999999996E-3</v>
+      </c>
+      <c r="G10" s="72">
+        <v>-4.0899999999999999E-2</v>
+      </c>
+      <c r="H10" s="72">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="I10" s="72">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="J10" s="72">
+        <v>5.21E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="72">
+        <v>1.15E-2</v>
+      </c>
+      <c r="C11" s="72">
+        <v>-2.6599999999999999E-2</v>
+      </c>
+      <c r="D11" s="72">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="E11" s="72">
+        <v>0.1047</v>
+      </c>
+      <c r="F11" s="72">
+        <v>-1.84E-2</v>
+      </c>
+      <c r="G11" s="72">
+        <v>-2.35E-2</v>
+      </c>
+      <c r="H11" s="72">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="I11" s="72">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="J11" s="72">
+        <v>0.44850000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="72">
+        <v>1.95E-2</v>
+      </c>
+      <c r="C12" s="72">
+        <v>-0.15920000000000001</v>
+      </c>
+      <c r="D12" s="72">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="E12" s="72">
+        <v>-1.5299999999999999E-2</v>
+      </c>
+      <c r="F12" s="72">
+        <v>-0.17219999999999999</v>
+      </c>
+      <c r="G12" s="72">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H12" s="72">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="I12" s="72">
+        <v>-0.2056</v>
+      </c>
+      <c r="J12" s="72">
+        <v>-7.9799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="72">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="C13" s="72">
+        <v>-4.4999999999999997E-3</v>
+      </c>
+      <c r="D13" s="72">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="E13" s="72">
+        <v>-7.7999999999999996E-3</v>
+      </c>
+      <c r="F13" s="72">
+        <v>-3.5099999999999999E-2</v>
+      </c>
+      <c r="G13" s="72">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H13" s="72">
+        <v>-2.1299999999999999E-2</v>
+      </c>
+      <c r="I13" s="72">
+        <v>-0.1046</v>
+      </c>
+      <c r="J13" s="72">
+        <v>-5.2699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="72">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C14" s="72">
+        <v>-0.12</v>
+      </c>
+      <c r="D14" s="72">
+        <v>0.1517</v>
+      </c>
+      <c r="E14" s="72">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="F14" s="72">
+        <v>-5.5599999999999997E-2</v>
+      </c>
+      <c r="G14" s="72">
+        <v>-1.29E-2</v>
+      </c>
+      <c r="H14" s="72">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="I14" s="72">
+        <v>-1.15E-2</v>
+      </c>
+      <c r="J14" s="72">
+        <v>0.16239999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="72">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="C15" s="72">
+        <v>-4.0399999999999998E-2</v>
+      </c>
+      <c r="D15" s="72">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="E15" s="72">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="F15" s="72">
+        <v>-9.7900000000000001E-2</v>
+      </c>
+      <c r="G15" s="72">
+        <v>-4.24E-2</v>
+      </c>
+      <c r="H15" s="72">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="I15" s="72">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J15" s="72">
+        <v>0.25180000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="72">
+        <v>0.1008</v>
+      </c>
+      <c r="C16" s="72">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D16" s="72">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="E16" s="72">
+        <v>0.1764</v>
+      </c>
+      <c r="F16" s="72">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="G16" s="72">
+        <v>7.85E-2</v>
+      </c>
+      <c r="H16" s="72">
+        <v>2.69E-2</v>
+      </c>
+      <c r="I16" s="72">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="J16" s="72">
+        <v>0.67110000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="72">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C17" s="72">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D17" s="72">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="E17" s="72">
+        <v>0.2407</v>
+      </c>
+      <c r="F17" s="72">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="G17" s="72">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="H17" s="72">
+        <v>0.48330000000000001</v>
+      </c>
+      <c r="I17" s="72">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="J17" s="72">
+        <v>0.76490000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="72">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="C18" s="72">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="D18" s="72">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="E18" s="72">
+        <v>0.44419999999999998</v>
+      </c>
+      <c r="F18" s="72">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="G18" s="72">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="H18" s="72">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="I18" s="72">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="J18" s="72">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="72">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="C19">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D19">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.54579999999999995</v>
+      </c>
+      <c r="F19">
+        <v>1.38E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.1305</v>
+      </c>
+      <c r="H19">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="I19">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.19650000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="72">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="C20">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="D20">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="F20">
+        <v>1.49E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.1158</v>
+      </c>
+      <c r="H20">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I20">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="J20">
+        <v>6.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="72">
+        <v>0.2838</v>
+      </c>
+      <c r="C21">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="E21">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F21">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.1067</v>
+      </c>
+      <c r="I21">
+        <v>0.2177</v>
+      </c>
+      <c r="J21">
+        <v>0.18360000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="72"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="72"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="72">
+        <v>-0.44019999999999998</v>
+      </c>
+      <c r="C27" s="72">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="D27" s="72">
+        <v>-0.22120000000000001</v>
+      </c>
+      <c r="E27" s="72">
+        <v>-9.3899999999999997E-2</v>
+      </c>
+      <c r="F27" s="72">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="G27" s="72">
+        <v>0.1142</v>
+      </c>
+      <c r="H27" s="72">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="I27" s="72">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="J27" s="72">
+        <v>-0.10780000000000001</v>
+      </c>
+      <c r="K27" s="72"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="72">
+        <v>1.06E-2</v>
+      </c>
+      <c r="C28" s="72">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="D28" s="72">
+        <v>-0.15629999999999999</v>
+      </c>
+      <c r="E28" s="72">
+        <v>-0.05</v>
+      </c>
+      <c r="F28" s="72">
+        <v>0.1167</v>
+      </c>
+      <c r="G28" s="72">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="H28" s="72">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="I28" s="72">
+        <v>0.3725</v>
+      </c>
+      <c r="J28" s="72">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="72">
+        <v>7.6E-3</v>
+      </c>
+      <c r="C29" s="72">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D29" s="72">
+        <v>0.2404</v>
+      </c>
+      <c r="E29" s="72">
+        <v>-3.3999999999999998E-3</v>
+      </c>
+      <c r="F29" s="72">
+        <v>0.1278</v>
+      </c>
+      <c r="G29" s="72">
+        <v>0.1845</v>
+      </c>
+      <c r="H29" s="72">
+        <v>0.2175</v>
+      </c>
+      <c r="I29" s="72">
+        <v>0.58589999999999998</v>
+      </c>
+      <c r="J29" s="72">
+        <v>0.1343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="72">
+        <v>-9.4999999999999998E-3</v>
+      </c>
+      <c r="C30" s="72">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="D30" s="72">
+        <v>0.32029999999999997</v>
+      </c>
+      <c r="E30" s="72">
+        <v>6.83E-2</v>
+      </c>
+      <c r="F30" s="72">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G30" s="72">
+        <v>0.2036</v>
+      </c>
+      <c r="H30" s="72">
+        <v>-1.1900000000000001E-2</v>
+      </c>
+      <c r="I30" s="72">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="J30" s="72">
+        <v>-0.1925</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="72">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="C31" s="72">
+        <v>0.1169</v>
+      </c>
+      <c r="D31" s="72">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E31" s="72">
+        <v>4.99E-2</v>
+      </c>
+      <c r="F31" s="72">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="G31" s="72">
+        <v>0.1258</v>
+      </c>
+      <c r="H31" s="72">
+        <v>9.06E-2</v>
+      </c>
+      <c r="I31" s="72">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="J31" s="72">
+        <v>0.28360000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="72">
+        <v>-3.85E-2</v>
+      </c>
+      <c r="C32" s="72">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="D32" s="72">
+        <v>0.379</v>
+      </c>
+      <c r="E32" s="72">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="F32" s="72">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="G32" s="72">
+        <v>0.2114</v>
+      </c>
+      <c r="H32" s="72">
+        <v>-0.27960000000000002</v>
+      </c>
+      <c r="I32" s="72">
+        <v>0.5262</v>
+      </c>
+      <c r="J32" s="72">
+        <v>-0.1482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="72">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="C33" s="72">
+        <v>0.1002</v>
+      </c>
+      <c r="D33" s="72">
+        <v>-1.84E-2</v>
+      </c>
+      <c r="E33" s="72">
+        <v>0</v>
+      </c>
+      <c r="F33" s="72">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="G33" s="72">
+        <v>0.18540000000000001</v>
+      </c>
+      <c r="H33" s="72">
+        <v>-2.7199999999999998E-2</v>
+      </c>
+      <c r="I33" s="72">
+        <v>0.38690000000000002</v>
+      </c>
+      <c r="J33" s="72">
+        <v>-0.34610000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="72">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C34" s="72">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="D34" s="72">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="E34" s="72">
+        <v>3.8E-3</v>
+      </c>
+      <c r="F34" s="72">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="G34" s="72">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="H34" s="72">
+        <v>-1.9E-3</v>
+      </c>
+      <c r="I34" s="72">
+        <v>-0.93030000000000002</v>
+      </c>
+      <c r="J34" s="72">
+        <v>-9.6500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="72">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="C36" s="72">
+        <v>9.8699999999999996E-2</v>
+      </c>
+      <c r="D36" s="72">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="E36" s="72">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="F36" s="72">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G36" s="72">
+        <v>0.1133</v>
+      </c>
+      <c r="H36" s="72">
+        <v>-0.45700000000000002</v>
+      </c>
+      <c r="I36" s="72">
+        <v>-0.48080000000000001</v>
+      </c>
+      <c r="J36" s="72">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="K36" s="72"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="72">
+        <v>0.2074</v>
+      </c>
+      <c r="C37" s="72">
+        <v>0.1008</v>
+      </c>
+      <c r="D37" s="72">
+        <v>0.2863</v>
+      </c>
+      <c r="E37" s="72">
+        <v>0.13550000000000001</v>
+      </c>
+      <c r="F37" s="72">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="G37" s="72">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="H37" s="72">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I37" s="72">
+        <v>0.46160000000000001</v>
+      </c>
+      <c r="J37" s="72">
+        <v>0.1225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="72">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="C38" s="72">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="D38" s="72">
+        <v>0.2515</v>
+      </c>
+      <c r="E38" s="72">
+        <v>0.18490000000000001</v>
+      </c>
+      <c r="F38" s="72">
+        <v>2.12E-2</v>
+      </c>
+      <c r="G38" s="72">
+        <v>2.69E-2</v>
+      </c>
+      <c r="H38" s="72">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="I38" s="72">
+        <v>0.47970000000000002</v>
+      </c>
+      <c r="J38" s="72">
+        <v>0.24249999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="72">
+        <v>4.53E-2</v>
+      </c>
+      <c r="C39">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="D39">
+        <v>0.26290000000000002</v>
+      </c>
+      <c r="E39">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="F39">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="G39">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="H39">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="I39">
+        <v>0.4622</v>
+      </c>
+      <c r="J39">
+        <v>0.1106</v>
       </c>
     </row>
   </sheetData>
@@ -8585,15 +8615,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E71E7E2-BDE0-4081-9D6A-B6CF18B81DDD}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
   </cols>
@@ -8641,6 +8671,36 @@
         <v>81</v>
       </c>
     </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
